--- a/Spreadsheets/5800X.xlsx
+++ b/Spreadsheets/5800X.xlsx
@@ -13281,7 +13281,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X Desktop CPU ( 8 Cores, Socket AM4) without Cooler - In Hand</t>
+          <t>AMD Ryzen 7 5800x - Brand New In Box</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -13290,20 +13290,20 @@
         </is>
       </c>
       <c r="D402" t="n">
-        <v>637.98</v>
+        <v>575</v>
       </c>
       <c r="E402" t="n">
         <v>0</v>
       </c>
       <c r="F402" t="n">
-        <v>637.98</v>
+        <v>575</v>
       </c>
       <c r="G402" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-CPU-8-Cores-Socket-AM4-without-Cooler-In-Hand/293839041032?hash=item446a2bf208:g:ny8AAOSwIK5ftCqF</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800x-Brand-New-In-Box/284085851650?hash=item4224d61602:g:w68AAOSw3PRftVI2</t>
         </is>
       </c>
     </row>
@@ -13313,7 +13313,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X 8-Core 3.8 GHz Socket AM4 105W CPU Desktop Processor</t>
+          <t>Ryzen 7 5800x - in hand and ready ship</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -13322,20 +13322,20 @@
         </is>
       </c>
       <c r="D403" t="n">
-        <v>699</v>
+        <v>675</v>
       </c>
       <c r="E403" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F403" t="n">
-        <v>709</v>
+        <v>675</v>
       </c>
       <c r="G403" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-8-Core-3-8-GHz-Socket-AM4-105W-CPU-Desktop-Processor/274579749760?epid=24042267832&amp;hash=item3fee3a7b80:g:WtQAAOSwKwZftBKO</t>
+          <t>https://www.ebay.com/itm/Ryzen-7-5800x-in-hand-and-ready-ship/124435920205?hash=item1cf8f5754d:g:0zwAAOSwhJJfpgPY</t>
         </is>
       </c>
     </row>
@@ -13345,7 +13345,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X Desktop Processor (4.7GHz, 8 Cores, Socket AM4)  🔥Fast Ship!!</t>
+          <t xml:space="preserve">AMD Ryzen 7 5800x IN HAND *NEW IN BOX, FREE SHIP ASAP* NO RESERVE </t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -13357,17 +13357,17 @@
         <v>640</v>
       </c>
       <c r="E404" t="n">
-        <v>0</v>
+        <v>10.9</v>
       </c>
       <c r="F404" t="n">
-        <v>640</v>
+        <v>650.9</v>
       </c>
       <c r="G404" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-Processor-4-7GHz-8-Cores-Socket-AM4-Fast-Ship/313305006149?epid=12041984358&amp;hash=item48f26f0045:g:98sAAOSw8Wlfsw6z</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800x-IN-HAND-NEW-IN-BOX-FREE-SHIP-ASAP-NO-RESERVE/184540363320?hash=item2af7767a38:g:DSEAAOSwHTlfrv5P</t>
         </is>
       </c>
     </row>
@@ -13377,7 +13377,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800x IN HAND UNOPENED READY TO SHIP</t>
+          <t>AMD Ryzen 7 5800X Processor BNIB Far Cry 6</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -13386,20 +13386,20 @@
         </is>
       </c>
       <c r="D405" t="n">
-        <v>599.95</v>
+        <v>670</v>
       </c>
       <c r="E405" t="n">
         <v>0</v>
       </c>
       <c r="F405" t="n">
-        <v>599.95</v>
+        <v>670</v>
       </c>
       <c r="G405" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800x-IN-HAND-UNOPENED-READY-TO-SHIP/333793764359?hash=item4db7a8a407:g:GkYAAOSwEVhfrgj7</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Processor-BNIB-Far-Cry-6/363175446262?hash=item548ef186f6:g:9hQAAOSwN3xfq1od</t>
         </is>
       </c>
     </row>
@@ -13409,7 +13409,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X BRAND NEW and SEALED! In Hand - SHIPS ASAP!</t>
+          <t>AMD Ryzen 7 5800X Desktop CPU ( 8 Cores, Socket AM4) without Cooler - In Hand</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -13418,20 +13418,20 @@
         </is>
       </c>
       <c r="D406" t="n">
-        <v>648</v>
+        <v>637.98</v>
       </c>
       <c r="E406" t="n">
-        <v>10.9</v>
+        <v>0</v>
       </c>
       <c r="F406" t="n">
-        <v>658.9</v>
+        <v>637.98</v>
       </c>
       <c r="G406" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-BRAND-NEW-and-SEALED-In-Hand-SHIPS-ASAP/274580495869?epid=12041984358&amp;hash=item3fee45ddfd:g:WScAAOSwkcFftLqI</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-CPU-8-Cores-Socket-AM4-without-Cooler-In-Hand/293839041032?hash=item446a2bf208:g:ny8AAOSwIK5ftCqF</t>
         </is>
       </c>
     </row>
@@ -13441,7 +13441,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Ryzen 7 5800x - Ships TODAY</t>
+          <t>AMD Ryzen 7 5800X 8-Core 3.8 GHz Socket AM4 105W CPU Desktop Processor</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -13450,20 +13450,20 @@
         </is>
       </c>
       <c r="D407" t="n">
-        <v>640</v>
+        <v>699</v>
       </c>
       <c r="E407" t="n">
         <v>10</v>
       </c>
       <c r="F407" t="n">
-        <v>650</v>
+        <v>709</v>
       </c>
       <c r="G407" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Ryzen-7-5800x-Ships-TODAY/124439802852?hash=item1cf930b3e4:g:0zwAAOSwhJJfpgPY</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-8-Core-3-8-GHz-Socket-AM4-105W-CPU-Desktop-Processor/274579749760?epid=24042267832&amp;hash=item3fee3a7b80:g:WtQAAOSwKwZftBKO</t>
         </is>
       </c>
     </row>
@@ -13473,7 +13473,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X 8 Core,16 Thread, 3.8 GHz Base,4.7 GHz Max Boost, In Hand</t>
+          <t>AMD Ryzen 7 5800X Desktop Processor (4.7GHz, 8 Cores, Socket AM4)  🔥Fast Ship!!</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -13482,20 +13482,20 @@
         </is>
       </c>
       <c r="D408" t="n">
-        <v>600</v>
+        <v>640</v>
       </c>
       <c r="E408" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F408" t="n">
-        <v>608</v>
+        <v>640</v>
       </c>
       <c r="G408" s="2" t="n">
-        <v>44152</v>
+        <v>44153</v>
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-8-Core-16-Thread-3-8-GHz-Base-4-7-GHz-Max-Boost-In-Hand/402547594570?epid=24042267832&amp;hash=item5db9b4d54a:g:ARcAAOSwwjhfq4O1</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-Processor-4-7GHz-8-Cores-Socket-AM4-Fast-Ship/313305006149?epid=12041984358&amp;hash=item48f26f0045:g:98sAAOSw8Wlfsw6z</t>
         </is>
       </c>
     </row>
@@ -13505,7 +13505,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X Desktop Processor (4.7GHz, 8 Cores, Socket AM4) In Hand</t>
+          <t>AMD Ryzen 7 5800x IN HAND UNOPENED READY TO SHIP</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -13514,20 +13514,20 @@
         </is>
       </c>
       <c r="D409" t="n">
-        <v>579.99</v>
+        <v>599.95</v>
       </c>
       <c r="E409" t="n">
         <v>0</v>
       </c>
       <c r="F409" t="n">
-        <v>579.99</v>
+        <v>599.95</v>
       </c>
       <c r="G409" s="2" t="n">
-        <v>44152</v>
+        <v>44153</v>
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-Processor-4-7GHz-8-Cores-Socket-AM4-In-Hand/284085110818?epid=25041983953&amp;hash=item4224cac822:g:1~MAAOSwgzVftIAN</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800x-IN-HAND-UNOPENED-READY-TO-SHIP/333793764359?hash=item4db7a8a407:g:GkYAAOSwEVhfrgj7</t>
         </is>
       </c>
     </row>
@@ -13537,7 +13537,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X Desktop Processor (4.7GHz, 8 Cores, Socket AM4) Tray -...</t>
+          <t>AMD Ryzen 7 5800X BRAND NEW and SEALED! In Hand - SHIPS ASAP!</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -13546,20 +13546,20 @@
         </is>
       </c>
       <c r="D410" t="n">
-        <v>599</v>
+        <v>648</v>
       </c>
       <c r="E410" t="n">
-        <v>3.95</v>
+        <v>10.9</v>
       </c>
       <c r="F410" t="n">
-        <v>602.95</v>
+        <v>658.9</v>
       </c>
       <c r="G410" s="2" t="n">
-        <v>44152</v>
+        <v>44153</v>
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-Processor-4-7GHz-8-Cores-Socket-AM4-Tray/254781503644?epid=25041983953&amp;hash=item3b5229389c:g:HfIAAOSwy0lftFsT</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-BRAND-NEW-and-SEALED-In-Hand-SHIPS-ASAP/274580495869?epid=12041984358&amp;hash=item3fee45ddfd:g:WScAAOSwkcFftLqI</t>
         </is>
       </c>
     </row>
@@ -13569,7 +13569,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>New Sealed | AMD Ryzen 7 5800X AM4 Boxed CPU 5000 Series - Ready to Ship</t>
+          <t>Ryzen 7 5800x - Ships TODAY</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -13578,20 +13578,20 @@
         </is>
       </c>
       <c r="D411" t="n">
-        <v>648.99</v>
+        <v>640</v>
       </c>
       <c r="E411" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F411" t="n">
-        <v>648.99</v>
+        <v>650</v>
       </c>
       <c r="G411" s="2" t="n">
-        <v>44152</v>
+        <v>44153</v>
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/New-Sealed-AMD-Ryzen-7-5800X-AM4-Boxed-CPU-5000-Series-Ready-to-Ship/184540328969?hash=item2af775f409:g:X~oAAOSwxAFfs~Yj</t>
+          <t>https://www.ebay.com/itm/Ryzen-7-5800x-Ships-TODAY/124439802852?hash=item1cf930b3e4:g:0zwAAOSwhJJfpgPY</t>
         </is>
       </c>
     </row>
@@ -13601,29 +13601,29 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Ryzen 7 5800x 8 Core, 16 Thread Processor NEW Boxed CPU sealed</t>
+          <t>AMD Ryzen 7 5800X 8 Core,16 Thread, 3.8 GHz Base,4.7 GHz Max Boost, In Hand</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>CPU in hand, Still sealed, 5800x fast shipping</t>
+          <t>Brand New</t>
         </is>
       </c>
       <c r="D412" t="n">
-        <v>630</v>
+        <v>600</v>
       </c>
       <c r="E412" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F412" t="n">
-        <v>630</v>
+        <v>608</v>
       </c>
       <c r="G412" s="2" t="n">
         <v>44152</v>
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Ryzen-7-5800x-8-Core-16-Thread-Processor-NEW-Boxed-CPU-sealed/373334944960?hash=item56ec7f2cc0:g:yFQAAOSwDgtfrXxs</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-8-Core-16-Thread-3-8-GHz-Base-4-7-GHz-Max-Boost-In-Hand/402547594570?epid=24042267832&amp;hash=item5db9b4d54a:g:ARcAAOSwwjhfq4O1</t>
         </is>
       </c>
     </row>
@@ -13633,29 +13633,29 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800x 8 Core 16 Thread Processor</t>
+          <t>AMD Ryzen 7 5800X Desktop Processor (4.7GHz, 8 Cores, Socket AM4) In Hand</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>Ryzen 7 5800x</t>
+          <t>Brand New</t>
         </is>
       </c>
       <c r="D413" t="n">
-        <v>620</v>
+        <v>579.99</v>
       </c>
       <c r="E413" t="n">
         <v>0</v>
       </c>
       <c r="F413" t="n">
-        <v>620</v>
+        <v>579.99</v>
       </c>
       <c r="G413" s="2" t="n">
         <v>44152</v>
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800x-8-Core-16-Thread-Processor/284084656606?hash=item4224c3d9de:g:sCsAAOSw5WVfpwdZ</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-Processor-4-7GHz-8-Cores-Socket-AM4-In-Hand/284085110818?epid=25041983953&amp;hash=item4224cac822:g:1~MAAOSwgzVftIAN</t>
         </is>
       </c>
     </row>
@@ -13665,7 +13665,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Ryzen 7 5800x</t>
+          <t>AMD Ryzen 7 5800X Desktop Processor (4.7GHz, 8 Cores, Socket AM4) Tray -...</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -13674,20 +13674,20 @@
         </is>
       </c>
       <c r="D414" t="n">
-        <v>621</v>
+        <v>599</v>
       </c>
       <c r="E414" t="n">
-        <v>7.5</v>
+        <v>3.95</v>
       </c>
       <c r="F414" t="n">
-        <v>628.5</v>
+        <v>602.95</v>
       </c>
       <c r="G414" s="2" t="n">
         <v>44152</v>
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Ryzen-7-5800x/233776203490?hash=item366e25c6e2:g:IPQAAOSw2mhfqqeN</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-Processor-4-7GHz-8-Cores-Socket-AM4-Tray/254781503644?epid=25041983953&amp;hash=item3b5229389c:g:HfIAAOSwy0lftFsT</t>
         </is>
       </c>
     </row>
@@ -13697,7 +13697,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Ryzen 7 5800X 3.8GHz AM4 CPU </t>
+          <t>New Sealed | AMD Ryzen 7 5800X AM4 Boxed CPU 5000 Series - Ready to Ship</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -13706,20 +13706,20 @@
         </is>
       </c>
       <c r="D415" t="n">
-        <v>649</v>
+        <v>648.99</v>
       </c>
       <c r="E415" t="n">
         <v>0</v>
       </c>
       <c r="F415" t="n">
-        <v>649</v>
+        <v>648.99</v>
       </c>
       <c r="G415" s="2" t="n">
         <v>44152</v>
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-3-8GHz-AM4-CPU/274568999093?epid=12041984358&amp;hash=item3fed9670b5:g:YhAAAOSwdHlfqitb</t>
+          <t>https://www.ebay.com/itm/New-Sealed-AMD-Ryzen-7-5800X-AM4-Boxed-CPU-5000-Series-Ready-to-Ship/184540328969?hash=item2af775f409:g:X~oAAOSwxAFfs~Yj</t>
         </is>
       </c>
     </row>
@@ -13729,29 +13729,29 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Ryzen 7 5800x 8 Core 16 Thread Processor</t>
+          <t>Ryzen 7 5800x 8 Core, 16 Thread Processor NEW Boxed CPU sealed</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>Brand New</t>
+          <t>CPU in hand, Still sealed, 5800x fast shipping</t>
         </is>
       </c>
       <c r="D416" t="n">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="E416" t="n">
         <v>0</v>
       </c>
       <c r="F416" t="n">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="G416" s="2" t="n">
         <v>44152</v>
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Ryzen-7-5800x-8-Core-16-Thread-Processor/284083734212?hash=item4224b5c6c4:g:sCsAAOSw5WVfpwdZ</t>
+          <t>https://www.ebay.com/itm/Ryzen-7-5800x-8-Core-16-Thread-Processor-NEW-Boxed-CPU-sealed/373334944960?hash=item56ec7f2cc0:g:yFQAAOSwDgtfrXxs</t>
         </is>
       </c>
     </row>
@@ -13761,29 +13761,29 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X AM4 Boxed CPU - New Sealed IN HAND</t>
+          <t>AMD Ryzen 7 5800x 8 Core 16 Thread Processor</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>Brand New</t>
+          <t>Ryzen 7 5800x</t>
         </is>
       </c>
       <c r="D417" t="n">
-        <v>635</v>
+        <v>620</v>
       </c>
       <c r="E417" t="n">
         <v>0</v>
       </c>
       <c r="F417" t="n">
-        <v>635</v>
+        <v>620</v>
       </c>
       <c r="G417" s="2" t="n">
-        <v>44151</v>
+        <v>44152</v>
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-AM4-Boxed-CPU-New-Sealed-IN-HAND/174521795261?hash=item28a24f42bd:g:JZ4AAOSwaxJfsubg</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800x-8-Core-16-Thread-Processor/284084656606?hash=item4224c3d9de:g:sCsAAOSw5WVfpwdZ</t>
         </is>
       </c>
     </row>
@@ -13793,7 +13793,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>*** AMD Ryzen 7 5800X BRAND NEW and SEALED! In Hand - SHIPS ASAP! ***</t>
+          <t>Ryzen 7 5800x</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -13802,20 +13802,20 @@
         </is>
       </c>
       <c r="D418" t="n">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="E418" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="F418" t="n">
-        <v>640</v>
+        <v>628.5</v>
       </c>
       <c r="G418" s="2" t="n">
-        <v>44151</v>
+        <v>44152</v>
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-BRAND-NEW-and-SEALED-In-Hand-SHIPS-ASAP/193749724728?epid=12041984358&amp;hash=item2d1c622e38:g:CMgAAOSwGAxfr0Ui</t>
+          <t>https://www.ebay.com/itm/Ryzen-7-5800x/233776203490?hash=item366e25c6e2:g:IPQAAOSw2mhfqqeN</t>
         </is>
       </c>
     </row>
@@ -13825,7 +13825,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>AMD Zen 3 Ryzen 7 5800X *Brand New &amp; Sealed!* - In Hand!</t>
+          <t xml:space="preserve">AMD Ryzen 7 5800X 3.8GHz AM4 CPU </t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -13834,20 +13834,20 @@
         </is>
       </c>
       <c r="D419" t="n">
-        <v>649.95</v>
+        <v>649</v>
       </c>
       <c r="E419" t="n">
-        <v>8.25</v>
+        <v>0</v>
       </c>
       <c r="F419" t="n">
-        <v>658.2</v>
+        <v>649</v>
       </c>
       <c r="G419" s="2" t="n">
-        <v>44151</v>
+        <v>44152</v>
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Zen-3-Ryzen-7-5800X-Brand-New-Sealed-In-Hand/203183705968?epid=12041984358&amp;hash=item2f4eb14f70:g:IvQAAOSwSAtfsv6S</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-3-8GHz-AM4-CPU/274568999093?epid=12041984358&amp;hash=item3fed9670b5:g:YhAAAOSwdHlfqitb</t>
         </is>
       </c>
     </row>
@@ -13857,7 +13857,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X 8-Core 3.8 GHz Socket AM4 105W CPU Desktop Processor</t>
+          <t>Ryzen 7 5800x 8 Core 16 Thread Processor</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -13866,20 +13866,20 @@
         </is>
       </c>
       <c r="D420" t="n">
-        <v>600</v>
+        <v>620</v>
       </c>
       <c r="E420" t="n">
-        <v>14.99</v>
+        <v>0</v>
       </c>
       <c r="F420" t="n">
-        <v>614.99</v>
+        <v>620</v>
       </c>
       <c r="G420" s="2" t="n">
-        <v>44151</v>
+        <v>44152</v>
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-8-Core-3-8-GHz-Socket-AM4-105W-CPU-Desktop-Processor/303760149932?epid=24042267832&amp;hash=item46b9840dac:g:s-wAAOSwvZ5fqcKi</t>
+          <t>https://www.ebay.com/itm/Ryzen-7-5800x-8-Core-16-Thread-Processor/284083734212?hash=item4224b5c6c4:g:sCsAAOSw5WVfpwdZ</t>
         </is>
       </c>
     </row>
@@ -13889,29 +13889,29 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X</t>
+          <t>*** AMD Ryzen 7 5800X BRAND NEW and SEALED! In Hand - SHIPS ASAP! ***</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>Pre-Owned</t>
+          <t>Brand New</t>
         </is>
       </c>
       <c r="D421" t="n">
-        <v>525</v>
+        <v>630</v>
       </c>
       <c r="E421" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F421" t="n">
-        <v>525</v>
+        <v>640</v>
       </c>
       <c r="G421" s="2" t="n">
         <v>44151</v>
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X/114522623698?hash=item1aaa148ed2:g:k4kAAOSwQ3Ffsp7O</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-BRAND-NEW-and-SEALED-In-Hand-SHIPS-ASAP/193749724728?epid=12041984358&amp;hash=item2d1c622e38:g:CMgAAOSwGAxfr0Ui</t>
         </is>
       </c>
     </row>
@@ -13921,29 +13921,29 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X</t>
+          <t>AMD Zen 3 Ryzen 7 5800X *Brand New &amp; Sealed!* - In Hand!</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>Pre-Owned</t>
+          <t>Brand New</t>
         </is>
       </c>
       <c r="D422" t="n">
-        <v>525</v>
+        <v>649.95</v>
       </c>
       <c r="E422" t="n">
-        <v>0</v>
+        <v>8.25</v>
       </c>
       <c r="F422" t="n">
-        <v>525</v>
+        <v>658.2</v>
       </c>
       <c r="G422" s="2" t="n">
         <v>44151</v>
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X/114522592186?hash=item1aaa1413ba:g:k4kAAOSwQ3Ffsp7O</t>
+          <t>https://www.ebay.com/itm/AMD-Zen-3-Ryzen-7-5800X-Brand-New-Sealed-In-Hand/203183705968?epid=12041984358&amp;hash=item2f4eb14f70:g:IvQAAOSwSAtfsv6S</t>
         </is>
       </c>
     </row>
@@ -13953,7 +13953,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X ***In Hand &amp; Unopened*** USPS Priority Mail</t>
+          <t>AMD Ryzen 7 5800X 8-Core 3.8 GHz Socket AM4 105W CPU Desktop Processor</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -13962,20 +13962,20 @@
         </is>
       </c>
       <c r="D423" t="n">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="E423" t="n">
-        <v>8.25</v>
+        <v>14.99</v>
       </c>
       <c r="F423" t="n">
-        <v>628.25</v>
+        <v>614.99</v>
       </c>
       <c r="G423" s="2" t="n">
         <v>44151</v>
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-In-Hand-Unopened-USPS-Priority-Mail/393015710441?hash=item5b818fd2e9:g:UlUAAOSw4g5frHd~</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-8-Core-3-8-GHz-Socket-AM4-105W-CPU-Desktop-Processor/303760149932?epid=24042267832&amp;hash=item46b9840dac:g:s-wAAOSwvZ5fqcKi</t>
         </is>
       </c>
     </row>
@@ -13985,29 +13985,29 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800x Desktop Processor</t>
+          <t>AMD Ryzen 7 5800X</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>Brand New</t>
+          <t>Pre-Owned</t>
         </is>
       </c>
       <c r="D424" t="n">
-        <v>629.99</v>
+        <v>525</v>
       </c>
       <c r="E424" t="n">
         <v>0</v>
       </c>
       <c r="F424" t="n">
-        <v>629.99</v>
+        <v>525</v>
       </c>
       <c r="G424" s="2" t="n">
         <v>44151</v>
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800x-Desktop-Processor/114506977971?hash=item1aa925d2b3:g:HowAAOSwzJZfqAk9</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X/114522623698?hash=item1aaa148ed2:g:k4kAAOSwQ3Ffsp7O</t>
         </is>
       </c>
     </row>
@@ -14017,7 +14017,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X Desktop Processor (4.7GHz, 8 Cores, Socket AM4)</t>
+          <t>AMD Ryzen 7 5800X</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -14026,20 +14026,20 @@
         </is>
       </c>
       <c r="D425" t="n">
-        <v>610</v>
+        <v>525</v>
       </c>
       <c r="E425" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="F425" t="n">
-        <v>618.2</v>
+        <v>525</v>
       </c>
       <c r="G425" s="2" t="n">
         <v>44151</v>
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-Processor-4-7GHz-8-Cores-Socket-AM4/324376205517?epid=12041984358&amp;hash=item4b865418cd:g:VCAAAOSwsaZfslAB</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X/114522592186?hash=item1aaa1413ba:g:k4kAAOSwQ3Ffsp7O</t>
         </is>
       </c>
     </row>
@@ -14049,7 +14049,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800x 8 Core 16 Thread CPU SHIPS TODAY</t>
+          <t>AMD Ryzen 7 5800X ***In Hand &amp; Unopened*** USPS Priority Mail</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -14058,20 +14058,20 @@
         </is>
       </c>
       <c r="D426" t="n">
-        <v>650</v>
+        <v>620</v>
       </c>
       <c r="E426" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="F426" t="n">
-        <v>658</v>
+        <v>628.25</v>
       </c>
       <c r="G426" s="2" t="n">
         <v>44151</v>
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800x-8-Core-16-Thread-CPU-SHIPS-TODAY/203182755517?epid=22042427683&amp;hash=item2f4ea2cebd:g:BKIAAOSwmCxfsZU7</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-In-Hand-Unopened-USPS-Priority-Mail/393015710441?hash=item5b818fd2e9:g:UlUAAOSw4g5frHd~</t>
         </is>
       </c>
     </row>
@@ -14081,7 +14081,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>AMD Zen 3 Ryzen 7 5800X Brand New In Box - In Hand</t>
+          <t>AMD Ryzen 7 5800x Desktop Processor</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -14090,20 +14090,20 @@
         </is>
       </c>
       <c r="D427" t="n">
-        <v>649.99</v>
+        <v>629.99</v>
       </c>
       <c r="E427" t="n">
         <v>0</v>
       </c>
       <c r="F427" t="n">
-        <v>649.99</v>
+        <v>629.99</v>
       </c>
       <c r="G427" s="2" t="n">
         <v>44151</v>
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Zen-3-Ryzen-7-5800X-Brand-New-In-Box-In-Hand/254776654200?epid=12041984358&amp;hash=item3b51df3978:g:Td8AAOSw7HlfreNv</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800x-Desktop-Processor/114506977971?hash=item1aa925d2b3:g:HowAAOSwzJZfqAk9</t>
         </is>
       </c>
     </row>
@@ -14113,29 +14113,29 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Amd Ryzen 7 5800x PLUS FarCry 6 Game Code - In Hand, Ready to Ship!!</t>
+          <t>AMD Ryzen 7 5800X Desktop Processor (4.7GHz, 8 Cores, Socket AM4)</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>Brand New</t>
+          <t>Pre-Owned</t>
         </is>
       </c>
       <c r="D428" t="n">
-        <v>644.99</v>
+        <v>610</v>
       </c>
       <c r="E428" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F428" t="n">
-        <v>644.99</v>
+        <v>618.2</v>
       </c>
       <c r="G428" s="2" t="n">
-        <v>44150</v>
+        <v>44151</v>
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Amd-Ryzen-7-5800x-PLUS-FarCry-6-Game-Code-In-Hand-Ready-to-Ship/124438989626?hash=item1cf9244b3a:g:AyMAAOSwoJBfrd6y</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-Processor-4-7GHz-8-Cores-Socket-AM4/324376205517?epid=12041984358&amp;hash=item4b865418cd:g:VCAAAOSwsaZfslAB</t>
         </is>
       </c>
     </row>
@@ -14145,7 +14145,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800x IN HAND UNOPENED READY TO SHIP</t>
+          <t>AMD Ryzen 7 5800x 8 Core 16 Thread CPU SHIPS TODAY</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -14154,20 +14154,20 @@
         </is>
       </c>
       <c r="D429" t="n">
-        <v>670</v>
+        <v>650</v>
       </c>
       <c r="E429" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F429" t="n">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="G429" s="2" t="n">
-        <v>44150</v>
+        <v>44151</v>
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800x-IN-HAND-UNOPENED-READY-TO-SHIP/333787431766?hash=item4db7480356:g:GkYAAOSwEVhfrgj7</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800x-8-Core-16-Thread-CPU-SHIPS-TODAY/203182755517?epid=22042427683&amp;hash=item2f4ea2cebd:g:BKIAAOSwmCxfsZU7</t>
         </is>
       </c>
     </row>
@@ -14177,7 +14177,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X CPU Desktop Processor Boxed NEW and sealed. Far Cry 6 included</t>
+          <t>AMD Zen 3 Ryzen 7 5800X Brand New In Box - In Hand</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -14186,20 +14186,20 @@
         </is>
       </c>
       <c r="D430" t="n">
-        <v>599.99</v>
+        <v>649.99</v>
       </c>
       <c r="E430" t="n">
-        <v>24.99</v>
+        <v>0</v>
       </c>
       <c r="F430" t="n">
-        <v>624.98</v>
+        <v>649.99</v>
       </c>
       <c r="G430" s="2" t="n">
-        <v>44150</v>
+        <v>44151</v>
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-CPU-Desktop-Processor-Boxed-NEW-and-sealed-Far-Cry-6-included/264940145923?hash=item3dafa9cd03:g:3uQAAOSw0Ztfse3A</t>
+          <t>https://www.ebay.com/itm/AMD-Zen-3-Ryzen-7-5800X-Brand-New-In-Box-In-Hand/254776654200?epid=12041984358&amp;hash=item3b51df3978:g:Td8AAOSw7HlfreNv</t>
         </is>
       </c>
     </row>
@@ -14209,7 +14209,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800x NEW IN HAND READY TO SHIP</t>
+          <t>Amd Ryzen 7 5800x PLUS FarCry 6 Game Code - In Hand, Ready to Ship!!</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -14218,20 +14218,20 @@
         </is>
       </c>
       <c r="D431" t="n">
-        <v>610</v>
+        <v>644.99</v>
       </c>
       <c r="E431" t="n">
-        <v>8.449999999999999</v>
+        <v>0</v>
       </c>
       <c r="F431" t="n">
-        <v>618.45</v>
+        <v>644.99</v>
       </c>
       <c r="G431" s="2" t="n">
         <v>44150</v>
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800x-NEW-IN-HAND-READY-TO-SHIP/184533575861?hash=item2af70ee8b5:g:E5IAAOSw3opfrffX</t>
+          <t>https://www.ebay.com/itm/Amd-Ryzen-7-5800x-PLUS-FarCry-6-Game-Code-In-Hand-Ready-to-Ship/124438989626?hash=item1cf9244b3a:g:AyMAAOSwoJBfrd6y</t>
         </is>
       </c>
     </row>
@@ -14241,7 +14241,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Brand New Ryzen 7 5800X! In Hand Ready To Ship! Zen 3 5000 Series! NIB SEALED!</t>
+          <t>AMD Ryzen 7 5800x IN HAND UNOPENED READY TO SHIP</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -14250,20 +14250,20 @@
         </is>
       </c>
       <c r="D432" t="n">
-        <v>625</v>
+        <v>670</v>
       </c>
       <c r="E432" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F432" t="n">
-        <v>640</v>
+        <v>670</v>
       </c>
       <c r="G432" s="2" t="n">
         <v>44150</v>
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Brand-New-Ryzen-7-5800X-In-Hand-Ready-To-Ship-Zen-3-5000-Series-NIB-SEALED/293834965178?hash=item4469edc0ba:g:soAAAOSwEUBfsZYE</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800x-IN-HAND-UNOPENED-READY-TO-SHIP/333787431766?hash=item4db7480356:g:GkYAAOSwEVhfrgj7</t>
         </is>
       </c>
     </row>
@@ -14273,7 +14273,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800x 8 Core 16 Thread CPU SHIPS TODAY</t>
+          <t>AMD Ryzen 7 5800X CPU Desktop Processor Boxed NEW and sealed. Far Cry 6 included</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -14282,20 +14282,20 @@
         </is>
       </c>
       <c r="D433" t="n">
-        <v>650</v>
+        <v>599.99</v>
       </c>
       <c r="E433" t="n">
-        <v>8</v>
+        <v>24.99</v>
       </c>
       <c r="F433" t="n">
-        <v>658</v>
+        <v>624.98</v>
       </c>
       <c r="G433" s="2" t="n">
         <v>44150</v>
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800x-8-Core-16-Thread-CPU-SHIPS-TODAY/203182427453?epid=22042427683&amp;hash=item2f4e9dcd3d:g:BKIAAOSwmCxfsZU7</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-CPU-Desktop-Processor-Boxed-NEW-and-sealed-Far-Cry-6-included/264940145923?hash=item3dafa9cd03:g:3uQAAOSw0Ztfse3A</t>
         </is>
       </c>
     </row>
@@ -14305,29 +14305,29 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X Desktop Processor IN HAND ready to ship! FREE USPS PRIORITY</t>
+          <t>AMD Ryzen 7 5800x NEW IN HAND READY TO SHIP</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X (product in hand) Condition in "NEW"</t>
+          <t>Brand New</t>
         </is>
       </c>
       <c r="D434" t="n">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="E434" t="n">
-        <v>0</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="F434" t="n">
-        <v>630</v>
+        <v>618.45</v>
       </c>
       <c r="G434" s="2" t="n">
         <v>44150</v>
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-Processor-IN-HAND-ready-to-ship-FREE-USPS-PRIORITY/254776650075?epid=12041984358&amp;hash=item3b51df295b:g:AbgAAOSwXkRfrdDq</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800x-NEW-IN-HAND-READY-TO-SHIP/184533575861?hash=item2af70ee8b5:g:E5IAAOSw3opfrffX</t>
         </is>
       </c>
     </row>
@@ -14337,29 +14337,29 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X Desktop Processor (8 Cores, Socket AM4) Box - OPEN BOX!</t>
+          <t>Brand New Ryzen 7 5800X! In Hand Ready To Ship! Zen 3 5000 Series! NIB SEALED!</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>Open Box</t>
+          <t>Brand New</t>
         </is>
       </c>
       <c r="D435" t="n">
-        <v>581</v>
+        <v>625</v>
       </c>
       <c r="E435" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F435" t="n">
-        <v>593</v>
+        <v>640</v>
       </c>
       <c r="G435" s="2" t="n">
         <v>44150</v>
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-Processor-8-Cores-Socket-AM4-Box-OPEN-BOX/233779173547?epid=12041984358&amp;hash=item366e5318ab:g:3lYAAOSwOHhfrdYH</t>
+          <t>https://www.ebay.com/itm/Brand-New-Ryzen-7-5800X-In-Hand-Ready-To-Ship-Zen-3-5000-Series-NIB-SEALED/293834965178?hash=item4469edc0ba:g:soAAAOSwEUBfsZYE</t>
         </is>
       </c>
     </row>
@@ -14369,7 +14369,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X 3.8GHz L3 AM4 CPU Desktop Processor Boxed</t>
+          <t>AMD Ryzen 7 5800x 8 Core 16 Thread CPU SHIPS TODAY</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -14378,20 +14378,20 @@
         </is>
       </c>
       <c r="D436" t="n">
-        <v>585</v>
+        <v>650</v>
       </c>
       <c r="E436" t="n">
         <v>8</v>
       </c>
       <c r="F436" t="n">
-        <v>593</v>
+        <v>658</v>
       </c>
       <c r="G436" s="2" t="n">
         <v>44150</v>
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-3-8GHz-L3-AM4-CPU-Desktop-Processor-Boxed/203178832279?epid=12041984358&amp;hash=item2f4e66f197:g:jy4AAOSwq1tfpAFa</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800x-8-Core-16-Thread-CPU-SHIPS-TODAY/203182427453?epid=22042427683&amp;hash=item2f4e9dcd3d:g:BKIAAOSwmCxfsZU7</t>
         </is>
       </c>
     </row>
@@ -14401,29 +14401,29 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X CPU Desktop Processor Boxed NEW and sealed. Far Cry 6 included</t>
+          <t>AMD Ryzen 7 5800X Desktop Processor IN HAND ready to ship! FREE USPS PRIORITY</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>Brand New</t>
+          <t>AMD Ryzen 7 5800X (product in hand) Condition in "NEW"</t>
         </is>
       </c>
       <c r="D437" t="n">
-        <v>600</v>
+        <v>630</v>
       </c>
       <c r="E437" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F437" t="n">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="G437" s="2" t="n">
         <v>44150</v>
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-CPU-Desktop-Processor-Boxed-NEW-and-sealed-Far-Cry-6-included/224232232576?epid=12041984358&amp;hash=item3435485680:g:4i4AAOSwYxFfravg</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-Processor-IN-HAND-ready-to-ship-FREE-USPS-PRIORITY/254776650075?epid=12041984358&amp;hash=item3b51df295b:g:AbgAAOSwXkRfrdDq</t>
         </is>
       </c>
     </row>
@@ -14433,7 +14433,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X Desktop Processor (4.7GHz, 8 Cores, Socket AM4) Box -...</t>
+          <t>AMD Ryzen 7 5800X Desktop Processor (8 Cores, Socket AM4) Box - OPEN BOX!</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -14442,20 +14442,20 @@
         </is>
       </c>
       <c r="D438" t="n">
-        <v>610</v>
+        <v>581</v>
       </c>
       <c r="E438" t="n">
-        <v>9.74</v>
+        <v>12</v>
       </c>
       <c r="F438" t="n">
-        <v>619.74</v>
+        <v>593</v>
       </c>
       <c r="G438" s="2" t="n">
         <v>44150</v>
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-Processor-4-7GHz-8-Cores-Socket-AM4-Box/284073578166?epid=12041984358&amp;hash=item42241aceb6:g:6L4AAOSwkE9fqGyR</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-Processor-8-Cores-Socket-AM4-Box-OPEN-BOX/233779173547?epid=12041984358&amp;hash=item366e5318ab:g:3lYAAOSwOHhfrdYH</t>
         </is>
       </c>
     </row>
@@ -14465,29 +14465,29 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X Desktop Processor OPEN BOX Read Description + Far Cry 6 Code!</t>
+          <t>AMD Ryzen 7 5800X 3.8GHz L3 AM4 CPU Desktop Processor Boxed</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>Open Box</t>
+          <t>Brand New</t>
         </is>
       </c>
       <c r="D439" t="n">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="E439" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F439" t="n">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="G439" s="2" t="n">
         <v>44150</v>
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-Processor-OPEN-BOX-Read-Description-Far-Cry-6-Code/393018126489?epid=12041984358&amp;hash=item5b81b4b099:g:rzsAAOSwtmhfsXlt</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-3-8GHz-L3-AM4-CPU-Desktop-Processor-Boxed/203178832279?epid=12041984358&amp;hash=item2f4e66f197:g:jy4AAOSwq1tfpAFa</t>
         </is>
       </c>
     </row>
@@ -14497,7 +14497,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Ryzen 7 5800X Desktop Processor </t>
+          <t>AMD Ryzen 7 5800X CPU Desktop Processor Boxed NEW and sealed. Far Cry 6 included</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -14506,20 +14506,20 @@
         </is>
       </c>
       <c r="D440" t="n">
-        <v>630</v>
+        <v>600</v>
       </c>
       <c r="E440" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F440" t="n">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="G440" s="2" t="n">
         <v>44150</v>
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-Processor/264938656898?epid=12041984358&amp;hash=item3daf931482:g:sy4AAOSwlXJfsI~y</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-CPU-Desktop-Processor-Boxed-NEW-and-sealed-Far-Cry-6-included/224232232576?epid=12041984358&amp;hash=item3435485680:g:4i4AAOSwYxFfravg</t>
         </is>
       </c>
     </row>
@@ -14529,7 +14529,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X - 8 core/16 thread - 4.7Ghz Boost/3.8Ghz Base Clock - AM4 CPU</t>
+          <t>AMD Ryzen 7 5800X Desktop Processor (4.7GHz, 8 Cores, Socket AM4) Box -...</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -14538,20 +14538,20 @@
         </is>
       </c>
       <c r="D441" t="n">
-        <v>599.99</v>
+        <v>610</v>
       </c>
       <c r="E441" t="n">
-        <v>25</v>
+        <v>9.74</v>
       </c>
       <c r="F441" t="n">
-        <v>624.99</v>
+        <v>619.74</v>
       </c>
       <c r="G441" s="2" t="n">
         <v>44150</v>
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-8-core-16-thread-4-7Ghz-Boost-3-8Ghz-Base-Clock-AM4-CPU/363178498859?hash=item548f201b2b:g:AwMAAOSwsLdfrv5K</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-Processor-4-7GHz-8-Cores-Socket-AM4-Box/284073578166?epid=12041984358&amp;hash=item42241aceb6:g:6L4AAOSwkE9fqGyR</t>
         </is>
       </c>
     </row>
@@ -14561,29 +14561,29 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X Desktop Processor (4.7GHz, 8 Cores, Socket AM4)</t>
+          <t>AMD Ryzen 7 5800X Desktop Processor OPEN BOX Read Description + Far Cry 6 Code!</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>Brand New</t>
+          <t>Open Box</t>
         </is>
       </c>
       <c r="D442" t="n">
-        <v>619.99</v>
+        <v>589</v>
       </c>
       <c r="E442" t="n">
         <v>0</v>
       </c>
       <c r="F442" t="n">
-        <v>619.99</v>
+        <v>589</v>
       </c>
       <c r="G442" s="2" t="n">
         <v>44150</v>
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-Processor-4-7GHz-8-Cores-Socket-AM4/124433664758?epid=12041984358&amp;hash=item1cf8d30af6:g:26UAAOSwCwFfqqCF</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-Processor-OPEN-BOX-Read-Description-Far-Cry-6-Code/393018126489?epid=12041984358&amp;hash=item5b81b4b099:g:rzsAAOSwtmhfsXlt</t>
         </is>
       </c>
     </row>
@@ -14593,7 +14593,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>IN HAND! AMD Ryzen 7 5800x Desktop Processor Zen 3 5000 Series!</t>
+          <t xml:space="preserve">AMD Ryzen 7 5800X Desktop Processor </t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -14602,20 +14602,20 @@
         </is>
       </c>
       <c r="D443" t="n">
-        <v>624.99</v>
+        <v>630</v>
       </c>
       <c r="E443" t="n">
         <v>0</v>
       </c>
       <c r="F443" t="n">
-        <v>624.99</v>
+        <v>630</v>
       </c>
       <c r="G443" s="2" t="n">
         <v>44150</v>
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/IN-HAND-AMD-Ryzen-7-5800x-Desktop-Processor-Zen-3-5000-Series/133577090400?epid=12041984358&amp;hash=item1f19d0a560:g:iMoAAOSwWZZfsC5r</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-Processor/264938656898?epid=12041984358&amp;hash=item3daf931482:g:sy4AAOSwlXJfsI~y</t>
         </is>
       </c>
     </row>
@@ -14625,29 +14625,29 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X 3.8GHz L3 AM4 CPU</t>
+          <t>AMD Ryzen 7 5800X - 8 core/16 thread - 4.7Ghz Boost/3.8Ghz Base Clock - AM4 CPU</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>Brand New</t>
+          <t>Open Box</t>
         </is>
       </c>
       <c r="D444" t="n">
-        <v>620</v>
+        <v>599.99</v>
       </c>
       <c r="E444" t="n">
-        <v>4.2</v>
+        <v>25</v>
       </c>
       <c r="F444" t="n">
-        <v>624.2</v>
+        <v>624.99</v>
       </c>
       <c r="G444" s="2" t="n">
         <v>44150</v>
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-3-8GHz-L3-AM4-CPU/393008002822?hash=item5b811a3706:g:bPYAAOSw2sRfpFYx</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-8-core-16-thread-4-7Ghz-Boost-3-8Ghz-Base-Clock-AM4-CPU/363178498859?hash=item548f201b2b:g:AwMAAOSwsLdfrv5K</t>
         </is>
       </c>
     </row>
@@ -14657,7 +14657,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X Desktop CPU / Processor 8 Cores 16 Threads IN HAND</t>
+          <t>AMD Ryzen 7 5800X Desktop Processor (4.7GHz, 8 Cores, Socket AM4)</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -14666,20 +14666,20 @@
         </is>
       </c>
       <c r="D445" t="n">
-        <v>639.99</v>
+        <v>619.99</v>
       </c>
       <c r="E445" t="n">
         <v>0</v>
       </c>
       <c r="F445" t="n">
-        <v>639.99</v>
+        <v>619.99</v>
       </c>
       <c r="G445" s="2" t="n">
         <v>44150</v>
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-CPU-Processor-8-Cores-16-Threads-IN-HAND/254777694991?epid=12041984358&amp;hash=item3b51ef1b0f:g:jO4AAOSwb7xfrHHL</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-Processor-4-7GHz-8-Cores-Socket-AM4/124433664758?epid=12041984358&amp;hash=item1cf8d30af6:g:26UAAOSwCwFfqqCF</t>
         </is>
       </c>
     </row>
@@ -14689,7 +14689,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X Desktop Processor (8 Cores, Socket AM4) - NEW</t>
+          <t>IN HAND! AMD Ryzen 7 5800x Desktop Processor Zen 3 5000 Series!</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -14698,20 +14698,20 @@
         </is>
       </c>
       <c r="D446" t="n">
-        <v>644.99</v>
+        <v>624.99</v>
       </c>
       <c r="E446" t="n">
         <v>0</v>
       </c>
       <c r="F446" t="n">
-        <v>644.99</v>
+        <v>624.99</v>
       </c>
       <c r="G446" s="2" t="n">
         <v>44150</v>
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-Processor-8-Cores-Socket-AM4-NEW/184537002438?epid=12041984358&amp;hash=item2af74331c6:g:vjMAAOSwDnpfsONe</t>
+          <t>https://www.ebay.com/itm/IN-HAND-AMD-Ryzen-7-5800x-Desktop-Processor-Zen-3-5000-Series/133577090400?epid=12041984358&amp;hash=item1f19d0a560:g:iMoAAOSwWZZfsC5r</t>
         </is>
       </c>
     </row>
@@ -14721,7 +14721,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>IN HAND! AMD Ryzen 7 5800x Desktop Processor Zen 3 5000 Series!</t>
+          <t>AMD Ryzen 7 5800X 3.8GHz L3 AM4 CPU</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -14730,20 +14730,20 @@
         </is>
       </c>
       <c r="D447" t="n">
-        <v>624.99</v>
+        <v>620</v>
       </c>
       <c r="E447" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="F447" t="n">
-        <v>624.99</v>
+        <v>624.2</v>
       </c>
       <c r="G447" s="2" t="n">
-        <v>44149</v>
+        <v>44150</v>
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/IN-HAND-AMD-Ryzen-7-5800x-Desktop-Processor-Zen-3-5000-Series/133576477869?epid=12041984358&amp;hash=item1f19c74cad:g:iMoAAOSwWZZfsC5r</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-3-8GHz-L3-AM4-CPU/393008002822?hash=item5b811a3706:g:bPYAAOSw2sRfpFYx</t>
         </is>
       </c>
     </row>
@@ -14753,7 +14753,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800x | IN HAND READY TO SHIP - Read Description Before Bidding!</t>
+          <t>AMD Ryzen 7 5800X Desktop CPU / Processor 8 Cores 16 Threads IN HAND</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -14762,20 +14762,20 @@
         </is>
       </c>
       <c r="D448" t="n">
-        <v>605</v>
+        <v>639.99</v>
       </c>
       <c r="E448" t="n">
-        <v>15.05</v>
+        <v>0</v>
       </c>
       <c r="F448" t="n">
-        <v>620.05</v>
+        <v>639.99</v>
       </c>
       <c r="G448" s="2" t="n">
-        <v>44149</v>
+        <v>44150</v>
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800x-IN-HAND-READY-TO-SHIP-Read-Description-Before-Bidding/164507251213?hash=item264d65720d:g:picAAOSwWZlfrMdF</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-CPU-Processor-8-Cores-16-Threads-IN-HAND/254777694991?epid=12041984358&amp;hash=item3b51ef1b0f:g:jO4AAOSwb7xfrHHL</t>
         </is>
       </c>
     </row>
@@ -14785,7 +14785,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800x 8-Core, 16-Thread Unlocked Desktop Processor Brand New</t>
+          <t>AMD Ryzen 7 5800X Desktop Processor (8 Cores, Socket AM4) - NEW</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -14794,20 +14794,20 @@
         </is>
       </c>
       <c r="D449" t="n">
-        <v>599.99</v>
+        <v>644.99</v>
       </c>
       <c r="E449" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="F449" t="n">
-        <v>608.39</v>
+        <v>644.99</v>
       </c>
       <c r="G449" s="2" t="n">
-        <v>44149</v>
+        <v>44150</v>
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800x-8-Core-16-Thread-Unlocked-Desktop-Processor-Brand-New/124438714538?epid=26033166838&amp;hash=item1cf92018aa:g:0qAAAOSw8FVfrvCf</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-Processor-8-Cores-Socket-AM4-NEW/184537002438?epid=12041984358&amp;hash=item2af74331c6:g:vjMAAOSwDnpfsONe</t>
         </is>
       </c>
     </row>
@@ -14817,7 +14817,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X 8 Core 16 Thread CPU</t>
+          <t>IN HAND! AMD Ryzen 7 5800x Desktop Processor Zen 3 5000 Series!</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -14826,20 +14826,20 @@
         </is>
       </c>
       <c r="D450" t="n">
-        <v>610</v>
+        <v>624.99</v>
       </c>
       <c r="E450" t="n">
         <v>0</v>
       </c>
       <c r="F450" t="n">
-        <v>610</v>
+        <v>624.99</v>
       </c>
       <c r="G450" s="2" t="n">
         <v>44149</v>
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-8-Core-16-Thread-CPU/264929541312?epid=24042267832&amp;hash=item3daf07fcc0:g:8-kAAOSwFf1fp1uK</t>
+          <t>https://www.ebay.com/itm/IN-HAND-AMD-Ryzen-7-5800x-Desktop-Processor-Zen-3-5000-Series/133576477869?epid=12041984358&amp;hash=item1f19c74cad:g:iMoAAOSwWZZfsC5r</t>
         </is>
       </c>
     </row>
@@ -14849,7 +14849,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X Desktop Processor SEALED In-Hand &amp; Ready to Ship!</t>
+          <t>AMD Ryzen 7 5800x | IN HAND READY TO SHIP - Read Description Before Bidding!</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -14858,20 +14858,20 @@
         </is>
       </c>
       <c r="D451" t="n">
-        <v>620</v>
+        <v>605</v>
       </c>
       <c r="E451" t="n">
-        <v>5</v>
+        <v>15.05</v>
       </c>
       <c r="F451" t="n">
-        <v>625</v>
+        <v>620.05</v>
       </c>
       <c r="G451" s="2" t="n">
         <v>44149</v>
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-Processor-SEALED-In-Hand-Ready-to-Ship/333786176560?epid=12041984358&amp;hash=item4db734dc30:g:rLkAAOSwqb1frJ7f</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800x-IN-HAND-READY-TO-SHIP-Read-Description-Before-Bidding/164507251213?hash=item264d65720d:g:picAAOSwWZlfrMdF</t>
         </is>
       </c>
     </row>
@@ -14881,7 +14881,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>BNIB Ryzen 7 5800x IN HAND READY TO SHIP</t>
+          <t>AMD Ryzen 7 5800x 8-Core, 16-Thread Unlocked Desktop Processor Brand New</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -14890,20 +14890,20 @@
         </is>
       </c>
       <c r="D452" t="n">
-        <v>659</v>
+        <v>599.99</v>
       </c>
       <c r="E452" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="F452" t="n">
-        <v>659</v>
+        <v>608.39</v>
       </c>
       <c r="G452" s="2" t="n">
         <v>44149</v>
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/BNIB-Ryzen-7-5800x-IN-HAND-READY-TO-SHIP/284076638392?hash=item42244980b8:g:1Q8AAOSw79VfrfGM</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800x-8-Core-16-Thread-Unlocked-Desktop-Processor-Brand-New/124438714538?epid=26033166838&amp;hash=item1cf92018aa:g:0qAAAOSw8FVfrvCf</t>
         </is>
       </c>
     </row>
@@ -14913,29 +14913,29 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>New (Open Box) AMD Ryzen 7 5800X 8 Core,16 Thread,3.8 GHz Base,4.7 GHz Max Boost</t>
+          <t>AMD Ryzen 7 5800X 8 Core 16 Thread CPU</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>Open Box</t>
+          <t>Brand New</t>
         </is>
       </c>
       <c r="D453" t="n">
-        <v>590</v>
+        <v>610</v>
       </c>
       <c r="E453" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F453" t="n">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="G453" s="2" t="n">
         <v>44149</v>
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/New-Open-Box-AMD-Ryzen-7-5800X-8-Core-16-Thread-3-8-GHz-Base-4-7-GHz-Max-Boost/303762681713?epid=24042267832&amp;hash=item46b9aaaf71:g:CtIAAOSwGAhfrGPV</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-8-Core-16-Thread-CPU/264929541312?epid=24042267832&amp;hash=item3daf07fcc0:g:8-kAAOSwFf1fp1uK</t>
         </is>
       </c>
     </row>
@@ -14945,7 +14945,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800x 8 Core 16 Thread CPU + FARCRY 6 SHIPS TODAY</t>
+          <t>AMD Ryzen 7 5800X Desktop Processor SEALED In-Hand &amp; Ready to Ship!</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -14954,20 +14954,20 @@
         </is>
       </c>
       <c r="D454" t="n">
-        <v>605</v>
+        <v>620</v>
       </c>
       <c r="E454" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F454" t="n">
-        <v>605</v>
+        <v>625</v>
       </c>
       <c r="G454" s="2" t="n">
         <v>44149</v>
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800x-8-Core-16-Thread-CPU-FARCRY-6-SHIPS-TODAY/254777402152?epid=22042427683&amp;hash=item3b51eaa328:g:XIAAAOSwvddfrcQH</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-Processor-SEALED-In-Hand-Ready-to-Ship/333786176560?epid=12041984358&amp;hash=item4db734dc30:g:rLkAAOSwqb1frJ7f</t>
         </is>
       </c>
     </row>
@@ -14977,7 +14977,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Ryzen 7 5800x IN HAND *NEW IN BOX, FREE SHIP ASAP* NO RESERVE </t>
+          <t>BNIB Ryzen 7 5800x IN HAND READY TO SHIP</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -14986,20 +14986,20 @@
         </is>
       </c>
       <c r="D455" t="n">
-        <v>650</v>
+        <v>659</v>
       </c>
       <c r="E455" t="n">
-        <v>10.9</v>
+        <v>0</v>
       </c>
       <c r="F455" t="n">
-        <v>660.9</v>
+        <v>659</v>
       </c>
       <c r="G455" s="2" t="n">
         <v>44149</v>
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800x-IN-HAND-NEW-IN-BOX-FREE-SHIP-ASAP-NO-RESERVE/184534864412?hash=item2af722921c:g:DSEAAOSwHTlfrv5P</t>
+          <t>https://www.ebay.com/itm/BNIB-Ryzen-7-5800x-IN-HAND-READY-TO-SHIP/284076638392?hash=item42244980b8:g:1Q8AAOSw79VfrfGM</t>
         </is>
       </c>
     </row>
@@ -15009,29 +15009,29 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>AMD Zen 3 Ryzen 7 5800X Brand New In Box -</t>
+          <t>New (Open Box) AMD Ryzen 7 5800X 8 Core,16 Thread,3.8 GHz Base,4.7 GHz Max Boost</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>Brand New</t>
+          <t>Open Box</t>
         </is>
       </c>
       <c r="D456" t="n">
-        <v>639.99</v>
+        <v>590</v>
       </c>
       <c r="E456" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F456" t="n">
-        <v>639.99</v>
+        <v>600</v>
       </c>
       <c r="G456" s="2" t="n">
         <v>44149</v>
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Zen-3-Ryzen-7-5800X-Brand-New-In-Box/164509621288?epid=12041984358&amp;hash=item264d899c28:g:F8QAAOSwAu5frgwP</t>
+          <t>https://www.ebay.com/itm/New-Open-Box-AMD-Ryzen-7-5800X-8-Core-16-Thread-3-8-GHz-Base-4-7-GHz-Max-Boost/303762681713?epid=24042267832&amp;hash=item46b9aaaf71:g:CtIAAOSwGAhfrGPV</t>
         </is>
       </c>
     </row>
@@ -15041,7 +15041,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X</t>
+          <t>AMD Ryzen 7 5800x 8 Core 16 Thread CPU + FARCRY 6 SHIPS TODAY</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -15050,20 +15050,20 @@
         </is>
       </c>
       <c r="D457" t="n">
-        <v>580</v>
+        <v>605</v>
       </c>
       <c r="E457" t="n">
         <v>0</v>
       </c>
       <c r="F457" t="n">
-        <v>580</v>
+        <v>605</v>
       </c>
       <c r="G457" s="2" t="n">
         <v>44149</v>
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X/224225416200?hash=item3434e05408:g:1GcAAOSwfmFfprG3</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800x-8-Core-16-Thread-CPU-FARCRY-6-SHIPS-TODAY/254777402152?epid=22042427683&amp;hash=item3b51eaa328:g:XIAAAOSwvddfrcQH</t>
         </is>
       </c>
     </row>
@@ -15073,7 +15073,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X AM4 Boxed CPU New Sealed 5000 Series - IN HAND</t>
+          <t xml:space="preserve">AMD Ryzen 7 5800x IN HAND *NEW IN BOX, FREE SHIP ASAP* NO RESERVE </t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -15082,20 +15082,20 @@
         </is>
       </c>
       <c r="D458" t="n">
-        <v>630</v>
+        <v>650</v>
       </c>
       <c r="E458" t="n">
-        <v>12</v>
+        <v>10.9</v>
       </c>
       <c r="F458" t="n">
-        <v>642</v>
+        <v>660.9</v>
       </c>
       <c r="G458" s="2" t="n">
         <v>44149</v>
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-AM4-Boxed-CPU-New-Sealed-5000-Series-IN-HAND/174511690294?epid=24042267832&amp;hash=item28a1b51236:g:wJoAAOSwDL1fqUnN</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800x-IN-HAND-NEW-IN-BOX-FREE-SHIP-ASAP-NO-RESERVE/184534864412?hash=item2af722921c:g:DSEAAOSwHTlfrv5P</t>
         </is>
       </c>
     </row>
@@ -15105,7 +15105,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800x *NEW IN BOX, FREE SHIP ASAP*</t>
+          <t>AMD Zen 3 Ryzen 7 5800X Brand New In Box -</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -15114,20 +15114,20 @@
         </is>
       </c>
       <c r="D459" t="n">
-        <v>630</v>
+        <v>639.99</v>
       </c>
       <c r="E459" t="n">
         <v>0</v>
       </c>
       <c r="F459" t="n">
-        <v>630</v>
+        <v>639.99</v>
       </c>
       <c r="G459" s="2" t="n">
-        <v>44148</v>
+        <v>44149</v>
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800x-NEW-IN-BOX-FREE-SHIP-ASAP/293829325447?hash=item446997b287:g:VgIAAOSwevBfrgO1</t>
+          <t>https://www.ebay.com/itm/AMD-Zen-3-Ryzen-7-5800X-Brand-New-In-Box/164509621288?epid=12041984358&amp;hash=item264d899c28:g:F8QAAOSwAu5frgwP</t>
         </is>
       </c>
     </row>
@@ -15146,20 +15146,20 @@
         </is>
       </c>
       <c r="D460" t="n">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="E460" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F460" t="n">
-        <v>619</v>
+        <v>580</v>
       </c>
       <c r="G460" s="2" t="n">
-        <v>44148</v>
+        <v>44149</v>
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X/383802398485?hash=item595c67d715:g:XHgAAOSw27xfqIhP</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X/224225416200?hash=item3434e05408:g:1GcAAOSwfmFfprG3</t>
         </is>
       </c>
     </row>
@@ -15169,7 +15169,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>*** AMD Ryzen 7 5800X BRAND NEW and SEALED! In Hand SHIPS TODAY! ***</t>
+          <t>AMD Ryzen 7 5800X AM4 Boxed CPU New Sealed 5000 Series - IN HAND</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -15178,20 +15178,20 @@
         </is>
       </c>
       <c r="D461" t="n">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="E461" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F461" t="n">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="G461" s="2" t="n">
-        <v>44148</v>
+        <v>44149</v>
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-BRAND-NEW-and-SEALED-In-Hand-SHIPS-TODAY/324373454894?epid=12041984358&amp;hash=item4b862a202e:g:xYkAAOSwO-JfrvBH</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-AM4-Boxed-CPU-New-Sealed-5000-Series-IN-HAND/174511690294?epid=24042267832&amp;hash=item28a1b51236:g:wJoAAOSwDL1fqUnN</t>
         </is>
       </c>
     </row>
@@ -15201,7 +15201,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X 8-Core 3.8GHz AM4 CPU + Far Cry 6 In Hand Ships Today!</t>
+          <t>AMD Ryzen 7 5800x *NEW IN BOX, FREE SHIP ASAP*</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -15210,20 +15210,20 @@
         </is>
       </c>
       <c r="D462" t="n">
-        <v>659.99</v>
+        <v>630</v>
       </c>
       <c r="E462" t="n">
         <v>0</v>
       </c>
       <c r="F462" t="n">
-        <v>659.99</v>
+        <v>630</v>
       </c>
       <c r="G462" s="2" t="n">
         <v>44148</v>
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-8-Core-3-8GHz-AM4-CPU-Far-Cry-6-In-Hand-Ships-Today/203180035914?epid=12041984358&amp;hash=item2f4e794f4a:g:fsIAAOSw3iBfrIaG</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800x-NEW-IN-BOX-FREE-SHIP-ASAP/293829325447?hash=item446997b287:g:VgIAAOSwevBfrgO1</t>
         </is>
       </c>
     </row>
@@ -15233,7 +15233,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800x</t>
+          <t>AMD Ryzen 7 5800X</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -15242,20 +15242,20 @@
         </is>
       </c>
       <c r="D463" t="n">
-        <v>550</v>
+        <v>594</v>
       </c>
       <c r="E463" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F463" t="n">
-        <v>555</v>
+        <v>619</v>
       </c>
       <c r="G463" s="2" t="n">
         <v>44148</v>
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800x/274574026141?hash=item3fede3259d:g:ZtsAAOSwViVfru-A</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X/383802398485?hash=item595c67d715:g:XHgAAOSw27xfqIhP</t>
         </is>
       </c>
     </row>
@@ -15265,7 +15265,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Ryzen 7 5800x 8 Core Processor (NEW IN BOX) (Ready to Ship)</t>
+          <t>*** AMD Ryzen 7 5800X BRAND NEW and SEALED! In Hand SHIPS TODAY! ***</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -15274,20 +15274,20 @@
         </is>
       </c>
       <c r="D464" t="n">
-        <v>600</v>
+        <v>640</v>
       </c>
       <c r="E464" t="n">
-        <v>3.95</v>
+        <v>10</v>
       </c>
       <c r="F464" t="n">
-        <v>603.95</v>
+        <v>650</v>
       </c>
       <c r="G464" s="2" t="n">
         <v>44148</v>
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Ryzen-7-5800x-8-Core-Processor-NEW-IN-BOX-Ready-to-Ship/124428012863?hash=item1cf87ccd3f:g:ZRAAAOSwQ6ZfpbWn</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-BRAND-NEW-and-SEALED-In-Hand-SHIPS-TODAY/324373454894?epid=12041984358&amp;hash=item4b862a202e:g:xYkAAOSwO-JfrvBH</t>
         </is>
       </c>
     </row>
@@ -15297,7 +15297,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>[READY TO SHIP] AMD Ryzen 7 5800X 8-Core 3.8 GHz IN HAND</t>
+          <t>AMD Ryzen 7 5800X 8-Core 3.8GHz AM4 CPU + Far Cry 6 In Hand Ships Today!</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -15306,20 +15306,20 @@
         </is>
       </c>
       <c r="D465" t="n">
-        <v>585</v>
+        <v>659.99</v>
       </c>
       <c r="E465" t="n">
-        <v>10.1</v>
+        <v>0</v>
       </c>
       <c r="F465" t="n">
-        <v>595.1</v>
+        <v>659.99</v>
       </c>
       <c r="G465" s="2" t="n">
         <v>44148</v>
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/READY-TO-SHIP-AMD-Ryzen-7-5800X-8-Core-3-8-GHz-IN-HAND/264933318424?hash=item3daf419f18:g:Nn0AAOSwA9xfpxls</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-8-Core-3-8GHz-AM4-CPU-Far-Cry-6-In-Hand-Ships-Today/203180035914?epid=12041984358&amp;hash=item2f4e794f4a:g:fsIAAOSw3iBfrIaG</t>
         </is>
       </c>
     </row>
@@ -15329,7 +15329,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Ryzen 7 5800x</t>
+          <t>AMD Ryzen 7 5800x</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -15338,20 +15338,20 @@
         </is>
       </c>
       <c r="D466" t="n">
-        <v>619</v>
+        <v>550</v>
       </c>
       <c r="E466" t="n">
-        <v>12.99</v>
+        <v>5</v>
       </c>
       <c r="F466" t="n">
-        <v>631.99</v>
+        <v>555</v>
       </c>
       <c r="G466" s="2" t="n">
         <v>44148</v>
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Ryzen-7-5800x/373335427727?hash=item56ec868a8f:g:H2AAAOSwGJxfrcsa</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800x/274574026141?hash=item3fede3259d:g:ZtsAAOSwViVfru-A</t>
         </is>
       </c>
     </row>
@@ -15361,7 +15361,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X - 8 core/16 thread - 4.7Ghz Boost/3.8Ghz Base Clock - AM4 CPU</t>
+          <t>Ryzen 7 5800x 8 Core Processor (NEW IN BOX) (Ready to Ship)</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -15370,20 +15370,20 @@
         </is>
       </c>
       <c r="D467" t="n">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="E467" t="n">
-        <v>15.06</v>
+        <v>3.95</v>
       </c>
       <c r="F467" t="n">
-        <v>635.0599999999999</v>
+        <v>603.95</v>
       </c>
       <c r="G467" s="2" t="n">
         <v>44148</v>
       </c>
       <c r="H467" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-8-core-16-thread-4-7Ghz-Boost-3-8Ghz-Base-Clock-AM4-CPU/174516542343?hash=item28a1ff1b87:g:z94AAOSwCjJfre14</t>
+          <t>https://www.ebay.com/itm/Ryzen-7-5800x-8-Core-Processor-NEW-IN-BOX-Ready-to-Ship/124428012863?hash=item1cf87ccd3f:g:ZRAAAOSwQ6ZfpbWn</t>
         </is>
       </c>
     </row>
@@ -15393,7 +15393,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800x 8 Core 16 Thread CPU  Brand New With FarCry 6 Free 3 day Ship</t>
+          <t>[READY TO SHIP] AMD Ryzen 7 5800X 8-Core 3.8 GHz IN HAND</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -15402,20 +15402,20 @@
         </is>
       </c>
       <c r="D468" t="n">
-        <v>659</v>
+        <v>585</v>
       </c>
       <c r="E468" t="n">
-        <v>0</v>
+        <v>10.1</v>
       </c>
       <c r="F468" t="n">
-        <v>659</v>
+        <v>595.1</v>
       </c>
       <c r="G468" s="2" t="n">
         <v>44148</v>
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800x-8-Core-16-Thread-CPU-Brand-New-With-FarCry-6-Free-3-day-Ship/224232442604?epid=22042427683&amp;hash=item34354b8aec:g:XIAAAOSwvddfrcQH</t>
+          <t>https://www.ebay.com/itm/READY-TO-SHIP-AMD-Ryzen-7-5800X-8-Core-3-8-GHz-IN-HAND/264933318424?hash=item3daf419f18:g:Nn0AAOSwA9xfpxls</t>
         </is>
       </c>
     </row>
@@ -15425,7 +15425,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X 8-Core 3.8GHz AM4 CPU + Far Cry 6 In Hand Ships Today!</t>
+          <t>Ryzen 7 5800x</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -15434,20 +15434,20 @@
         </is>
       </c>
       <c r="D469" t="n">
-        <v>659.99</v>
+        <v>619</v>
       </c>
       <c r="E469" t="n">
-        <v>0</v>
+        <v>12.99</v>
       </c>
       <c r="F469" t="n">
-        <v>659.99</v>
+        <v>631.99</v>
       </c>
       <c r="G469" s="2" t="n">
         <v>44148</v>
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-8-Core-3-8GHz-AM4-CPU-Far-Cry-6-In-Hand-Ships-Today/203170406349?epid=12041984358&amp;hash=item2f4de65fcd:g:fsIAAOSw3iBfrIaG</t>
+          <t>https://www.ebay.com/itm/Ryzen-7-5800x/373335427727?hash=item56ec868a8f:g:H2AAAOSwGJxfrcsa</t>
         </is>
       </c>
     </row>
@@ -15457,7 +15457,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X Brand New and Sealed! In Hand and FAST SHIPPING!</t>
+          <t>AMD Ryzen 7 5800X - 8 core/16 thread - 4.7Ghz Boost/3.8Ghz Base Clock - AM4 CPU</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -15466,20 +15466,20 @@
         </is>
       </c>
       <c r="D470" t="n">
-        <v>640</v>
+        <v>620</v>
       </c>
       <c r="E470" t="n">
-        <v>0</v>
+        <v>15.06</v>
       </c>
       <c r="F470" t="n">
-        <v>640</v>
+        <v>635.0599999999999</v>
       </c>
       <c r="G470" s="2" t="n">
-        <v>44147</v>
+        <v>44148</v>
       </c>
       <c r="H470" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Brand-New-and-Sealed-In-Hand-and-FAST-SHIPPING/324371864753?epid=12041984358&amp;hash=item4b8611dcb1:g:dcgAAOSwB65frN06</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-8-core-16-thread-4-7Ghz-Boost-3-8Ghz-Base-Clock-AM4-CPU/174516542343?hash=item28a1ff1b87:g:z94AAOSwCjJfre14</t>
         </is>
       </c>
     </row>
@@ -15489,7 +15489,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800x 8 Core 16 Thread CPU (IN HAND - READY TO SHIP)</t>
+          <t>AMD Ryzen 7 5800x 8 Core 16 Thread CPU  Brand New With FarCry 6 Free 3 day Ship</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -15498,20 +15498,20 @@
         </is>
       </c>
       <c r="D471" t="n">
-        <v>624.99</v>
+        <v>659</v>
       </c>
       <c r="E471" t="n">
-        <v>4.75</v>
+        <v>0</v>
       </c>
       <c r="F471" t="n">
-        <v>629.74</v>
+        <v>659</v>
       </c>
       <c r="G471" s="2" t="n">
-        <v>44147</v>
+        <v>44148</v>
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800x-8-Core-16-Thread-CPU-IN-HAND-READY-TO-SHIP/143839008548?hash=item217d791724:g:fnoAAOSwmsFfrgVP</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800x-8-Core-16-Thread-CPU-Brand-New-With-FarCry-6-Free-3-day-Ship/224232442604?epid=22042427683&amp;hash=item34354b8aec:g:XIAAAOSwvddfrcQH</t>
         </is>
       </c>
     </row>
@@ -15521,7 +15521,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>AMD Zen 3 Ryzen 7 5800X Brand New In Box - In Hand - Same day Fast Shipping</t>
+          <t>AMD Ryzen 7 5800X 8-Core 3.8GHz AM4 CPU + Far Cry 6 In Hand Ships Today!</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -15530,20 +15530,20 @@
         </is>
       </c>
       <c r="D472" t="n">
-        <v>639.99</v>
+        <v>659.99</v>
       </c>
       <c r="E472" t="n">
-        <v>9.99</v>
+        <v>0</v>
       </c>
       <c r="F472" t="n">
-        <v>649.98</v>
+        <v>659.99</v>
       </c>
       <c r="G472" s="2" t="n">
-        <v>44147</v>
+        <v>44148</v>
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Zen-3-Ryzen-7-5800X-Brand-New-In-Box-In-Hand-Same-day-Fast-Shipping/124437448978?epid=12041984358&amp;hash=item1cf90cc912:g:BUwAAOSwr8VfrdHi</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-8-Core-3-8GHz-AM4-CPU-Far-Cry-6-In-Hand-Ships-Today/203170406349?epid=12041984358&amp;hash=item2f4de65fcd:g:fsIAAOSw3iBfrIaG</t>
         </is>
       </c>
     </row>
@@ -15553,7 +15553,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X 8-Core 3.8 GHz Socket AM4 105W CPU Desktop Processor</t>
+          <t>AMD Ryzen 7 5800X Brand New and Sealed! In Hand and FAST SHIPPING!</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -15562,20 +15562,20 @@
         </is>
       </c>
       <c r="D473" t="n">
-        <v>610</v>
+        <v>640</v>
       </c>
       <c r="E473" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="F473" t="n">
-        <v>613.8</v>
+        <v>640</v>
       </c>
       <c r="G473" s="2" t="n">
         <v>44147</v>
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-8-Core-3-8-GHz-Socket-AM4-105W-CPU-Desktop-Processor/114509881552?hash=item1aa95220d0:g:n~MAAOSwz6tfqg6d</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Brand-New-and-Sealed-In-Hand-and-FAST-SHIPPING/324371864753?epid=12041984358&amp;hash=item4b8611dcb1:g:dcgAAOSwB65frN06</t>
         </is>
       </c>
     </row>
@@ -15585,7 +15585,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X 3.8GHz L3 AM4 CPU *CONFIRMED BACKORDER*</t>
+          <t>AMD Ryzen 7 5800x 8 Core 16 Thread CPU (IN HAND - READY TO SHIP)</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -15594,20 +15594,20 @@
         </is>
       </c>
       <c r="D474" t="n">
-        <v>555</v>
+        <v>624.99</v>
       </c>
       <c r="E474" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="F474" t="n">
-        <v>555</v>
+        <v>629.74</v>
       </c>
       <c r="G474" s="2" t="n">
         <v>44147</v>
       </c>
       <c r="H474" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-3-8GHz-L3-AM4-CPU-CONFIRMED-BACKORDER/393009834234?epid=12041984358&amp;hash=item5b813628fa:g:IH0AAOSwvvdfpBY6</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800x-8-Core-16-Thread-CPU-IN-HAND-READY-TO-SHIP/143839008548?hash=item217d791724:g:fnoAAOSwmsFfrgVP</t>
         </is>
       </c>
     </row>
@@ -15617,7 +15617,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X 3.8GHz AM4 CPU CONFIRMED PRE-SALE NEWEGG -FAST SHIPPING!</t>
+          <t>AMD Zen 3 Ryzen 7 5800X Brand New In Box - In Hand - Same day Fast Shipping</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -15626,20 +15626,20 @@
         </is>
       </c>
       <c r="D475" t="n">
-        <v>575</v>
+        <v>639.99</v>
       </c>
       <c r="E475" t="n">
-        <v>14.99</v>
+        <v>9.99</v>
       </c>
       <c r="F475" t="n">
-        <v>589.99</v>
+        <v>649.98</v>
       </c>
       <c r="G475" s="2" t="n">
         <v>44147</v>
       </c>
       <c r="H475" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-3-8GHz-AM4-CPU-CONFIRMED-PRE-SALE-NEWEGG-FAST-SHIPPING/164497897444?hash=item264cd6b7e4:g:WKcAAOSwEV5fpBll</t>
+          <t>https://www.ebay.com/itm/AMD-Zen-3-Ryzen-7-5800X-Brand-New-In-Box-In-Hand-Same-day-Fast-Shipping/124437448978?epid=12041984358&amp;hash=item1cf90cc912:g:BUwAAOSwr8VfrdHi</t>
         </is>
       </c>
     </row>
@@ -15649,7 +15649,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t xml:space="preserve">New/Sealed Ryzen 7 5800x, IN HAND READY TO Ship (Far Cry 6 included) </t>
+          <t>AMD Ryzen 7 5800X 8-Core 3.8 GHz Socket AM4 105W CPU Desktop Processor</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -15658,20 +15658,20 @@
         </is>
       </c>
       <c r="D476" t="n">
-        <v>635</v>
+        <v>610</v>
       </c>
       <c r="E476" t="n">
-        <v>10</v>
+        <v>3.8</v>
       </c>
       <c r="F476" t="n">
-        <v>645</v>
+        <v>613.8</v>
       </c>
       <c r="G476" s="2" t="n">
         <v>44147</v>
       </c>
       <c r="H476" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/New-Sealed-Ryzen-7-5800x-IN-HAND-READY-TO-Ship-Far-Cry-6-included/174512245294?hash=item28a1bd8a2e:g:Sa0AAOSwkK5fqab4</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-8-Core-3-8-GHz-Socket-AM4-105W-CPU-Desktop-Processor/114509881552?hash=item1aa95220d0:g:n~MAAOSwz6tfqg6d</t>
         </is>
       </c>
     </row>
@@ -15681,7 +15681,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X Processor (4.7GHz max, 8 Cores, AM4) (IN-HAND)</t>
+          <t>AMD Ryzen 7 5800X 3.8GHz L3 AM4 CPU *CONFIRMED BACKORDER*</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -15690,20 +15690,20 @@
         </is>
       </c>
       <c r="D477" t="n">
-        <v>635</v>
+        <v>555</v>
       </c>
       <c r="E477" t="n">
         <v>0</v>
       </c>
       <c r="F477" t="n">
-        <v>635</v>
+        <v>555</v>
       </c>
       <c r="G477" s="2" t="n">
         <v>44147</v>
       </c>
       <c r="H477" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Processor-4-7GHz-max-8-Cores-AM4-IN-HAND/114515304629?epid=12041984358&amp;hash=item1aa9a4e0b5:g:yzgAAOSw0t9fq0ra</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-3-8GHz-L3-AM4-CPU-CONFIRMED-BACKORDER/393009834234?epid=12041984358&amp;hash=item5b813628fa:g:IH0AAOSwvvdfpBY6</t>
         </is>
       </c>
     </row>
@@ -15713,7 +15713,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Amd Ryzen 7 5800x (In Hand) (Ships Fast)</t>
+          <t>AMD Ryzen 7 5800X 3.8GHz AM4 CPU CONFIRMED PRE-SALE NEWEGG -FAST SHIPPING!</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -15722,20 +15722,20 @@
         </is>
       </c>
       <c r="D478" t="n">
-        <v>629</v>
+        <v>575</v>
       </c>
       <c r="E478" t="n">
-        <v>8.85</v>
+        <v>14.99</v>
       </c>
       <c r="F478" t="n">
-        <v>637.85</v>
+        <v>589.99</v>
       </c>
       <c r="G478" s="2" t="n">
         <v>44147</v>
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Amd-Ryzen-7-5800x-In-Hand-Ships-Fast/293829036933?hash=item4469934b85:g:qmgAAOSwVztfrcvg</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-3-8GHz-AM4-CPU-CONFIRMED-PRE-SALE-NEWEGG-FAST-SHIPPING/164497897444?hash=item264cd6b7e4:g:WKcAAOSwEV5fpBll</t>
         </is>
       </c>
     </row>
@@ -15745,7 +15745,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Ryzen 7 5800x 8 Core CPU - New Sealed - IN HAND READY TO SHIP</t>
+          <t xml:space="preserve">New/Sealed Ryzen 7 5800x, IN HAND READY TO Ship (Far Cry 6 included) </t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -15754,20 +15754,20 @@
         </is>
       </c>
       <c r="D479" t="n">
-        <v>639.99</v>
+        <v>635</v>
       </c>
       <c r="E479" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F479" t="n">
-        <v>639.99</v>
+        <v>645</v>
       </c>
       <c r="G479" s="2" t="n">
         <v>44147</v>
       </c>
       <c r="H479" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Ryzen-7-5800x-8-Core-CPU-New-Sealed-IN-HAND-READY-TO-SHIP/233779081435?hash=item366e51b0db:g:nCkAAOSwwVZfrbiD</t>
+          <t>https://www.ebay.com/itm/New-Sealed-Ryzen-7-5800x-IN-HAND-READY-TO-Ship-Far-Cry-6-included/174512245294?hash=item28a1bd8a2e:g:Sa0AAOSwkK5fqab4</t>
         </is>
       </c>
     </row>
@@ -15777,7 +15777,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800x 8 Core 16 Thread CPU, With Far cry 6 Confirmed Order</t>
+          <t>AMD Ryzen 7 5800X Processor (4.7GHz max, 8 Cores, AM4) (IN-HAND)</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -15786,20 +15786,20 @@
         </is>
       </c>
       <c r="D480" t="n">
-        <v>610</v>
+        <v>635</v>
       </c>
       <c r="E480" t="n">
         <v>0</v>
       </c>
       <c r="F480" t="n">
-        <v>610</v>
+        <v>635</v>
       </c>
       <c r="G480" s="2" t="n">
         <v>44147</v>
       </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800x-8-Core-16-Thread-CPU-With-Far-cry-6-Confirmed-Order/363168096533?hash=item548e816115:g:kMYAAOSwS6FfpH-j</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Processor-4-7GHz-max-8-Cores-AM4-IN-HAND/114515304629?epid=12041984358&amp;hash=item1aa9a4e0b5:g:yzgAAOSw0t9fq0ra</t>
         </is>
       </c>
     </row>
@@ -15809,7 +15809,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Ryzen 7 5800x Unopened In Hand W/ Far Cry 6 Can Ship Now!</t>
+          <t>Amd Ryzen 7 5800x (In Hand) (Ships Fast)</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -15818,20 +15818,20 @@
         </is>
       </c>
       <c r="D481" t="n">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E481" t="n">
-        <v>15</v>
+        <v>8.85</v>
       </c>
       <c r="F481" t="n">
-        <v>645</v>
+        <v>637.85</v>
       </c>
       <c r="G481" s="2" t="n">
         <v>44147</v>
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Ryzen-7-5800x-Unopened-In-Hand-W-Far-Cry-6-Can-Ship-Now/383803694523?hash=item595c7b9dbb:g:w2AAAOSwZzNfqbqa</t>
+          <t>https://www.ebay.com/itm/Amd-Ryzen-7-5800x-In-Hand-Ships-Fast/293829036933?hash=item4469934b85:g:qmgAAOSwVztfrcvg</t>
         </is>
       </c>
     </row>
@@ -15841,7 +15841,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Sealed AMD Ryzen 5800x IN HAND Ready To Ship</t>
+          <t>Ryzen 7 5800x 8 Core CPU - New Sealed - IN HAND READY TO SHIP</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -15850,20 +15850,20 @@
         </is>
       </c>
       <c r="D482" t="n">
-        <v>710</v>
+        <v>639.99</v>
       </c>
       <c r="E482" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F482" t="n">
-        <v>720</v>
+        <v>639.99</v>
       </c>
       <c r="G482" s="2" t="n">
         <v>44147</v>
       </c>
       <c r="H482" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sealed-AMD-Ryzen-5800x-IN-HAND-Ready-To-Ship/133571668082?epid=24042267832&amp;hash=item1f197de872:g:-nsAAOSwHHtfqbn8</t>
+          <t>https://www.ebay.com/itm/Ryzen-7-5800x-8-Core-CPU-New-Sealed-IN-HAND-READY-TO-SHIP/233779081435?hash=item366e51b0db:g:nCkAAOSwwVZfrbiD</t>
         </is>
       </c>
     </row>
@@ -15873,7 +15873,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X 8-Core 3.8 GHz Socket AM4 105W 100-100000063WOF Desktop Proces</t>
+          <t>AMD Ryzen 7 5800x 8 Core 16 Thread CPU, With Far cry 6 Confirmed Order</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -15882,20 +15882,20 @@
         </is>
       </c>
       <c r="D483" t="n">
-        <v>638</v>
+        <v>610</v>
       </c>
       <c r="E483" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F483" t="n">
-        <v>649</v>
+        <v>610</v>
       </c>
       <c r="G483" s="2" t="n">
         <v>44147</v>
       </c>
       <c r="H483" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-8-Core-3-8-GHz-Socket-AM4-105W-100-100000063WOF-Desktop-Proces/224230927576?epid=12041984358&amp;hash=item3435346cd8:g:pJ8AAOSwdLpfrFH5</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800x-8-Core-16-Thread-CPU-With-Far-cry-6-Confirmed-Order/363168096533?hash=item548e816115:g:kMYAAOSwS6FfpH-j</t>
         </is>
       </c>
     </row>
@@ -15905,7 +15905,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>AMD Zen 3 Ryzen 7 5800X Brand New In Box - In Hand</t>
+          <t>Ryzen 7 5800x Unopened In Hand W/ Far Cry 6 Can Ship Now!</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -15914,20 +15914,20 @@
         </is>
       </c>
       <c r="D484" t="n">
-        <v>649</v>
+        <v>630</v>
       </c>
       <c r="E484" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F484" t="n">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="G484" s="2" t="n">
         <v>44147</v>
       </c>
       <c r="H484" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Zen-3-Ryzen-7-5800X-Brand-New-In-Box-In-Hand/203178572895?epid=12041984358&amp;hash=item2f4e62fc5f:g:pokAAOSwMp9frX0R</t>
+          <t>https://www.ebay.com/itm/Ryzen-7-5800x-Unopened-In-Hand-W-Far-Cry-6-Can-Ship-Now/383803694523?hash=item595c7b9dbb:g:w2AAAOSwZzNfqbqa</t>
         </is>
       </c>
     </row>
@@ -15937,7 +15937,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X 3.8GHz L3 AM4 CPU Desktop Processor Boxed. In Hand!</t>
+          <t>Sealed AMD Ryzen 5800x IN HAND Ready To Ship</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -15946,20 +15946,20 @@
         </is>
       </c>
       <c r="D485" t="n">
-        <v>629</v>
+        <v>710</v>
       </c>
       <c r="E485" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F485" t="n">
-        <v>649</v>
+        <v>720</v>
       </c>
       <c r="G485" s="2" t="n">
         <v>44147</v>
       </c>
       <c r="H485" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-3-8GHz-L3-AM4-CPU-Desktop-Processor-Boxed-In-Hand/264935722463?epid=12041984358&amp;hash=item3daf664ddf:g:M9oAAOSwhC9fpBzg</t>
+          <t>https://www.ebay.com/itm/Sealed-AMD-Ryzen-5800x-IN-HAND-Ready-To-Ship/133571668082?epid=24042267832&amp;hash=item1f197de872:g:-nsAAOSwHHtfqbn8</t>
         </is>
       </c>
     </row>
@@ -15969,7 +15969,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X 3.8GHz L3 AM4 CPU Desktop Processor</t>
+          <t>AMD Ryzen 7 5800X 8-Core 3.8 GHz Socket AM4 105W 100-100000063WOF Desktop Proces</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -15978,20 +15978,20 @@
         </is>
       </c>
       <c r="D486" t="n">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E486" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F486" t="n">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="G486" s="2" t="n">
         <v>44147</v>
       </c>
       <c r="H486" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-3-8GHz-L3-AM4-CPU-Desktop-Processor/393013847548?epid=12041984358&amp;hash=item5b817365fc:g:AqsAAOSwYV5fpAuw</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-8-Core-3-8-GHz-Socket-AM4-105W-100-100000063WOF-Desktop-Proces/224230927576?epid=12041984358&amp;hash=item3435346cd8:g:pJ8AAOSwdLpfrFH5</t>
         </is>
       </c>
     </row>
@@ -16001,7 +16001,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>New Sealed | AMD Ryzen 7 5800X AM4 Boxed CPU 5000 Series - Ready to Ship</t>
+          <t>AMD Zen 3 Ryzen 7 5800X Brand New In Box - In Hand</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -16010,20 +16010,20 @@
         </is>
       </c>
       <c r="D487" t="n">
-        <v>647.99</v>
+        <v>649</v>
       </c>
       <c r="E487" t="n">
         <v>0</v>
       </c>
       <c r="F487" t="n">
-        <v>647.99</v>
+        <v>649</v>
       </c>
       <c r="G487" s="2" t="n">
         <v>44147</v>
       </c>
       <c r="H487" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/New-Sealed-AMD-Ryzen-7-5800X-AM4-Boxed-CPU-5000-Series-Ready-to-Ship/184531745506?hash=item2af6f2fae2:g:IRUAAOSwyHhfrQ0e</t>
+          <t>https://www.ebay.com/itm/AMD-Zen-3-Ryzen-7-5800X-Brand-New-In-Box-In-Hand/203178572895?epid=12041984358&amp;hash=item2f4e62fc5f:g:pokAAOSwMp9frX0R</t>
         </is>
       </c>
     </row>
@@ -16033,7 +16033,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800x - Expedited Shipping - Overnight Available (w/ Far Cry 6 Code)</t>
+          <t>AMD Ryzen 7 5800X 3.8GHz L3 AM4 CPU Desktop Processor Boxed. In Hand!</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -16042,20 +16042,20 @@
         </is>
       </c>
       <c r="D488" t="n">
-        <v>659</v>
+        <v>629</v>
       </c>
       <c r="E488" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F488" t="n">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="G488" s="2" t="n">
         <v>44147</v>
       </c>
       <c r="H488" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800x-Expedited-Shipping-Overnight-Available-w-Far-Cry-6-Code/124437049871?hash=item1cf906b20f:g:VcgAAOSwW8VfrXOt</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-3-8GHz-L3-AM4-CPU-Desktop-Processor-Boxed-In-Hand/264935722463?epid=12041984358&amp;hash=item3daf664ddf:g:M9oAAOSwhC9fpBzg</t>
         </is>
       </c>
     </row>
@@ -16065,7 +16065,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X Brand New and Sealed! In Hand and FAST SHIPPING!</t>
+          <t>AMD Ryzen 7 5800X 3.8GHz L3 AM4 CPU Desktop Processor</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -16074,20 +16074,20 @@
         </is>
       </c>
       <c r="D489" t="n">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="E489" t="n">
         <v>0</v>
       </c>
       <c r="F489" t="n">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="G489" s="2" t="n">
         <v>44147</v>
       </c>
       <c r="H489" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Brand-New-and-Sealed-In-Hand-and-FAST-SHIPPING/254776200188?epid=12041984358&amp;hash=item3b51d84bfc:g:dcgAAOSwB65frN06</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-3-8GHz-L3-AM4-CPU-Desktop-Processor/393013847548?epid=12041984358&amp;hash=item5b817365fc:g:AqsAAOSwYV5fpAuw</t>
         </is>
       </c>
     </row>
@@ -16097,7 +16097,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X</t>
+          <t>New Sealed | AMD Ryzen 7 5800X AM4 Boxed CPU 5000 Series - Ready to Ship</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -16106,20 +16106,20 @@
         </is>
       </c>
       <c r="D490" t="n">
-        <v>648</v>
+        <v>647.99</v>
       </c>
       <c r="E490" t="n">
         <v>0</v>
       </c>
       <c r="F490" t="n">
-        <v>648</v>
+        <v>647.99</v>
       </c>
       <c r="G490" s="2" t="n">
         <v>44147</v>
       </c>
       <c r="H490" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X/313296566891?hash=item48f1ee3a6b:g:UUwAAOSw3mVfqvIw</t>
+          <t>https://www.ebay.com/itm/New-Sealed-AMD-Ryzen-7-5800X-AM4-Boxed-CPU-5000-Series-Ready-to-Ship/184531745506?hash=item2af6f2fae2:g:IRUAAOSwyHhfrQ0e</t>
         </is>
       </c>
     </row>
@@ -16129,7 +16129,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Ryzen 5800x IN HAND Ships Today</t>
+          <t>AMD Ryzen 7 5800x - Expedited Shipping - Overnight Available (w/ Far Cry 6 Code)</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -16138,20 +16138,20 @@
         </is>
       </c>
       <c r="D491" t="n">
-        <v>610</v>
+        <v>659</v>
       </c>
       <c r="E491" t="n">
-        <v>9.99</v>
+        <v>0</v>
       </c>
       <c r="F491" t="n">
-        <v>619.99</v>
+        <v>659</v>
       </c>
       <c r="G491" s="2" t="n">
         <v>44147</v>
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Ryzen-5800x-IN-HAND-Ships-Today/293816263679?hash=item4468d063ff:g:7XYAAOSwQ6ZfpDvj</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800x-Expedited-Shipping-Overnight-Available-w-Far-Cry-6-Code/124437049871?hash=item1cf906b20f:g:VcgAAOSwW8VfrXOt</t>
         </is>
       </c>
     </row>
@@ -16161,7 +16161,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X Desktop Processor  With Far Cry 6 Code</t>
+          <t>AMD Ryzen 7 5800X Brand New and Sealed! In Hand and FAST SHIPPING!</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -16170,20 +16170,20 @@
         </is>
       </c>
       <c r="D492" t="n">
-        <v>649.99</v>
+        <v>648</v>
       </c>
       <c r="E492" t="n">
         <v>0</v>
       </c>
       <c r="F492" t="n">
-        <v>649.99</v>
+        <v>648</v>
       </c>
       <c r="G492" s="2" t="n">
         <v>44147</v>
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-Processor-With-Far-Cry-6-Code/333785757889?epid=12041984358&amp;hash=item4db72e78c1:g:RVsAAOSwcLRfrCkq</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Brand-New-and-Sealed-In-Hand-and-FAST-SHIPPING/254776200188?epid=12041984358&amp;hash=item3b51d84bfc:g:dcgAAOSwB65frN06</t>
         </is>
       </c>
     </row>
@@ -16193,7 +16193,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X Desktop CPU / Processor 8 Cores 16 Threads IN HAND</t>
+          <t>AMD Ryzen 7 5800X</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -16202,20 +16202,20 @@
         </is>
       </c>
       <c r="D493" t="n">
-        <v>649.99</v>
+        <v>648</v>
       </c>
       <c r="E493" t="n">
         <v>0</v>
       </c>
       <c r="F493" t="n">
-        <v>649.99</v>
+        <v>648</v>
       </c>
       <c r="G493" s="2" t="n">
         <v>44147</v>
       </c>
       <c r="H493" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-CPU-Processor-8-Cores-16-Threads-IN-HAND/254775699746?epid=12041984358&amp;hash=item3b51d0a922:g:jO4AAOSwb7xfrHHL</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X/313296566891?hash=item48f1ee3a6b:g:UUwAAOSw3mVfqvIw</t>
         </is>
       </c>
     </row>
@@ -16225,7 +16225,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>BUY TODAY &amp; SHIP TODAY!!! AMD Ryzen 7 5800X8 Cores - 3800 MHz - 105 watts</t>
+          <t>Ryzen 5800x IN HAND Ships Today</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -16234,20 +16234,20 @@
         </is>
       </c>
       <c r="D494" t="n">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="E494" t="n">
-        <v>4.7</v>
+        <v>9.99</v>
       </c>
       <c r="F494" t="n">
-        <v>624.7</v>
+        <v>619.99</v>
       </c>
       <c r="G494" s="2" t="n">
         <v>44147</v>
       </c>
       <c r="H494" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/BUY-TODAY-SHIP-TODAY-AMD-Ryzen-7-5800X8-Cores-3800-MHz-105-watts/333778881219?hash=item4db6c58ac3:g:DCMAAOSwLndfpC~q</t>
+          <t>https://www.ebay.com/itm/Ryzen-5800x-IN-HAND-Ships-Today/293816263679?hash=item4468d063ff:g:7XYAAOSwQ6ZfpDvj</t>
         </is>
       </c>
     </row>
@@ -16257,29 +16257,29 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Ryzen 7 5800 x</t>
+          <t>AMD Ryzen 7 5800X Desktop Processor  With Far Cry 6 Code</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>In hand unopened ryzen 7 zen 3 processor</t>
+          <t>Brand New</t>
         </is>
       </c>
       <c r="D495" t="n">
-        <v>610</v>
+        <v>649.99</v>
       </c>
       <c r="E495" t="n">
-        <v>4.65</v>
+        <v>0</v>
       </c>
       <c r="F495" t="n">
-        <v>614.65</v>
+        <v>649.99</v>
       </c>
       <c r="G495" s="2" t="n">
         <v>44147</v>
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Ryzen-7-5800-x/133567172944?hash=item1f19395150:g:8WAAAOSwqmxfpBcu</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-Processor-With-Far-Cry-6-Code/333785757889?epid=12041984358&amp;hash=item4db72e78c1:g:RVsAAOSwcLRfrCkq</t>
         </is>
       </c>
     </row>
@@ -16289,7 +16289,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X Desktop Processor IN-HAND 🔥FREE SHIPPING 🚚</t>
+          <t>AMD Ryzen 7 5800X Desktop CPU / Processor 8 Cores 16 Threads IN HAND</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -16298,20 +16298,20 @@
         </is>
       </c>
       <c r="D496" t="n">
-        <v>700</v>
+        <v>649.99</v>
       </c>
       <c r="E496" t="n">
         <v>0</v>
       </c>
       <c r="F496" t="n">
-        <v>700</v>
+        <v>649.99</v>
       </c>
       <c r="G496" s="2" t="n">
         <v>44147</v>
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-Processor-IN-HAND-FREE-SHIPPING/224229633900?epid=12041984358&amp;hash=item343520af6c:g:64wAAOSww95fqvfh</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-CPU-Processor-8-Cores-16-Threads-IN-HAND/254775699746?epid=12041984358&amp;hash=item3b51d0a922:g:jO4AAOSwb7xfrHHL</t>
         </is>
       </c>
     </row>
@@ -16321,7 +16321,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X 3.8GHz L3 AM4 CPU Desktop Processor Boxed</t>
+          <t>BUY TODAY &amp; SHIP TODAY!!! AMD Ryzen 7 5800X8 Cores - 3800 MHz - 105 watts</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -16330,20 +16330,20 @@
         </is>
       </c>
       <c r="D497" t="n">
-        <v>700</v>
+        <v>620</v>
       </c>
       <c r="E497" t="n">
-        <v>8</v>
+        <v>4.7</v>
       </c>
       <c r="F497" t="n">
-        <v>708</v>
+        <v>624.7</v>
       </c>
       <c r="G497" s="2" t="n">
         <v>44147</v>
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-3-8GHz-L3-AM4-CPU-Desktop-Processor-Boxed/203168392463?epid=12041984358&amp;hash=item2f4dc7a50f:g:jy4AAOSwq1tfpAFa</t>
+          <t>https://www.ebay.com/itm/BUY-TODAY-SHIP-TODAY-AMD-Ryzen-7-5800X8-Cores-3800-MHz-105-watts/333778881219?hash=item4db6c58ac3:g:DCMAAOSwLndfpC~q</t>
         </is>
       </c>
     </row>
@@ -16353,29 +16353,29 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X Brand New and Sealed! In Hand and FAST SHIPPING!</t>
+          <t>Ryzen 7 5800 x</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>Brand New</t>
+          <t>In hand unopened ryzen 7 zen 3 processor</t>
         </is>
       </c>
       <c r="D498" t="n">
-        <v>648</v>
+        <v>610</v>
       </c>
       <c r="E498" t="n">
-        <v>0</v>
+        <v>4.65</v>
       </c>
       <c r="F498" t="n">
-        <v>648</v>
+        <v>614.65</v>
       </c>
       <c r="G498" s="2" t="n">
         <v>44147</v>
       </c>
       <c r="H498" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Brand-New-and-Sealed-In-Hand-and-FAST-SHIPPING/324371163731?epid=12041984358&amp;hash=item4b86072a53:g:dcgAAOSwB65frN06</t>
+          <t>https://www.ebay.com/itm/Ryzen-7-5800-x/133567172944?hash=item1f19395150:g:8WAAAOSwqmxfpBcu</t>
         </is>
       </c>
     </row>
@@ -16385,7 +16385,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X Desktop Processor In-Hand &amp; Ready to Ship! FAR CRY 6 INCLUDED</t>
+          <t>AMD Ryzen 7 5800X Desktop Processor IN-HAND 🔥FREE SHIPPING 🚚</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -16394,20 +16394,20 @@
         </is>
       </c>
       <c r="D499" t="n">
-        <v>644</v>
+        <v>700</v>
       </c>
       <c r="E499" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="F499" t="n">
-        <v>651.5</v>
+        <v>700</v>
       </c>
       <c r="G499" s="2" t="n">
-        <v>44146</v>
+        <v>44147</v>
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-Processor-In-Hand-Ready-to-Ship-FAR-CRY-6-INCLUDED/224230972594?epid=12041984358&amp;hash=item3435351cb2:g:ET4AAOSwG5xfrF1B</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-Processor-IN-HAND-FREE-SHIPPING/224229633900?epid=12041984358&amp;hash=item343520af6c:g:64wAAOSww95fqvfh</t>
         </is>
       </c>
     </row>
@@ -16417,7 +16417,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X AM4 Boxed CPU New Sealed 5000 Series</t>
+          <t>AMD Ryzen 7 5800X 3.8GHz L3 AM4 CPU Desktop Processor Boxed</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -16426,20 +16426,20 @@
         </is>
       </c>
       <c r="D500" t="n">
-        <v>763</v>
+        <v>700</v>
       </c>
       <c r="E500" t="n">
-        <v>13.65</v>
+        <v>8</v>
       </c>
       <c r="F500" t="n">
-        <v>776.65</v>
+        <v>708</v>
       </c>
       <c r="G500" s="2" t="n">
-        <v>44146</v>
+        <v>44147</v>
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-AM4-Boxed-CPU-New-Sealed-5000-Series/164500099783?hash=item264cf852c7:g:YYwAAOSwqARfpYIe</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-3-8GHz-L3-AM4-CPU-Desktop-Processor-Boxed/203168392463?epid=12041984358&amp;hash=item2f4dc7a50f:g:jy4AAOSwq1tfpAFa</t>
         </is>
       </c>
     </row>
@@ -16449,7 +16449,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X Desktop Processor 8 Cores 16 Threads IN HAND</t>
+          <t>AMD Ryzen 7 5800X Brand New and Sealed! In Hand and FAST SHIPPING!</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -16458,20 +16458,20 @@
         </is>
       </c>
       <c r="D501" t="n">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="E501" t="n">
         <v>0</v>
       </c>
       <c r="F501" t="n">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="G501" s="2" t="n">
-        <v>44146</v>
+        <v>44147</v>
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-Processor-8-Cores-16-Threads-IN-HAND/284076887315?epid=12041984358&amp;hash=item42244d4d13:g:Ub4AAOSwRkNfrE6j</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Brand-New-and-Sealed-In-Hand-and-FAST-SHIPPING/324371163731?epid=12041984358&amp;hash=item4b86072a53:g:dcgAAOSwB65frN06</t>
         </is>
       </c>
     </row>
@@ -16481,7 +16481,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X Desktop Processor CPU 5000 series Zen3</t>
+          <t>AMD Ryzen 7 5800X Desktop Processor In-Hand &amp; Ready to Ship! FAR CRY 6 INCLUDED</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -16490,20 +16490,20 @@
         </is>
       </c>
       <c r="D502" t="n">
-        <v>610</v>
+        <v>644</v>
       </c>
       <c r="E502" t="n">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="F502" t="n">
-        <v>625</v>
+        <v>651.5</v>
       </c>
       <c r="G502" s="2" t="n">
         <v>44146</v>
       </c>
       <c r="H502" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-Processor-CPU-5000-series-Zen3/313292875889?hash=item48f1b5e871:g:nyUAAOSw42NfqMKm</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-Processor-In-Hand-Ready-to-Ship-FAR-CRY-6-INCLUDED/224230972594?epid=12041984358&amp;hash=item3435351cb2:g:ET4AAOSwG5xfrF1B</t>
         </is>
       </c>
     </row>
@@ -16513,7 +16513,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X Desktop Processor (4.7GHz, 8 Cores, Socket AM4) IN HAND</t>
+          <t>AMD Ryzen 7 5800X AM4 Boxed CPU New Sealed 5000 Series</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
@@ -16522,20 +16522,20 @@
         </is>
       </c>
       <c r="D503" t="n">
-        <v>649</v>
+        <v>763</v>
       </c>
       <c r="E503" t="n">
-        <v>0</v>
+        <v>13.65</v>
       </c>
       <c r="F503" t="n">
-        <v>649</v>
+        <v>776.65</v>
       </c>
       <c r="G503" s="2" t="n">
         <v>44146</v>
       </c>
       <c r="H503" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-Processor-4-7GHz-8-Cores-Socket-AM4-IN-HAND/154190202719?epid=12041984358&amp;hash=item23e673c75f:g:PXEAAOSw~~RfrKSI</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-AM4-Boxed-CPU-New-Sealed-5000-Series/164500099783?hash=item264cf852c7:g:YYwAAOSwqARfpYIe</t>
         </is>
       </c>
     </row>
@@ -16545,7 +16545,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X 3.8 GHz Base, 4.7 GHz max. In Hand.</t>
+          <t>AMD Ryzen 7 5800X Desktop Processor 8 Cores 16 Threads IN HAND</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -16554,20 +16554,20 @@
         </is>
       </c>
       <c r="D504" t="n">
-        <v>620</v>
+        <v>645</v>
       </c>
       <c r="E504" t="n">
-        <v>9.01</v>
+        <v>0</v>
       </c>
       <c r="F504" t="n">
-        <v>629.01</v>
+        <v>645</v>
       </c>
       <c r="G504" s="2" t="n">
         <v>44146</v>
       </c>
       <c r="H504" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-3-8-GHz-Base-4-7-GHz-max-In-Hand/402542683825?hash=item5db969e6b1:g:S-UAAOSwej1fpI2W</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-Processor-8-Cores-16-Threads-IN-HAND/284076887315?epid=12041984358&amp;hash=item42244d4d13:g:Ub4AAOSwRkNfrE6j</t>
         </is>
       </c>
     </row>
@@ -16577,7 +16577,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X Desktop Processor ships 11/9/2020</t>
+          <t>AMD Ryzen 7 5800X Desktop Processor CPU 5000 series Zen3</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -16586,20 +16586,20 @@
         </is>
       </c>
       <c r="D505" t="n">
-        <v>660</v>
+        <v>610</v>
       </c>
       <c r="E505" t="n">
-        <v>8.25</v>
+        <v>15</v>
       </c>
       <c r="F505" t="n">
-        <v>668.25</v>
+        <v>625</v>
       </c>
       <c r="G505" s="2" t="n">
         <v>44146</v>
       </c>
       <c r="H505" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-Processor-ships-11-9-2020/143827535229?epid=12041984358&amp;hash=item217cca057d:g:7BAAAOSwFRpfpedQ</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-Processor-CPU-5000-series-Zen3/313292875889?hash=item48f1b5e871:g:nyUAAOSw42NfqMKm</t>
         </is>
       </c>
     </row>
@@ -16609,7 +16609,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>AMD Ryzen 5800x IN HAND Ships Same Day</t>
+          <t>AMD Ryzen 7 5800X Desktop Processor (4.7GHz, 8 Cores, Socket AM4) IN HAND</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
@@ -16618,20 +16618,20 @@
         </is>
       </c>
       <c r="D506" t="n">
-        <v>630</v>
+        <v>649</v>
       </c>
       <c r="E506" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F506" t="n">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="G506" s="2" t="n">
         <v>44146</v>
       </c>
       <c r="H506" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-5800x-IN-HAND-Ships-Same-Day/174513817722?epid=24042267832&amp;hash=item28a1d5887a:g:7iAAAOSw4h1fqx7L</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-Processor-4-7GHz-8-Cores-Socket-AM4-IN-HAND/154190202719?epid=12041984358&amp;hash=item23e673c75f:g:PXEAAOSw~~RfrKSI</t>
         </is>
       </c>
     </row>
@@ -16641,7 +16641,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X 8 Core,16 Thread, 3.8 GHz Base,4.7 GHz Max Boost, In Hand</t>
+          <t>AMD Ryzen 7 5800X 3.8 GHz Base, 4.7 GHz max. In Hand.</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -16650,20 +16650,20 @@
         </is>
       </c>
       <c r="D507" t="n">
-        <v>660</v>
+        <v>620</v>
       </c>
       <c r="E507" t="n">
-        <v>16.06</v>
+        <v>9.01</v>
       </c>
       <c r="F507" t="n">
-        <v>676.0599999999999</v>
+        <v>629.01</v>
       </c>
       <c r="G507" s="2" t="n">
         <v>44146</v>
       </c>
       <c r="H507" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-8-Core-16-Thread-3-8-GHz-Base-4-7-GHz-Max-Boost-In-Hand/274567314294?epid=24042267832&amp;hash=item3fed7cbb76:g:HIwAAOSw-BJfqHEc</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-3-8-GHz-Base-4-7-GHz-max-In-Hand/402542683825?hash=item5db969e6b1:g:S-UAAOSwej1fpI2W</t>
         </is>
       </c>
     </row>
@@ -16673,7 +16673,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X Desktop Processor 8 Cores 16 Threads IN HAND</t>
+          <t>AMD Ryzen 7 5800X Desktop Processor ships 11/9/2020</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -16682,20 +16682,20 @@
         </is>
       </c>
       <c r="D508" t="n">
-        <v>649.99</v>
+        <v>660</v>
       </c>
       <c r="E508" t="n">
-        <v>0</v>
+        <v>8.25</v>
       </c>
       <c r="F508" t="n">
-        <v>649.99</v>
+        <v>668.25</v>
       </c>
       <c r="G508" s="2" t="n">
         <v>44146</v>
       </c>
       <c r="H508" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-Processor-8-Cores-16-Threads-IN-HAND/114513190094?epid=12041984358&amp;hash=item1aa9849cce:g:kcUAAOSwLKxfrEof</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-Processor-ships-11-9-2020/143827535229?epid=12041984358&amp;hash=item217cca057d:g:7BAAAOSwFRpfpedQ</t>
         </is>
       </c>
     </row>
@@ -16705,7 +16705,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>New, Sealed AMD Ryzen 7 5800X Vermeer 3.8GHz 8-Core AM4 Boxed Processor *On Hand</t>
+          <t>AMD Ryzen 5800x IN HAND Ships Same Day</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -16714,20 +16714,20 @@
         </is>
       </c>
       <c r="D509" t="n">
-        <v>679.95</v>
+        <v>630</v>
       </c>
       <c r="E509" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F509" t="n">
-        <v>679.95</v>
+        <v>645</v>
       </c>
       <c r="G509" s="2" t="n">
         <v>44146</v>
       </c>
       <c r="H509" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/New-Sealed-AMD-Ryzen-7-5800X-Vermeer-3-8GHz-8-Core-AM4-Boxed-Processor-On-Hand/284076669014?epid=24042267832&amp;hash=item422449f856:g:HdYAAOSwT5ZfrBVq</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-5800x-IN-HAND-Ships-Same-Day/174513817722?epid=24042267832&amp;hash=item28a1d5887a:g:7iAAAOSw4h1fqx7L</t>
         </is>
       </c>
     </row>
@@ -16737,7 +16737,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>BNIB Ryzen 7 5800x | IN HAND READY TO SHIP</t>
+          <t>AMD Ryzen 7 5800X 8 Core,16 Thread, 3.8 GHz Base,4.7 GHz Max Boost, In Hand</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -16746,20 +16746,20 @@
         </is>
       </c>
       <c r="D510" t="n">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="E510" t="n">
-        <v>0</v>
+        <v>16.06</v>
       </c>
       <c r="F510" t="n">
-        <v>665</v>
+        <v>676.0599999999999</v>
       </c>
       <c r="G510" s="2" t="n">
         <v>44146</v>
       </c>
       <c r="H510" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/BNIB-Ryzen-7-5800x-IN-HAND-READY-TO-SHIP/313292225751?hash=item48f1abfcd7:g:RDYAAOSwy79fqAkR</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-8-Core-16-Thread-3-8-GHz-Base-4-7-GHz-Max-Boost-In-Hand/274567314294?epid=24042267832&amp;hash=item3fed7cbb76:g:HIwAAOSw-BJfqHEc</t>
         </is>
       </c>
     </row>
@@ -16769,7 +16769,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>[Ship in 24hrs] AMD Ryzen 7 5800X Eight-Core Processor w/ Far Cry 6 Code IN HAND</t>
+          <t>AMD Ryzen 7 5800X Desktop Processor 8 Cores 16 Threads IN HAND</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -16778,20 +16778,20 @@
         </is>
       </c>
       <c r="D511" t="n">
-        <v>579</v>
+        <v>649.99</v>
       </c>
       <c r="E511" t="n">
         <v>0</v>
       </c>
       <c r="F511" t="n">
-        <v>579</v>
+        <v>649.99</v>
       </c>
       <c r="G511" s="2" t="n">
         <v>44146</v>
       </c>
       <c r="H511" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Ship-in-24hrs-AMD-Ryzen-7-5800X-Eight-Core-Processor-w-Far-Cry-6-Code-IN-HAND/174512154781?epid=24042267832&amp;hash=item28a1bc289d:g:BjsAAOSwyiZfqa6V</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-Processor-8-Cores-16-Threads-IN-HAND/114513190094?epid=12041984358&amp;hash=item1aa9849cce:g:kcUAAOSwLKxfrEof</t>
         </is>
       </c>
     </row>
@@ -16801,29 +16801,29 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X</t>
+          <t>New, Sealed AMD Ryzen 7 5800X Vermeer 3.8GHz 8-Core AM4 Boxed Processor *On Hand</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>I have the chip in hand. Will ship out same day!</t>
+          <t>Brand New</t>
         </is>
       </c>
       <c r="D512" t="n">
-        <v>650</v>
+        <v>679.95</v>
       </c>
       <c r="E512" t="n">
-        <v>9.99</v>
+        <v>0</v>
       </c>
       <c r="F512" t="n">
-        <v>659.99</v>
+        <v>679.95</v>
       </c>
       <c r="G512" s="2" t="n">
         <v>44146</v>
       </c>
       <c r="H512" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X/324365974441?hash=item4b85b7fba9:g:IX4AAOSw-vdfp~JS</t>
+          <t>https://www.ebay.com/itm/New-Sealed-AMD-Ryzen-7-5800X-Vermeer-3-8GHz-8-Core-AM4-Boxed-Processor-On-Hand/284076669014?epid=24042267832&amp;hash=item422449f856:g:HdYAAOSwT5ZfrBVq</t>
         </is>
       </c>
     </row>
@@ -16833,7 +16833,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X 3.8GHz AM4 CPU SHIPS TODAY! - AMD Gift - Far Cry 6 Code! 🔥</t>
+          <t>BNIB Ryzen 7 5800x | IN HAND READY TO SHIP</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
@@ -16842,20 +16842,20 @@
         </is>
       </c>
       <c r="D513" t="n">
-        <v>659.99</v>
+        <v>665</v>
       </c>
       <c r="E513" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="F513" t="n">
-        <v>663.89</v>
+        <v>665</v>
       </c>
       <c r="G513" s="2" t="n">
         <v>44146</v>
       </c>
       <c r="H513" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-3-8GHz-AM4-CPU-SHIPS-TODAY-AMD-Gift-Far-Cry-6-Code/224228387129?epid=12041984358&amp;hash=item34350da939:g:-b8AAOSwCQ1fqZz3</t>
+          <t>https://www.ebay.com/itm/BNIB-Ryzen-7-5800x-IN-HAND-READY-TO-SHIP/313292225751?hash=item48f1abfcd7:g:RDYAAOSwy79fqAkR</t>
         </is>
       </c>
     </row>
@@ -16865,7 +16865,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X Desktop Processor + Far Cry 6 + FREE Next Day Shipping!!</t>
+          <t>[Ship in 24hrs] AMD Ryzen 7 5800X Eight-Core Processor w/ Far Cry 6 Code IN HAND</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
@@ -16874,20 +16874,20 @@
         </is>
       </c>
       <c r="D514" t="n">
-        <v>660</v>
+        <v>579</v>
       </c>
       <c r="E514" t="n">
         <v>0</v>
       </c>
       <c r="F514" t="n">
-        <v>660</v>
+        <v>579</v>
       </c>
       <c r="G514" s="2" t="n">
         <v>44146</v>
       </c>
       <c r="H514" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-Processor-Far-Cry-6-FREE-Next-Day-Shipping/393011301038?hash=item5b814c8aae:g:8u4AAOSw7SxfqwZe</t>
+          <t>https://www.ebay.com/itm/Ship-in-24hrs-AMD-Ryzen-7-5800X-Eight-Core-Processor-w-Far-Cry-6-Code-IN-HAND/174512154781?epid=24042267832&amp;hash=item28a1bc289d:g:BjsAAOSwyiZfqa6V</t>
         </is>
       </c>
     </row>
@@ -16897,29 +16897,29 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X CPU</t>
+          <t>AMD Ryzen 7 5800X</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>Brand New</t>
+          <t>I have the chip in hand. Will ship out same day!</t>
         </is>
       </c>
       <c r="D515" t="n">
-        <v>499.99</v>
+        <v>650</v>
       </c>
       <c r="E515" t="n">
-        <v>8.52</v>
+        <v>9.99</v>
       </c>
       <c r="F515" t="n">
-        <v>508.51</v>
+        <v>659.99</v>
       </c>
       <c r="G515" s="2" t="n">
-        <v>44145</v>
+        <v>44146</v>
       </c>
       <c r="H515" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-CPU/193745470294?hash=item2d1c214356:g:62YAAOSwnNVfq5CS</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X/324365974441?hash=item4b85b7fba9:g:IX4AAOSw-vdfp~JS</t>
         </is>
       </c>
     </row>
@@ -16929,7 +16929,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X AM4 Boxed CPU New Sealed 5000 Series Free Priority Shipping</t>
+          <t>AMD Ryzen 7 5800X 3.8GHz AM4 CPU SHIPS TODAY! - AMD Gift - Far Cry 6 Code! 🔥</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -16938,20 +16938,20 @@
         </is>
       </c>
       <c r="D516" t="n">
-        <v>649</v>
+        <v>659.99</v>
       </c>
       <c r="E516" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="F516" t="n">
-        <v>649</v>
+        <v>663.89</v>
       </c>
       <c r="G516" s="2" t="n">
-        <v>44145</v>
+        <v>44146</v>
       </c>
       <c r="H516" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-AM4-Boxed-CPU-New-Sealed-5000-Series-Free-Priority-Shipping/402546810781?hash=item5db9a8df9d:g:0vgAAOSwlCpfq09W</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-3-8GHz-AM4-CPU-SHIPS-TODAY-AMD-Gift-Far-Cry-6-Code/224228387129?epid=12041984358&amp;hash=item34350da939:g:-b8AAOSwCQ1fqZz3</t>
         </is>
       </c>
     </row>
@@ -16961,7 +16961,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X 8 Core,16 Thread 3.8GHz Base, 4.7GHz max. + Far Cry 6. In Hand</t>
+          <t>AMD Ryzen 7 5800X Desktop Processor + Far Cry 6 + FREE Next Day Shipping!!</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
@@ -16970,20 +16970,20 @@
         </is>
       </c>
       <c r="D517" t="n">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="E517" t="n">
-        <v>9.9</v>
+        <v>0</v>
       </c>
       <c r="F517" t="n">
-        <v>659.9</v>
+        <v>660</v>
       </c>
       <c r="G517" s="2" t="n">
-        <v>44145</v>
+        <v>44146</v>
       </c>
       <c r="H517" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-8-Core-16-Thread-3-8GHz-Base-4-7GHz-max-Far-Cry-6-In-Hand/154183374488?hash=item23e60b9698:g:-HkAAOSwH9Jfp3vS</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-Processor-Far-Cry-6-FREE-Next-Day-Shipping/393011301038?hash=item5b814c8aae:g:8u4AAOSw7SxfqwZe</t>
         </is>
       </c>
     </row>
@@ -16993,7 +16993,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>IN HAND: AMD Ryzen 7 5800X CPU Socket AM4 - Ready to Ship</t>
+          <t>AMD Ryzen 7 5800X CPU</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -17002,20 +17002,20 @@
         </is>
       </c>
       <c r="D518" t="n">
-        <v>639</v>
+        <v>499.99</v>
       </c>
       <c r="E518" t="n">
-        <v>10</v>
+        <v>8.52</v>
       </c>
       <c r="F518" t="n">
-        <v>649</v>
+        <v>508.51</v>
       </c>
       <c r="G518" s="2" t="n">
         <v>44145</v>
       </c>
       <c r="H518" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/IN-HAND-AMD-Ryzen-7-5800X-CPU-Socket-AM4-Ready-to-Ship/164504110905?epid=12041984358&amp;hash=item264d358739:g:jjoAAOSwqARfq1r-</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-CPU/193745470294?hash=item2d1c214356:g:62YAAOSwnNVfq5CS</t>
         </is>
       </c>
     </row>
@@ -17025,7 +17025,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>🔥Brand New &amp; Sealed AMD Ryzen 7 5800X Desktop Processor IN-HAND 🔥Fast Ship!!!</t>
+          <t>AMD Ryzen 7 5800X AM4 Boxed CPU New Sealed 5000 Series Free Priority Shipping</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -17034,20 +17034,20 @@
         </is>
       </c>
       <c r="D519" t="n">
-        <v>649.95</v>
+        <v>649</v>
       </c>
       <c r="E519" t="n">
         <v>0</v>
       </c>
       <c r="F519" t="n">
-        <v>649.95</v>
+        <v>649</v>
       </c>
       <c r="G519" s="2" t="n">
         <v>44145</v>
       </c>
       <c r="H519" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Brand-New-Sealed-AMD-Ryzen-7-5800X-Desktop-Processor-IN-HAND-Fast-Ship/264933325993?epid=12041984358&amp;hash=item3daf41bca9:g:6e0AAOSw2d9fqv2b</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-AM4-Boxed-CPU-New-Sealed-5000-Series-Free-Priority-Shipping/402546810781?hash=item5db9a8df9d:g:0vgAAOSwlCpfq09W</t>
         </is>
       </c>
     </row>
@@ -17057,7 +17057,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X CPU!! **CONFIRMED PRE-ORDER NEWEGG** FREE/FAST SHIPPING</t>
+          <t>AMD Ryzen 7 5800X 8 Core,16 Thread 3.8GHz Base, 4.7GHz max. + Far Cry 6. In Hand</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
@@ -17066,20 +17066,20 @@
         </is>
       </c>
       <c r="D520" t="n">
-        <v>620</v>
+        <v>650</v>
       </c>
       <c r="E520" t="n">
-        <v>14.99</v>
+        <v>9.9</v>
       </c>
       <c r="F520" t="n">
-        <v>634.99</v>
+        <v>659.9</v>
       </c>
       <c r="G520" s="2" t="n">
         <v>44145</v>
       </c>
       <c r="H520" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-CPU-CONFIRMED-PRE-ORDER-NEWEGG-FREE-FAST-SHIPPING/164497898272?hash=item264cd6bb20:g:MKAAAOSw9CtfpBll</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-8-Core-16-Thread-3-8GHz-Base-4-7GHz-max-Far-Cry-6-In-Hand/154183374488?hash=item23e60b9698:g:-HkAAOSwH9Jfp3vS</t>
         </is>
       </c>
     </row>
@@ -17089,7 +17089,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X 3.8 GHz 8-Core Processor - WITH CODES - FAST SHIPPING</t>
+          <t>IN HAND: AMD Ryzen 7 5800X CPU Socket AM4 - Ready to Ship</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -17098,20 +17098,20 @@
         </is>
       </c>
       <c r="D521" t="n">
-        <v>666</v>
+        <v>639</v>
       </c>
       <c r="E521" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F521" t="n">
-        <v>666</v>
+        <v>649</v>
       </c>
       <c r="G521" s="2" t="n">
         <v>44145</v>
       </c>
       <c r="H521" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-3-8-GHz-8-Core-Processor-WITH-CODES-FAST-SHIPPING/164502224376?hash=item264d18bdf8:g:vUIAAOSw0dVfqyDC</t>
+          <t>https://www.ebay.com/itm/IN-HAND-AMD-Ryzen-7-5800X-CPU-Socket-AM4-Ready-to-Ship/164504110905?epid=12041984358&amp;hash=item264d358739:g:jjoAAOSwqARfq1r-</t>
         </is>
       </c>
     </row>
@@ -17121,7 +17121,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Ryzen 7 5800X Desktop Processor </t>
+          <t>🔥Brand New &amp; Sealed AMD Ryzen 7 5800X Desktop Processor IN-HAND 🔥Fast Ship!!!</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -17130,20 +17130,20 @@
         </is>
       </c>
       <c r="D522" t="n">
-        <v>650</v>
+        <v>649.95</v>
       </c>
       <c r="E522" t="n">
         <v>0</v>
       </c>
       <c r="F522" t="n">
-        <v>650</v>
+        <v>649.95</v>
       </c>
       <c r="G522" s="2" t="n">
         <v>44145</v>
       </c>
       <c r="H522" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-Processor/264933529527?epid=12041984358&amp;hash=item3daf44d7b7:g:IcgAAOSw5ulfqyxL</t>
+          <t>https://www.ebay.com/itm/Brand-New-Sealed-AMD-Ryzen-7-5800X-Desktop-Processor-IN-HAND-Fast-Ship/264933325993?epid=12041984358&amp;hash=item3daf41bca9:g:6e0AAOSw2d9fqv2b</t>
         </is>
       </c>
     </row>
@@ -17153,7 +17153,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>Ready to ship! AMD Ryzen 7 5800X Processor (4.7GHz max, 8 Cores, AM4)</t>
+          <t>AMD Ryzen 7 5800X CPU!! **CONFIRMED PRE-ORDER NEWEGG** FREE/FAST SHIPPING</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -17162,20 +17162,20 @@
         </is>
       </c>
       <c r="D523" t="n">
-        <v>648</v>
+        <v>620</v>
       </c>
       <c r="E523" t="n">
-        <v>0</v>
+        <v>14.99</v>
       </c>
       <c r="F523" t="n">
-        <v>648</v>
+        <v>634.99</v>
       </c>
       <c r="G523" s="2" t="n">
         <v>44145</v>
       </c>
       <c r="H523" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Ready-to-ship-AMD-Ryzen-7-5800X-Processor-4-7GHz-max-8-Cores-AM4/133572840956?epid=12041984358&amp;hash=item1f198fcdfc:g:qIsAAOSwwGdfqgcS</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-CPU-CONFIRMED-PRE-ORDER-NEWEGG-FREE-FAST-SHIPPING/164497898272?hash=item264cd6bb20:g:MKAAAOSw9CtfpBll</t>
         </is>
       </c>
     </row>
@@ -17185,7 +17185,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X + FARCRY | NEWEGG ORDER SHIPPED | FREE SHIPPING Arrives Nov 12</t>
+          <t>AMD Ryzen 7 5800X 3.8 GHz 8-Core Processor - WITH CODES - FAST SHIPPING</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
@@ -17194,20 +17194,20 @@
         </is>
       </c>
       <c r="D524" t="n">
-        <v>649</v>
+        <v>666</v>
       </c>
       <c r="E524" t="n">
         <v>0</v>
       </c>
       <c r="F524" t="n">
-        <v>649</v>
+        <v>666</v>
       </c>
       <c r="G524" s="2" t="n">
         <v>44145</v>
       </c>
       <c r="H524" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-FARCRY-NEWEGG-ORDER-SHIPPED-FREE-SHIPPING-Arrives-Nov-12/143834604686?hash=item217d35e48e:g:KU8AAOSw2sRfqvoV</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-3-8-GHz-8-Core-Processor-WITH-CODES-FAST-SHIPPING/164502224376?hash=item264d18bdf8:g:vUIAAOSw0dVfqyDC</t>
         </is>
       </c>
     </row>
@@ -17217,7 +17217,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Ryzen 7 5800x w/ Far Cry 6</t>
+          <t xml:space="preserve">AMD Ryzen 7 5800X Desktop Processor </t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -17226,20 +17226,20 @@
         </is>
       </c>
       <c r="D525" t="n">
-        <v>580</v>
+        <v>650</v>
       </c>
       <c r="E525" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F525" t="n">
-        <v>585</v>
+        <v>650</v>
       </c>
       <c r="G525" s="2" t="n">
         <v>44145</v>
       </c>
       <c r="H525" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Ryzen-7-5800x-w-Far-Cry-6/174513730334?hash=item28a1d4331e:g:5P0AAOSwvWFfqwUZ</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-Processor/264933529527?epid=12041984358&amp;hash=item3daf44d7b7:g:IcgAAOSw5ulfqyxL</t>
         </is>
       </c>
     </row>
@@ -17249,7 +17249,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>NEW AMD Ryzen 7 5800X Desktop CPU Processor 4.7GHz, 8 Cores, AM4, 105W TDP, 7nm</t>
+          <t>Ready to ship! AMD Ryzen 7 5800X Processor (4.7GHz max, 8 Cores, AM4)</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -17258,20 +17258,20 @@
         </is>
       </c>
       <c r="D526" t="n">
-        <v>649.99</v>
+        <v>648</v>
       </c>
       <c r="E526" t="n">
         <v>0</v>
       </c>
       <c r="F526" t="n">
-        <v>649.99</v>
+        <v>648</v>
       </c>
       <c r="G526" s="2" t="n">
         <v>44145</v>
       </c>
       <c r="H526" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/NEW-AMD-Ryzen-7-5800X-Desktop-CPU-Processor-4-7GHz-8-Cores-AM4-105W-TDP-7nm/324369045014?epid=12041984358&amp;hash=item4b85e6d616:g:4O8AAOSwuRxfpfDT</t>
+          <t>https://www.ebay.com/itm/Ready-to-ship-AMD-Ryzen-7-5800X-Processor-4-7GHz-max-8-Cores-AM4/133572840956?epid=12041984358&amp;hash=item1f198fcdfc:g:qIsAAOSwwGdfqgcS</t>
         </is>
       </c>
     </row>
@@ -17281,29 +17281,29 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X Desktop Processor (4.7GHz, 8 Cores, Socket AM4) Box -...</t>
+          <t>AMD Ryzen 7 5800X + FARCRY | NEWEGG ORDER SHIPPED | FREE SHIPPING Arrives Nov 12</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>IN HAND READY TO SHIP!!!!</t>
+          <t>Brand New</t>
         </is>
       </c>
       <c r="D527" t="n">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="E527" t="n">
         <v>0</v>
       </c>
       <c r="F527" t="n">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="G527" s="2" t="n">
         <v>44145</v>
       </c>
       <c r="H527" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-Processor-4-7GHz-8-Cores-Socket-AM4-Box/224225830559?epid=12041984358&amp;hash=item3434e6a69f:g:W2sAAOSwXoJfpvxP</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-FARCRY-NEWEGG-ORDER-SHIPPED-FREE-SHIPPING-Arrives-Nov-12/143834604686?hash=item217d35e48e:g:KU8AAOSw2sRfqvoV</t>
         </is>
       </c>
     </row>
@@ -17313,7 +17313,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X 8 Core,16 Thread 3.8GHz Base, 4.7GHz max. + Far Cry 6. In Hand</t>
+          <t>Ryzen 7 5800x w/ Far Cry 6</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
@@ -17322,20 +17322,20 @@
         </is>
       </c>
       <c r="D528" t="n">
-        <v>640</v>
+        <v>580</v>
       </c>
       <c r="E528" t="n">
-        <v>20.75</v>
+        <v>5</v>
       </c>
       <c r="F528" t="n">
-        <v>660.75</v>
+        <v>585</v>
       </c>
       <c r="G528" s="2" t="n">
         <v>44145</v>
       </c>
       <c r="H528" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-8-Core-16-Thread-3-8GHz-Base-4-7GHz-max-Far-Cry-6-In-Hand/284071983432?hash=item4224027948:g:dLcAAOSw061fpvel</t>
+          <t>https://www.ebay.com/itm/Ryzen-7-5800x-w-Far-Cry-6/174513730334?hash=item28a1d4331e:g:5P0AAOSwvWFfqwUZ</t>
         </is>
       </c>
     </row>
@@ -17345,7 +17345,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X AM4 Boxed CPU New Sealed 5000 Series</t>
+          <t>NEW AMD Ryzen 7 5800X Desktop CPU Processor 4.7GHz, 8 Cores, AM4, 105W TDP, 7nm</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
@@ -17354,20 +17354,20 @@
         </is>
       </c>
       <c r="D529" t="n">
-        <v>650</v>
+        <v>649.99</v>
       </c>
       <c r="E529" t="n">
-        <v>9.9</v>
+        <v>0</v>
       </c>
       <c r="F529" t="n">
-        <v>659.9</v>
+        <v>649.99</v>
       </c>
       <c r="G529" s="2" t="n">
         <v>44145</v>
       </c>
       <c r="H529" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-AM4-Boxed-CPU-New-Sealed-5000-Series/164501739714?hash=item264d1158c2:g:68IAAOSweNBfpJ5l</t>
+          <t>https://www.ebay.com/itm/NEW-AMD-Ryzen-7-5800X-Desktop-CPU-Processor-4-7GHz-8-Cores-AM4-105W-TDP-7nm/324369045014?epid=12041984358&amp;hash=item4b85e6d616:g:4O8AAOSwuRxfpfDT</t>
         </is>
       </c>
     </row>
@@ -17377,29 +17377,29 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X 8 Core, 16 Thread Processor PCIe 4.0 (New, Sealed) + Far Cry 6</t>
+          <t>AMD Ryzen 7 5800X Desktop Processor (4.7GHz, 8 Cores, Socket AM4) Box -...</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>Brand New</t>
+          <t>IN HAND READY TO SHIP!!!!</t>
         </is>
       </c>
       <c r="D530" t="n">
-        <v>654</v>
+        <v>640</v>
       </c>
       <c r="E530" t="n">
         <v>0</v>
       </c>
       <c r="F530" t="n">
-        <v>654</v>
+        <v>640</v>
       </c>
       <c r="G530" s="2" t="n">
         <v>44145</v>
       </c>
       <c r="H530" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-8-Core-16-Thread-Processor-PCIe-4-0-New-Sealed-Far-Cry-6/333784555328?hash=item4db71c1f40:g:cnsAAOSwubRfqtPq</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-Processor-4-7GHz-8-Cores-Socket-AM4-Box/224225830559?epid=12041984358&amp;hash=item3434e6a69f:g:W2sAAOSwXoJfpvxP</t>
         </is>
       </c>
     </row>
@@ -17409,7 +17409,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X WITH FAR CRY 6 KEY (SEALED + FREE SHIPPING)</t>
+          <t>AMD Ryzen 7 5800X 8 Core,16 Thread 3.8GHz Base, 4.7GHz max. + Far Cry 6. In Hand</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -17418,20 +17418,20 @@
         </is>
       </c>
       <c r="D531" t="n">
-        <v>664.99</v>
+        <v>640</v>
       </c>
       <c r="E531" t="n">
-        <v>0</v>
+        <v>20.75</v>
       </c>
       <c r="F531" t="n">
-        <v>664.99</v>
+        <v>660.75</v>
       </c>
       <c r="G531" s="2" t="n">
         <v>44145</v>
       </c>
       <c r="H531" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-WITH-FAR-CRY-6-KEY-SEALED-FREE-SHIPPING/274569555330?hash=item3fed9eed82:g:XkcAAOSwwjhfqrc7</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-8-Core-16-Thread-3-8GHz-Base-4-7GHz-max-Far-Cry-6-In-Hand/284071983432?hash=item4224027948:g:dLcAAOSw061fpvel</t>
         </is>
       </c>
     </row>
@@ -17441,7 +17441,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800x</t>
+          <t>AMD Ryzen 7 5800X AM4 Boxed CPU New Sealed 5000 Series</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -17450,20 +17450,20 @@
         </is>
       </c>
       <c r="D532" t="n">
-        <v>630</v>
+        <v>650</v>
       </c>
       <c r="E532" t="n">
-        <v>20</v>
+        <v>9.9</v>
       </c>
       <c r="F532" t="n">
-        <v>650</v>
+        <v>659.9</v>
       </c>
       <c r="G532" s="2" t="n">
         <v>44145</v>
       </c>
       <c r="H532" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800x/164493026844?hash=item264c8c661c:g:AngAAOSwEflfpDeT</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-AM4-Boxed-CPU-New-Sealed-5000-Series/164501739714?hash=item264d1158c2:g:68IAAOSweNBfpJ5l</t>
         </is>
       </c>
     </row>
@@ -17473,7 +17473,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X 8-core 16-threads (Confirmed Newegg) Ships Same Day Arrival</t>
+          <t>AMD Ryzen 7 5800X 8 Core, 16 Thread Processor PCIe 4.0 (New, Sealed) + Far Cry 6</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -17482,20 +17482,20 @@
         </is>
       </c>
       <c r="D533" t="n">
-        <v>670</v>
+        <v>654</v>
       </c>
       <c r="E533" t="n">
         <v>0</v>
       </c>
       <c r="F533" t="n">
-        <v>670</v>
+        <v>654</v>
       </c>
       <c r="G533" s="2" t="n">
         <v>44145</v>
       </c>
       <c r="H533" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-8-core-16-threads-Confirmed-Newegg-Ships-Same-Day-Arrival/254770922045?hash=item3b5187c23d:g:0pEAAOSwvthfpeqp</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-8-Core-16-Thread-Processor-PCIe-4-0-New-Sealed-Far-Cry-6/333784555328?hash=item4db71c1f40:g:cnsAAOSwubRfqtPq</t>
         </is>
       </c>
     </row>
@@ -17505,7 +17505,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>*IN HAND/ READY TO SHIP* AMD Ryzen 7 5800X 3.8 GHz Base, 4.7 GHz Max</t>
+          <t>AMD Ryzen 7 5800X WITH FAR CRY 6 KEY (SEALED + FREE SHIPPING)</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -17514,20 +17514,20 @@
         </is>
       </c>
       <c r="D534" t="n">
-        <v>624.99</v>
+        <v>664.99</v>
       </c>
       <c r="E534" t="n">
         <v>0</v>
       </c>
       <c r="F534" t="n">
-        <v>624.99</v>
+        <v>664.99</v>
       </c>
       <c r="G534" s="2" t="n">
         <v>44145</v>
       </c>
       <c r="H534" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/IN-HAND-READY-TO-SHIP-AMD-Ryzen-7-5800X-3-8-GHz-Base-4-7-GHz-Max/274568319196?hash=item3fed8c10dc:g:dtUAAOSwlHdfpVnT</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-WITH-FAR-CRY-6-KEY-SEALED-FREE-SHIPPING/274569555330?hash=item3fed9eed82:g:XkcAAOSwwjhfqrc7</t>
         </is>
       </c>
     </row>
@@ -17537,7 +17537,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X 3.8GHz L3 AM4 CPU BRAND NEW IN BOX</t>
+          <t>AMD Ryzen 7 5800x</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
@@ -17546,20 +17546,20 @@
         </is>
       </c>
       <c r="D535" t="n">
+        <v>630</v>
+      </c>
+      <c r="E535" t="n">
+        <v>20</v>
+      </c>
+      <c r="F535" t="n">
         <v>650</v>
-      </c>
-      <c r="E535" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="F535" t="n">
-        <v>653.85</v>
       </c>
       <c r="G535" s="2" t="n">
         <v>44145</v>
       </c>
       <c r="H535" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-3-8GHz-L3-AM4-CPU-BRAND-NEW-IN-BOX/133572147868?epid=12041984358&amp;hash=item1f19853a9c:g:y~gAAOSw7AhfpBiY</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800x/164493026844?hash=item264c8c661c:g:AngAAOSwEflfpDeT</t>
         </is>
       </c>
     </row>
@@ -17569,7 +17569,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X | CONFIRMED ORDER | FREE SHIPPING Arrives Nov.12 WITH FAR CRY</t>
+          <t>AMD Ryzen 7 5800X 8-core 16-threads (Confirmed Newegg) Ships Same Day Arrival</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
@@ -17578,20 +17578,20 @@
         </is>
       </c>
       <c r="D536" t="n">
-        <v>660</v>
+        <v>670</v>
       </c>
       <c r="E536" t="n">
         <v>0</v>
       </c>
       <c r="F536" t="n">
-        <v>660</v>
+        <v>670</v>
       </c>
       <c r="G536" s="2" t="n">
         <v>44145</v>
       </c>
       <c r="H536" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-CONFIRMED-ORDER-FREE-SHIPPING-Arrives-Nov-12-WITH-FAR-CRY/233772015420?hash=item366de5df3c:g:KzoAAOSwRspfpebr</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-8-core-16-threads-Confirmed-Newegg-Ships-Same-Day-Arrival/254770922045?hash=item3b5187c23d:g:0pEAAOSwvthfpeqp</t>
         </is>
       </c>
     </row>
@@ -17601,7 +17601,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X 8 Core, 16 Thread Processor PCIe 4.0 (Brand New Same Day Ship)</t>
+          <t>*IN HAND/ READY TO SHIP* AMD Ryzen 7 5800X 3.8 GHz Base, 4.7 GHz Max</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
@@ -17610,20 +17610,20 @@
         </is>
       </c>
       <c r="D537" t="n">
-        <v>625</v>
+        <v>624.99</v>
       </c>
       <c r="E537" t="n">
         <v>0</v>
       </c>
       <c r="F537" t="n">
-        <v>625</v>
+        <v>624.99</v>
       </c>
       <c r="G537" s="2" t="n">
         <v>44145</v>
       </c>
       <c r="H537" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-8-Core-16-Thread-Processor-PCIe-4-0-Brand-New-Same-Day-Ship/143825276149?hash=item217ca78cf5:g:P38AAOSwhlBfpEXi</t>
+          <t>https://www.ebay.com/itm/IN-HAND-READY-TO-SHIP-AMD-Ryzen-7-5800X-3-8-GHz-Base-4-7-GHz-Max/274568319196?hash=item3fed8c10dc:g:dtUAAOSwlHdfpVnT</t>
         </is>
       </c>
     </row>
@@ -17633,7 +17633,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X (Receipt + Far Cry 6 Included) Ships Fast!</t>
+          <t>AMD Ryzen 7 5800X 3.8GHz L3 AM4 CPU BRAND NEW IN BOX</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
@@ -17642,20 +17642,20 @@
         </is>
       </c>
       <c r="D538" t="n">
-        <v>669.6900000000001</v>
+        <v>650</v>
       </c>
       <c r="E538" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="F538" t="n">
-        <v>669.6900000000001</v>
+        <v>653.85</v>
       </c>
       <c r="G538" s="2" t="n">
-        <v>44144</v>
+        <v>44145</v>
       </c>
       <c r="H538" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Receipt-Far-Cry-6-Included-Ships-Fast/224228798400?hash=item343513efc0:g:7KkAAOSwOQpfqg40</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-3-8GHz-L3-AM4-CPU-BRAND-NEW-IN-BOX/133572147868?epid=12041984358&amp;hash=item1f19853a9c:g:y~gAAOSw7AhfpBiY</t>
         </is>
       </c>
     </row>
@@ -17665,7 +17665,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X 3.8GHZ AM4 | IN HAND READY TO SHIP | FREE SHIPPING | BRAND NEW</t>
+          <t>AMD Ryzen 7 5800X | CONFIRMED ORDER | FREE SHIPPING Arrives Nov.12 WITH FAR CRY</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
@@ -17674,20 +17674,20 @@
         </is>
       </c>
       <c r="D539" t="n">
-        <v>675</v>
+        <v>660</v>
       </c>
       <c r="E539" t="n">
-        <v>5.45</v>
+        <v>0</v>
       </c>
       <c r="F539" t="n">
-        <v>680.45</v>
+        <v>660</v>
       </c>
       <c r="G539" s="2" t="n">
-        <v>44144</v>
+        <v>44145</v>
       </c>
       <c r="H539" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-3-8GHZ-AM4-IN-HAND-READY-TO-SHIP-FREE-SHIPPING-BRAND-NEW/254773891269?hash=item3b51b510c5:g:QioAAOSwwiFfpE1H</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-CONFIRMED-ORDER-FREE-SHIPPING-Arrives-Nov-12-WITH-FAR-CRY/233772015420?hash=item366de5df3c:g:KzoAAOSwRspfpebr</t>
         </is>
       </c>
     </row>
@@ -17697,7 +17697,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X Desktop Processor - In Hand Ready to Ship, + Far Cry 6 code</t>
+          <t>AMD Ryzen 7 5800X 8 Core, 16 Thread Processor PCIe 4.0 (Brand New Same Day Ship)</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -17706,20 +17706,20 @@
         </is>
       </c>
       <c r="D540" t="n">
-        <v>649.99</v>
+        <v>625</v>
       </c>
       <c r="E540" t="n">
-        <v>8.550000000000001</v>
+        <v>0</v>
       </c>
       <c r="F540" t="n">
-        <v>658.54</v>
+        <v>625</v>
       </c>
       <c r="G540" s="2" t="n">
-        <v>44144</v>
+        <v>44145</v>
       </c>
       <c r="H540" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-Processor-In-Hand-Ready-to-Ship-Far-Cry-6-code/284074751792?epid=12041984358&amp;hash=item42242cb730:g:F60AAOSw3XBfqbfS</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-8-Core-16-Thread-Processor-PCIe-4-0-Brand-New-Same-Day-Ship/143825276149?hash=item217ca78cf5:g:P38AAOSwhlBfpEXi</t>
         </is>
       </c>
     </row>
@@ -17729,7 +17729,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X 3.8GHz AM4 CPU CONFIRMED PRE-SALE - FREE/FAST SHIPPING!!</t>
+          <t>AMD Ryzen 7 5800X (Receipt + Far Cry 6 Included) Ships Fast!</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
@@ -17738,20 +17738,20 @@
         </is>
       </c>
       <c r="D541" t="n">
-        <v>649.99</v>
+        <v>669.6900000000001</v>
       </c>
       <c r="E541" t="n">
-        <v>9.99</v>
+        <v>0</v>
       </c>
       <c r="F541" t="n">
-        <v>659.98</v>
+        <v>669.6900000000001</v>
       </c>
       <c r="G541" s="2" t="n">
         <v>44144</v>
       </c>
       <c r="H541" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-3-8GHz-AM4-CPU-CONFIRMED-PRE-SALE-FREE-FAST-SHIPPING/164496247557?epid=12041984358&amp;hash=item264cbd8b05:g:WKcAAOSwEV5fpBll</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Receipt-Far-Cry-6-Included-Ships-Fast/224228798400?hash=item343513efc0:g:7KkAAOSwOQpfqg40</t>
         </is>
       </c>
     </row>
@@ -17761,7 +17761,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X | FREE SHIPPING</t>
+          <t>AMD Ryzen 7 5800X 3.8GHZ AM4 | IN HAND READY TO SHIP | FREE SHIPPING | BRAND NEW</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
@@ -17770,20 +17770,20 @@
         </is>
       </c>
       <c r="D542" t="n">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="E542" t="n">
-        <v>0</v>
+        <v>5.45</v>
       </c>
       <c r="F542" t="n">
-        <v>625</v>
+        <v>680.45</v>
       </c>
       <c r="G542" s="2" t="n">
         <v>44144</v>
       </c>
       <c r="H542" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-FREE-SHIPPING/254770845060?hash=item3b51869584:g:~cQAAOSwaB9fpAxB</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-3-8GHZ-AM4-IN-HAND-READY-TO-SHIP-FREE-SHIPPING-BRAND-NEW/254773891269?hash=item3b51b510c5:g:QioAAOSwwiFfpE1H</t>
         </is>
       </c>
     </row>
@@ -17793,7 +17793,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X in hand - ready to ship</t>
+          <t>AMD Ryzen 7 5800X Desktop Processor - In Hand Ready to Ship, + Far Cry 6 code</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
@@ -17802,20 +17802,20 @@
         </is>
       </c>
       <c r="D543" t="n">
-        <v>682</v>
+        <v>649.99</v>
       </c>
       <c r="E543" t="n">
-        <v>0</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="F543" t="n">
-        <v>682</v>
+        <v>658.54</v>
       </c>
       <c r="G543" s="2" t="n">
         <v>44144</v>
       </c>
       <c r="H543" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-in-hand-ready-to-ship/114508943519?epid=12041984358&amp;hash=item1aa943d09f:g:imEAAOSwmOhfqU9~</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-Processor-In-Hand-Ready-to-Ship-Far-Cry-6-code/284074751792?epid=12041984358&amp;hash=item42242cb730:g:F60AAOSw3XBfqbfS</t>
         </is>
       </c>
     </row>
@@ -17825,7 +17825,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X Desktop Processor (4.7GHz, 8 Cores, Socket AM4) Box -...</t>
+          <t>AMD Ryzen 7 5800X 3.8GHz AM4 CPU CONFIRMED PRE-SALE - FREE/FAST SHIPPING!!</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
@@ -17834,20 +17834,20 @@
         </is>
       </c>
       <c r="D544" t="n">
-        <v>600</v>
+        <v>649.99</v>
       </c>
       <c r="E544" t="n">
-        <v>3.9</v>
+        <v>9.99</v>
       </c>
       <c r="F544" t="n">
-        <v>603.9</v>
+        <v>659.98</v>
       </c>
       <c r="G544" s="2" t="n">
         <v>44144</v>
       </c>
       <c r="H544" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-Processor-4-7GHz-8-Cores-Socket-AM4-Box/224228559757?epid=12041984358&amp;hash=item3435104b8d:g:76IAAOSwZDdfqcp6</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-3-8GHz-AM4-CPU-CONFIRMED-PRE-SALE-FREE-FAST-SHIPPING/164496247557?epid=12041984358&amp;hash=item264cbd8b05:g:WKcAAOSwEV5fpBll</t>
         </is>
       </c>
     </row>
@@ -17857,7 +17857,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>Ryzen 7 5800x *IN HAND* *SEALED* Can Ship ASAP.</t>
+          <t>AMD Ryzen 7 5800X | FREE SHIPPING</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
@@ -17866,20 +17866,20 @@
         </is>
       </c>
       <c r="D545" t="n">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="E545" t="n">
-        <v>10.94</v>
+        <v>0</v>
       </c>
       <c r="F545" t="n">
-        <v>625.9400000000001</v>
+        <v>625</v>
       </c>
       <c r="G545" s="2" t="n">
         <v>44144</v>
       </c>
       <c r="H545" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Ryzen-7-5800x-IN-HAND-SEALED-Can-Ship-ASAP/274568487541?hash=item3fed8ea275:g:fkYAAOSwnF1fpZym</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-FREE-SHIPPING/254770845060?hash=item3b51869584:g:~cQAAOSwaB9fpAxB</t>
         </is>
       </c>
     </row>
@@ -17889,7 +17889,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>CONFIRMED PREORDER AMD Ryzen 7 5800X Desktop Processor</t>
+          <t>AMD Ryzen 7 5800X in hand - ready to ship</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -17898,20 +17898,20 @@
         </is>
       </c>
       <c r="D546" t="n">
-        <v>625</v>
+        <v>682</v>
       </c>
       <c r="E546" t="n">
         <v>0</v>
       </c>
       <c r="F546" t="n">
-        <v>625</v>
+        <v>682</v>
       </c>
       <c r="G546" s="2" t="n">
         <v>44144</v>
       </c>
       <c r="H546" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/CONFIRMED-PREORDER-AMD-Ryzen-7-5800X-Desktop-Processor/264931506922?epid=25041983953&amp;hash=item3daf25faea:g:7zIAAOSwVrNfqUBN</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-in-hand-ready-to-ship/114508943519?epid=12041984358&amp;hash=item1aa943d09f:g:imEAAOSwmOhfqU9~</t>
         </is>
       </c>
     </row>
@@ -17933,17 +17933,17 @@
         <v>600</v>
       </c>
       <c r="E547" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="F547" t="n">
-        <v>600</v>
+        <v>603.9</v>
       </c>
       <c r="G547" s="2" t="n">
         <v>44144</v>
       </c>
       <c r="H547" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-Processor-4-7GHz-8-Cores-Socket-AM4-Box/143826851566?epid=12041984358&amp;hash=item217cbf96ee:g:e4oAAOSwQJlfpW~~</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-Processor-4-7GHz-8-Cores-Socket-AM4-Box/224228559757?epid=12041984358&amp;hash=item3435104b8d:g:76IAAOSwZDdfqcp6</t>
         </is>
       </c>
     </row>
@@ -17953,7 +17953,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>Ryzen 7 5800x, IN HAND READY TO SHIP SAME DAY</t>
+          <t>Ryzen 7 5800x *IN HAND* *SEALED* Can Ship ASAP.</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
@@ -17962,20 +17962,20 @@
         </is>
       </c>
       <c r="D548" t="n">
-        <v>699.99</v>
+        <v>615</v>
       </c>
       <c r="E548" t="n">
-        <v>0</v>
+        <v>10.94</v>
       </c>
       <c r="F548" t="n">
-        <v>699.99</v>
+        <v>625.9400000000001</v>
       </c>
       <c r="G548" s="2" t="n">
         <v>44144</v>
       </c>
       <c r="H548" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Ryzen-7-5800x-IN-HAND-READY-TO-SHIP-SAME-DAY/274564026947?hash=item3fed4a9243:g:w4wAAOSw2PpfpEhD</t>
+          <t>https://www.ebay.com/itm/Ryzen-7-5800x-IN-HAND-SEALED-Can-Ship-ASAP/274568487541?hash=item3fed8ea275:g:fkYAAOSwnF1fpZym</t>
         </is>
       </c>
     </row>
@@ -17985,7 +17985,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X 8 Core 4.7 GHz Max +FarCry6 SEALED IN HAND SHIPS FREE ASAP</t>
+          <t>CONFIRMED PREORDER AMD Ryzen 7 5800X Desktop Processor</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
@@ -17994,20 +17994,20 @@
         </is>
       </c>
       <c r="D549" t="n">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="E549" t="n">
         <v>0</v>
       </c>
       <c r="F549" t="n">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="G549" s="2" t="n">
-        <v>44143</v>
+        <v>44144</v>
       </c>
       <c r="H549" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-8-Core-4-7-GHz-Max-FarCry6-SEALED-IN-HAND-SHIPS-FREE-ASAP/333779556363?epid=24042267832&amp;hash=item4db6cfd80b:g:bZIAAOSwI99fpN5w</t>
+          <t>https://www.ebay.com/itm/CONFIRMED-PREORDER-AMD-Ryzen-7-5800X-Desktop-Processor/264931506922?epid=25041983953&amp;hash=item3daf25faea:g:7zIAAOSwVrNfqUBN</t>
         </is>
       </c>
     </row>
@@ -18017,7 +18017,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X Vermeer 3.8GHz 8-Core AM4 Boxed Processor  **IN HAND/SEALED**</t>
+          <t>AMD Ryzen 7 5800X Desktop Processor (4.7GHz, 8 Cores, Socket AM4) Box -...</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
@@ -18026,20 +18026,20 @@
         </is>
       </c>
       <c r="D550" t="n">
-        <v>679</v>
+        <v>600</v>
       </c>
       <c r="E550" t="n">
         <v>0</v>
       </c>
       <c r="F550" t="n">
-        <v>679</v>
+        <v>600</v>
       </c>
       <c r="G550" s="2" t="n">
-        <v>44143</v>
+        <v>44144</v>
       </c>
       <c r="H550" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Vermeer-3-8GHz-8-Core-AM4-Boxed-Processor-IN-HAND-SEALED/133568239790?epid=24042267832&amp;hash=item1f194998ae:g:OggAAOSwVFhfpY3Y</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-Processor-4-7GHz-8-Cores-Socket-AM4-Box/143826851566?epid=12041984358&amp;hash=item217cbf96ee:g:e4oAAOSwQJlfpW~~</t>
         </is>
       </c>
     </row>
@@ -18049,7 +18049,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X 3.8 GHz Base, 4.7 GHz max. In Hand.</t>
+          <t>Ryzen 7 5800x, IN HAND READY TO SHIP SAME DAY</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
@@ -18058,20 +18058,20 @@
         </is>
       </c>
       <c r="D551" t="n">
-        <v>660</v>
+        <v>699.99</v>
       </c>
       <c r="E551" t="n">
-        <v>10.9</v>
+        <v>0</v>
       </c>
       <c r="F551" t="n">
-        <v>670.9</v>
+        <v>699.99</v>
       </c>
       <c r="G551" s="2" t="n">
-        <v>44143</v>
+        <v>44144</v>
       </c>
       <c r="H551" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-3-8-GHz-Base-4-7-GHz-max-In-Hand/402535803290?hash=item5db900e99a:g:S-UAAOSwej1fpI2W</t>
+          <t>https://www.ebay.com/itm/Ryzen-7-5800x-IN-HAND-READY-TO-SHIP-SAME-DAY/274564026947?hash=item3fed4a9243:g:w4wAAOSw2PpfpEhD</t>
         </is>
       </c>
     </row>
@@ -18081,7 +18081,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800x</t>
+          <t>AMD Ryzen 7 5800X 8 Core 4.7 GHz Max +FarCry6 SEALED IN HAND SHIPS FREE ASAP</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
@@ -18090,20 +18090,20 @@
         </is>
       </c>
       <c r="D552" t="n">
-        <v>620</v>
+        <v>650</v>
       </c>
       <c r="E552" t="n">
         <v>0</v>
       </c>
       <c r="F552" t="n">
-        <v>620</v>
+        <v>650</v>
       </c>
       <c r="G552" s="2" t="n">
         <v>44143</v>
       </c>
       <c r="H552" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800x/254769875278?hash=item3b5177c94e:g:BYsAAOSw9Q9fpGgx</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-8-Core-4-7-GHz-Max-FarCry6-SEALED-IN-HAND-SHIPS-FREE-ASAP/333779556363?epid=24042267832&amp;hash=item4db6cfd80b:g:bZIAAOSwI99fpN5w</t>
         </is>
       </c>
     </row>
@@ -18113,7 +18113,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X AM4 Boxed CPU New Sealed 5000 Series In Hand Ohio</t>
+          <t>AMD Ryzen 7 5800X Vermeer 3.8GHz 8-Core AM4 Boxed Processor  **IN HAND/SEALED**</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
@@ -18122,20 +18122,20 @@
         </is>
       </c>
       <c r="D553" t="n">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="E553" t="n">
         <v>0</v>
       </c>
       <c r="F553" t="n">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="G553" s="2" t="n">
         <v>44143</v>
       </c>
       <c r="H553" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-AM4-Boxed-CPU-New-Sealed-5000-Series-In-Hand-Ohio/193741356306?hash=item2d1be27d12:g:Ti8AAOSwVi9fpzSU</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Vermeer-3-8GHz-8-Core-AM4-Boxed-Processor-IN-HAND-SEALED/133568239790?epid=24042267832&amp;hash=item1f194998ae:g:OggAAOSwVFhfpY3Y</t>
         </is>
       </c>
     </row>
@@ -18145,7 +18145,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X Desktop Processor (4.7GHz, 8 Cores, Socket AM4)</t>
+          <t>AMD Ryzen 7 5800X 3.8 GHz Base, 4.7 GHz max. In Hand.</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
@@ -18154,20 +18154,20 @@
         </is>
       </c>
       <c r="D554" t="n">
-        <v>675</v>
+        <v>660</v>
       </c>
       <c r="E554" t="n">
-        <v>0</v>
+        <v>10.9</v>
       </c>
       <c r="F554" t="n">
-        <v>675</v>
+        <v>670.9</v>
       </c>
       <c r="G554" s="2" t="n">
         <v>44143</v>
       </c>
       <c r="H554" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-Processor-4-7GHz-8-Cores-Socket-AM4/233773490738?epid=12041984358&amp;hash=item366dfc6232:g:nYgAAOSwxVFfp6lp</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-3-8-GHz-Base-4-7-GHz-max-In-Hand/402535803290?hash=item5db900e99a:g:S-UAAOSwej1fpI2W</t>
         </is>
       </c>
     </row>
@@ -18177,7 +18177,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X 8 Core,16 Thread 3.8GHz Base, 4.7GHz max. + Far Cry 6. In Hand</t>
+          <t>AMD Ryzen 7 5800x</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
@@ -18186,20 +18186,20 @@
         </is>
       </c>
       <c r="D555" t="n">
-        <v>801</v>
+        <v>620</v>
       </c>
       <c r="E555" t="n">
-        <v>9.9</v>
+        <v>0</v>
       </c>
       <c r="F555" t="n">
-        <v>810.9</v>
+        <v>620</v>
       </c>
       <c r="G555" s="2" t="n">
         <v>44143</v>
       </c>
       <c r="H555" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-8-Core-16-Thread-3-8GHz-Base-4-7GHz-max-Far-Cry-6-In-Hand/154179186885?hash=item23e5cbb0c5:g:c0IAAOSwPjZfpCat</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800x/254769875278?hash=item3b5177c94e:g:BYsAAOSw9Q9fpGgx</t>
         </is>
       </c>
     </row>
@@ -18209,7 +18209,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>Ryzen 7 5800x - In Hand with Far Cry 6 Digital Download</t>
+          <t>AMD Ryzen 7 5800X AM4 Boxed CPU New Sealed 5000 Series In Hand Ohio</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
@@ -18218,20 +18218,20 @@
         </is>
       </c>
       <c r="D556" t="n">
-        <v>631</v>
+        <v>670</v>
       </c>
       <c r="E556" t="n">
         <v>0</v>
       </c>
       <c r="F556" t="n">
-        <v>631</v>
+        <v>670</v>
       </c>
       <c r="G556" s="2" t="n">
         <v>44143</v>
       </c>
       <c r="H556" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Ryzen-7-5800x-In-Hand-with-Far-Cry-6-Digital-Download/174506749561?hash=item28a169ae79:g:tEoAAOSwahVfpCGF</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-AM4-Boxed-CPU-New-Sealed-5000-Series-In-Hand-Ohio/193741356306?hash=item2d1be27d12:g:Ti8AAOSwVi9fpzSU</t>
         </is>
       </c>
     </row>
@@ -18241,7 +18241,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>Ryzen 7 5800x 8 Core 16 Thread Processor</t>
+          <t>AMD Ryzen 7 5800X Desktop Processor (4.7GHz, 8 Cores, Socket AM4)</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
@@ -18263,7 +18263,7 @@
       </c>
       <c r="H557" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Ryzen-7-5800x-8-Core-16-Thread-Processor/284072048152?hash=item4224037618:g:sCsAAOSw5WVfpwdZ</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-Processor-4-7GHz-8-Cores-Socket-AM4/233773490738?epid=12041984358&amp;hash=item366dfc6232:g:nYgAAOSwxVFfp6lp</t>
         </is>
       </c>
     </row>
@@ -18273,7 +18273,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X 3.8GHz L3 AM4 CPU Desktop Processor Boxed. In Hand!</t>
+          <t>AMD Ryzen 7 5800X 8 Core,16 Thread 3.8GHz Base, 4.7GHz max. + Far Cry 6. In Hand</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
@@ -18282,20 +18282,20 @@
         </is>
       </c>
       <c r="D558" t="n">
-        <v>610</v>
+        <v>801</v>
       </c>
       <c r="E558" t="n">
-        <v>8.25</v>
+        <v>9.9</v>
       </c>
       <c r="F558" t="n">
-        <v>618.25</v>
+        <v>810.9</v>
       </c>
       <c r="G558" s="2" t="n">
         <v>44143</v>
       </c>
       <c r="H558" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-3-8GHz-L3-AM4-CPU-Desktop-Processor-Boxed-In-Hand/264926216005?epid=12041984358&amp;hash=item3daed53f45:g:M9oAAOSwhC9fpBzg</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-8-Core-16-Thread-3-8GHz-Base-4-7GHz-max-Far-Cry-6-In-Hand/154179186885?hash=item23e5cbb0c5:g:c0IAAOSwPjZfpCat</t>
         </is>
       </c>
     </row>
@@ -18305,7 +18305,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X 3.8 GHz Eight-Core AM4 Processor * IN HAND READY TO SHIP * CPU</t>
+          <t>Ryzen 7 5800x - In Hand with Far Cry 6 Digital Download</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
@@ -18314,20 +18314,20 @@
         </is>
       </c>
       <c r="D559" t="n">
-        <v>694.95</v>
+        <v>631</v>
       </c>
       <c r="E559" t="n">
         <v>0</v>
       </c>
       <c r="F559" t="n">
-        <v>694.95</v>
+        <v>631</v>
       </c>
       <c r="G559" s="2" t="n">
         <v>44143</v>
       </c>
       <c r="H559" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-3-8-GHz-Eight-Core-AM4-Processor-IN-HAND-READY-TO-SHIP-CPU/174509808137?hash=item28a1985a09:g:GQcAAOSwkEJfp0DH</t>
+          <t>https://www.ebay.com/itm/Ryzen-7-5800x-In-Hand-with-Far-Cry-6-Digital-Download/174506749561?hash=item28a169ae79:g:tEoAAOSwahVfpCGF</t>
         </is>
       </c>
     </row>
@@ -18337,7 +18337,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>Ryzen 7 5800x 8 Core CPU - New Opened - IN HAND READY TO SHIP</t>
+          <t>Ryzen 7 5800x 8 Core 16 Thread Processor</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
@@ -18346,20 +18346,20 @@
         </is>
       </c>
       <c r="D560" t="n">
-        <v>600</v>
+        <v>675</v>
       </c>
       <c r="E560" t="n">
-        <v>4.65</v>
+        <v>0</v>
       </c>
       <c r="F560" t="n">
-        <v>604.65</v>
+        <v>675</v>
       </c>
       <c r="G560" s="2" t="n">
         <v>44143</v>
       </c>
       <c r="H560" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Ryzen-7-5800x-8-Core-CPU-New-Opened-IN-HAND-READY-TO-SHIP/133569733320?hash=item1f196062c8:g:8LEAAOSwX-Bfp69l</t>
+          <t>https://www.ebay.com/itm/Ryzen-7-5800x-8-Core-16-Thread-Processor/284072048152?hash=item4224037618:g:sCsAAOSw5WVfpwdZ</t>
         </is>
       </c>
     </row>
@@ -18369,7 +18369,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>Ryzen 7 5800x 8 Core CPU - New Sealed - IN HAND READY TO SHIP</t>
+          <t>AMD Ryzen 7 5800X 3.8GHz L3 AM4 CPU Desktop Processor Boxed. In Hand!</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
@@ -18378,20 +18378,20 @@
         </is>
       </c>
       <c r="D561" t="n">
-        <v>650</v>
+        <v>610</v>
       </c>
       <c r="E561" t="n">
-        <v>0</v>
+        <v>8.25</v>
       </c>
       <c r="F561" t="n">
-        <v>650</v>
+        <v>618.25</v>
       </c>
       <c r="G561" s="2" t="n">
-        <v>44142</v>
+        <v>44143</v>
       </c>
       <c r="H561" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Ryzen-7-5800x-8-Core-CPU-New-Sealed-IN-HAND-READY-TO-SHIP/174509852072?hash=item28a19905a8:g:MCEAAOSws0Zfp1Jg</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-3-8GHz-L3-AM4-CPU-Desktop-Processor-Boxed-In-Hand/264926216005?epid=12041984358&amp;hash=item3daed53f45:g:M9oAAOSwhC9fpBzg</t>
         </is>
       </c>
     </row>
@@ -18401,7 +18401,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800x 3.8GHz AM4 Factory Sealed</t>
+          <t>AMD Ryzen 7 5800X 3.8 GHz Eight-Core AM4 Processor * IN HAND READY TO SHIP * CPU</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
@@ -18410,20 +18410,20 @@
         </is>
       </c>
       <c r="D562" t="n">
-        <v>680</v>
+        <v>694.95</v>
       </c>
       <c r="E562" t="n">
         <v>0</v>
       </c>
       <c r="F562" t="n">
-        <v>680</v>
+        <v>694.95</v>
       </c>
       <c r="G562" s="2" t="n">
-        <v>44142</v>
+        <v>44143</v>
       </c>
       <c r="H562" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800x-3-8GHz-AM4-Factory-Sealed/324365459072?hash=item4b85b01e80:g:cTEAAOSwZaRfp1NH</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-3-8-GHz-Eight-Core-AM4-Processor-IN-HAND-READY-TO-SHIP-CPU/174509808137?hash=item28a1985a09:g:GQcAAOSwkEJfp0DH</t>
         </is>
       </c>
     </row>
@@ -18433,7 +18433,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>Amd Ryzen 5800x In Hand Ready To Ship Now</t>
+          <t>Ryzen 7 5800x 8 Core CPU - New Opened - IN HAND READY TO SHIP</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
@@ -18442,20 +18442,20 @@
         </is>
       </c>
       <c r="D563" t="n">
-        <v>665.99</v>
+        <v>600</v>
       </c>
       <c r="E563" t="n">
-        <v>10.9</v>
+        <v>4.65</v>
       </c>
       <c r="F563" t="n">
-        <v>676.89</v>
+        <v>604.65</v>
       </c>
       <c r="G563" s="2" t="n">
-        <v>44142</v>
+        <v>44143</v>
       </c>
       <c r="H563" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Amd-Ryzen-5800x-In-Hand-Ready-To-Ship-Now/313288160338?hash=item48f16df452:g:3N0AAOSw-RlfpDDU</t>
+          <t>https://www.ebay.com/itm/Ryzen-7-5800x-8-Core-CPU-New-Opened-IN-HAND-READY-TO-SHIP/133569733320?hash=item1f196062c8:g:8LEAAOSwX-Bfp69l</t>
         </is>
       </c>
     </row>
@@ -18465,7 +18465,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>5800X Brand new sealed In Hand Ships Next Business Day</t>
+          <t>Ryzen 7 5800x 8 Core CPU - New Sealed - IN HAND READY TO SHIP</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
@@ -18474,20 +18474,20 @@
         </is>
       </c>
       <c r="D564" t="n">
-        <v>699</v>
+        <v>650</v>
       </c>
       <c r="E564" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F564" t="n">
-        <v>707</v>
+        <v>650</v>
       </c>
       <c r="G564" s="2" t="n">
         <v>44142</v>
       </c>
       <c r="H564" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/5800X-Brand-new-sealed-In-Hand-Ships-Next-Business-Day/154181801590?hash=item23e5f39676:g:5-wAAOSwm1NfpjxV</t>
+          <t>https://www.ebay.com/itm/Ryzen-7-5800x-8-Core-CPU-New-Sealed-IN-HAND-READY-TO-SHIP/174509852072?hash=item28a19905a8:g:MCEAAOSws0Zfp1Jg</t>
         </is>
       </c>
     </row>
@@ -18497,7 +18497,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X 8-core CPU Factory Sealed, IN-HAND and READY TO SHIP!</t>
+          <t>AMD Ryzen 7 5800x 3.8GHz AM4 Factory Sealed</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
@@ -18506,20 +18506,20 @@
         </is>
       </c>
       <c r="D565" t="n">
-        <v>699</v>
+        <v>680</v>
       </c>
       <c r="E565" t="n">
         <v>0</v>
       </c>
       <c r="F565" t="n">
-        <v>699</v>
+        <v>680</v>
       </c>
       <c r="G565" s="2" t="n">
         <v>44142</v>
       </c>
       <c r="H565" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-8-core-CPU-Factory-Sealed-IN-HAND-and-READY-TO-SHIP/224224657489?hash=item3434d4c051:g:23EAAOSwH-Rfpc2K</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800x-3-8GHz-AM4-Factory-Sealed/324365459072?hash=item4b85b01e80:g:cTEAAOSwZaRfp1NH</t>
         </is>
       </c>
     </row>
@@ -18529,7 +18529,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X AM4 Boxed CPU New Sealed 5000 Series</t>
+          <t>Amd Ryzen 5800x In Hand Ready To Ship Now</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
@@ -18538,20 +18538,20 @@
         </is>
       </c>
       <c r="D566" t="n">
-        <v>700</v>
+        <v>665.99</v>
       </c>
       <c r="E566" t="n">
         <v>10.9</v>
       </c>
       <c r="F566" t="n">
-        <v>710.9</v>
+        <v>676.89</v>
       </c>
       <c r="G566" s="2" t="n">
         <v>44142</v>
       </c>
       <c r="H566" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-AM4-Boxed-CPU-New-Sealed-5000-Series/164494924130?hash=item264ca95962:g:6z0AAOSw8StfpXLT</t>
+          <t>https://www.ebay.com/itm/Amd-Ryzen-5800x-In-Hand-Ready-To-Ship-Now/313288160338?hash=item48f16df452:g:3N0AAOSw-RlfpDDU</t>
         </is>
       </c>
     </row>
@@ -18561,7 +18561,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800x 3.8GHz AM4 [Ready To Ship]</t>
+          <t>5800X Brand new sealed In Hand Ships Next Business Day</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
@@ -18570,20 +18570,20 @@
         </is>
       </c>
       <c r="D567" t="n">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E567" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="F567" t="n">
-        <v>708.25</v>
+        <v>707</v>
       </c>
       <c r="G567" s="2" t="n">
         <v>44142</v>
       </c>
       <c r="H567" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800x-3-8GHz-AM4-Ready-To-Ship/284070588436?hash=item4223ed3014:g:Vw4AAOSw8vJfpCSD</t>
+          <t>https://www.ebay.com/itm/5800X-Brand-new-sealed-In-Hand-Ships-Next-Business-Day/154181801590?hash=item23e5f39676:g:5-wAAOSwm1NfpjxV</t>
         </is>
       </c>
     </row>
@@ -18593,7 +18593,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>Ryzen 7 5800x *IN HAND* *SEALED* Can Ship ASAP.</t>
+          <t>AMD Ryzen 7 5800X 8-core CPU Factory Sealed, IN-HAND and READY TO SHIP!</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
@@ -18602,20 +18602,20 @@
         </is>
       </c>
       <c r="D568" t="n">
-        <v>710</v>
+        <v>699</v>
       </c>
       <c r="E568" t="n">
-        <v>10.94</v>
+        <v>0</v>
       </c>
       <c r="F568" t="n">
-        <v>720.9400000000001</v>
+        <v>699</v>
       </c>
       <c r="G568" s="2" t="n">
         <v>44142</v>
       </c>
       <c r="H568" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Ryzen-7-5800x-IN-HAND-SEALED-Can-Ship-ASAP/274564271372?hash=item3fed4e4d0c:g:fkYAAOSwnF1fpZym</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-8-core-CPU-Factory-Sealed-IN-HAND-and-READY-TO-SHIP/224224657489?hash=item3434d4c051:g:23EAAOSwH-Rfpc2K</t>
         </is>
       </c>
     </row>
@@ -18625,7 +18625,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X 8 Core,16 Thread.3.8 GHz Base,4.7 GHz max. **In Hand**</t>
+          <t>AMD Ryzen 7 5800X AM4 Boxed CPU New Sealed 5000 Series</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
@@ -18634,20 +18634,20 @@
         </is>
       </c>
       <c r="D569" t="n">
-        <v>620</v>
+        <v>700</v>
       </c>
       <c r="E569" t="n">
-        <v>0</v>
+        <v>10.9</v>
       </c>
       <c r="F569" t="n">
-        <v>620</v>
+        <v>710.9</v>
       </c>
       <c r="G569" s="2" t="n">
         <v>44142</v>
       </c>
       <c r="H569" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-8-Core-16-Thread-3-8-GHz-Base-4-7-GHz-max-In-Hand/333780086556?hash=item4db6d7ef1c:g:akoAAOSw9L1fpXkW</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-AM4-Boxed-CPU-New-Sealed-5000-Series/164494924130?hash=item264ca95962:g:6z0AAOSw8StfpXLT</t>
         </is>
       </c>
     </row>
@@ -18657,7 +18657,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X | CONFIRMED ORDER | FREE SHIPPING</t>
+          <t>AMD Ryzen 7 5800x 3.8GHz AM4 [Ready To Ship]</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
@@ -18666,20 +18666,20 @@
         </is>
       </c>
       <c r="D570" t="n">
-        <v>648.99</v>
+        <v>700</v>
       </c>
       <c r="E570" t="n">
-        <v>0</v>
+        <v>8.25</v>
       </c>
       <c r="F570" t="n">
-        <v>648.99</v>
+        <v>708.25</v>
       </c>
       <c r="G570" s="2" t="n">
         <v>44142</v>
       </c>
       <c r="H570" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-CONFIRMED-ORDER-FREE-SHIPPING/154181485808?hash=item23e5eec4f0:g:gWsAAOSwvddfpes5</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800x-3-8GHz-AM4-Ready-To-Ship/284070588436?hash=item4223ed3014:g:Vw4AAOSw8vJfpCSD</t>
         </is>
       </c>
     </row>
@@ -18689,7 +18689,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>RYZEN 7 5800x - WITH FAR CRY 6 FREE</t>
+          <t>Ryzen 7 5800x *IN HAND* *SEALED* Can Ship ASAP.</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
@@ -18698,20 +18698,20 @@
         </is>
       </c>
       <c r="D571" t="n">
-        <v>685</v>
+        <v>710</v>
       </c>
       <c r="E571" t="n">
-        <v>0</v>
+        <v>10.94</v>
       </c>
       <c r="F571" t="n">
-        <v>685</v>
+        <v>720.9400000000001</v>
       </c>
       <c r="G571" s="2" t="n">
         <v>44142</v>
       </c>
       <c r="H571" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/RYZEN-7-5800x-WITH-FAR-CRY-6-FREE/324364311614?hash=item4b859e9c3e:g:kI0AAOSwOopfphmO</t>
+          <t>https://www.ebay.com/itm/Ryzen-7-5800x-IN-HAND-SEALED-Can-Ship-ASAP/274564271372?hash=item3fed4e4d0c:g:fkYAAOSwnF1fpZym</t>
         </is>
       </c>
     </row>
@@ -18721,7 +18721,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X Processor 👋🏽 IN-HAND 🔥FREE SHIPPING 🚚</t>
+          <t>AMD Ryzen 7 5800X 8 Core,16 Thread.3.8 GHz Base,4.7 GHz max. **In Hand**</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
@@ -18730,20 +18730,20 @@
         </is>
       </c>
       <c r="D572" t="n">
-        <v>675</v>
+        <v>620</v>
       </c>
       <c r="E572" t="n">
         <v>0</v>
       </c>
       <c r="F572" t="n">
-        <v>675</v>
+        <v>620</v>
       </c>
       <c r="G572" s="2" t="n">
         <v>44142</v>
       </c>
       <c r="H572" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Processor-IN-HAND-FREE-SHIPPING/324364402492?epid=12041984358&amp;hash=item4b859fff3c:g:8TAAAOSw3XBfpjIW</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-8-Core-16-Thread-3-8-GHz-Base-4-7-GHz-max-In-Hand/333780086556?hash=item4db6d7ef1c:g:akoAAOSw9L1fpXkW</t>
         </is>
       </c>
     </row>
@@ -18753,7 +18753,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ryzen 7 5800x, IN HAND READY TO SHIP </t>
+          <t>AMD Ryzen 7 5800X | CONFIRMED ORDER | FREE SHIPPING</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
@@ -18762,20 +18762,20 @@
         </is>
       </c>
       <c r="D573" t="n">
-        <v>695</v>
+        <v>648.99</v>
       </c>
       <c r="E573" t="n">
         <v>0</v>
       </c>
       <c r="F573" t="n">
-        <v>695</v>
+        <v>648.99</v>
       </c>
       <c r="G573" s="2" t="n">
         <v>44142</v>
       </c>
       <c r="H573" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Ryzen-7-5800x-IN-HAND-READY-TO-SHIP/193739867948?hash=item2d1bcbc72c:g:ZBsAAOSwuE9fpZNX</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-CONFIRMED-ORDER-FREE-SHIPPING/154181485808?hash=item23e5eec4f0:g:gWsAAOSwvddfpes5</t>
         </is>
       </c>
     </row>
@@ -18785,7 +18785,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X - ARRIVING 11/11 - SHIPS UPON ARRIVAL - FREE USPS FIRST CLASS</t>
+          <t>RYZEN 7 5800x - WITH FAR CRY 6 FREE</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
@@ -18794,20 +18794,20 @@
         </is>
       </c>
       <c r="D574" t="n">
-        <v>649</v>
+        <v>685</v>
       </c>
       <c r="E574" t="n">
         <v>0</v>
       </c>
       <c r="F574" t="n">
-        <v>649</v>
+        <v>685</v>
       </c>
       <c r="G574" s="2" t="n">
-        <v>44141</v>
+        <v>44142</v>
       </c>
       <c r="H574" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-ARRIVING-11-11-SHIPS-UPON-ARRIVAL-FREE-USPS-FIRST-CLASS/224224722429?hash=item3434d5bdfd:g:d1UAAOSwqvdfpgCg</t>
+          <t>https://www.ebay.com/itm/RYZEN-7-5800x-WITH-FAR-CRY-6-FREE/324364311614?hash=item4b859e9c3e:g:kI0AAOSwOopfphmO</t>
         </is>
       </c>
     </row>
@@ -18817,7 +18817,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X 8 Core 16 Thread CPU</t>
+          <t>AMD Ryzen 7 5800X Processor 👋🏽 IN-HAND 🔥FREE SHIPPING 🚚</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
@@ -18826,20 +18826,20 @@
         </is>
       </c>
       <c r="D575" t="n">
-        <v>499.99</v>
+        <v>675</v>
       </c>
       <c r="E575" t="n">
         <v>0</v>
       </c>
       <c r="F575" t="n">
-        <v>499.99</v>
+        <v>675</v>
       </c>
       <c r="G575" s="2" t="n">
-        <v>44141</v>
+        <v>44142</v>
       </c>
       <c r="H575" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-8-Core-16-Thread-CPU/124428489890?epid=24042267832&amp;hash=item1cf88414a2:g:K7wAAOSwyJlfpiU1</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Processor-IN-HAND-FREE-SHIPPING/324364402492?epid=12041984358&amp;hash=item4b859fff3c:g:8TAAAOSw3XBfpjIW</t>
         </is>
       </c>
     </row>
@@ -18849,29 +18849,29 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X Free Shipping, Will ship out next day</t>
+          <t xml:space="preserve">Ryzen 7 5800x, IN HAND READY TO SHIP </t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>Open Box</t>
+          <t>Brand New</t>
         </is>
       </c>
       <c r="D576" t="n">
-        <v>619.99</v>
+        <v>695</v>
       </c>
       <c r="E576" t="n">
         <v>0</v>
       </c>
       <c r="F576" t="n">
-        <v>619.99</v>
+        <v>695</v>
       </c>
       <c r="G576" s="2" t="n">
-        <v>44141</v>
+        <v>44142</v>
       </c>
       <c r="H576" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Free-Shipping-Will-ship-out-next-day/264928214939?hash=item3daef3bf9b:g:OzEAAOSwMmVfpg4x</t>
+          <t>https://www.ebay.com/itm/Ryzen-7-5800x-IN-HAND-READY-TO-SHIP/193739867948?hash=item2d1bcbc72c:g:ZBsAAOSwuE9fpZNX</t>
         </is>
       </c>
     </row>
@@ -18881,7 +18881,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>NEW AMD Ryzen 7 5800X Desktop CPU Processor 4.7GHz, 8 Cores, AM4, 105W TDP, 7nm</t>
+          <t>AMD Ryzen 7 5800X - ARRIVING 11/11 - SHIPS UPON ARRIVAL - FREE USPS FIRST CLASS</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
@@ -18890,20 +18890,20 @@
         </is>
       </c>
       <c r="D577" t="n">
-        <v>629.99</v>
+        <v>649</v>
       </c>
       <c r="E577" t="n">
         <v>0</v>
       </c>
       <c r="F577" t="n">
-        <v>629.99</v>
+        <v>649</v>
       </c>
       <c r="G577" s="2" t="n">
         <v>44141</v>
       </c>
       <c r="H577" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/NEW-AMD-Ryzen-7-5800X-Desktop-CPU-Processor-4-7GHz-8-Cores-AM4-105W-TDP-7nm/224224761612?epid=12041984358&amp;hash=item3434d6570c:g:4O8AAOSwuRxfpfDT</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-ARRIVING-11-11-SHIPS-UPON-ARRIVAL-FREE-USPS-FIRST-CLASS/224224722429?hash=item3434d5bdfd:g:d1UAAOSwqvdfpgCg</t>
         </is>
       </c>
     </row>
@@ -18913,7 +18913,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800x 3.8GHz 8-Core AM4 Ships Wednesday Preorder Sealed Never Opened</t>
+          <t>AMD Ryzen 7 5800X 8 Core 16 Thread CPU</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
@@ -18922,20 +18922,20 @@
         </is>
       </c>
       <c r="D578" t="n">
-        <v>660</v>
+        <v>499.99</v>
       </c>
       <c r="E578" t="n">
         <v>0</v>
       </c>
       <c r="F578" t="n">
-        <v>660</v>
+        <v>499.99</v>
       </c>
       <c r="G578" s="2" t="n">
         <v>44141</v>
       </c>
       <c r="H578" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800x-3-8GHz-8-Core-AM4-Ships-Wednesday-Preorder-Sealed-Never-Opened/184523041982?hash=item2af66e2cbe:g:rSoAAOSw2sRfpJzE</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-8-Core-16-Thread-CPU/124428489890?epid=24042267832&amp;hash=item1cf88414a2:g:K7wAAOSwyJlfpiU1</t>
         </is>
       </c>
     </row>
@@ -18945,29 +18945,29 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X 8-Core 3.8 GHz Socket AM4 105W CONFIRMED ORDER</t>
+          <t>AMD Ryzen 7 5800X Free Shipping, Will ship out next day</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>Brand New</t>
+          <t>Open Box</t>
         </is>
       </c>
       <c r="D579" t="n">
-        <v>649.99</v>
+        <v>619.99</v>
       </c>
       <c r="E579" t="n">
         <v>0</v>
       </c>
       <c r="F579" t="n">
-        <v>649.99</v>
+        <v>619.99</v>
       </c>
       <c r="G579" s="2" t="n">
         <v>44141</v>
       </c>
       <c r="H579" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-8-Core-3-8-GHz-Socket-AM4-105W-CONFIRMED-ORDER/264928077157?epid=12041984358&amp;hash=item3daef1a565:g:zk4AAOSwiA5fpeet</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Free-Shipping-Will-ship-out-next-day/264928214939?hash=item3daef3bf9b:g:OzEAAOSwMmVfpg4x</t>
         </is>
       </c>
     </row>
@@ -18977,7 +18977,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>Ryzen 7 5800x IN HAND READY TO SHIP</t>
+          <t>NEW AMD Ryzen 7 5800X Desktop CPU Processor 4.7GHz, 8 Cores, AM4, 105W TDP, 7nm</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
@@ -18986,20 +18986,20 @@
         </is>
       </c>
       <c r="D580" t="n">
-        <v>679</v>
+        <v>629.99</v>
       </c>
       <c r="E580" t="n">
         <v>0</v>
       </c>
       <c r="F580" t="n">
-        <v>679</v>
+        <v>629.99</v>
       </c>
       <c r="G580" s="2" t="n">
         <v>44141</v>
       </c>
       <c r="H580" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Ryzen-7-5800x-IN-HAND-READY-TO-SHIP/224224565323?hash=item3434d3584b:g:wM4AAOSw4gRfpbi0</t>
+          <t>https://www.ebay.com/itm/NEW-AMD-Ryzen-7-5800X-Desktop-CPU-Processor-4-7GHz-8-Cores-AM4-105W-TDP-7nm/224224761612?epid=12041984358&amp;hash=item3434d6570c:g:4O8AAOSwuRxfpfDT</t>
         </is>
       </c>
     </row>
@@ -19009,7 +19009,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>Ryzen 5800x Closed Box Brand New from Microcenter.</t>
+          <t>AMD Ryzen 7 5800x 3.8GHz 8-Core AM4 Ships Wednesday Preorder Sealed Never Opened</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
@@ -19018,20 +19018,20 @@
         </is>
       </c>
       <c r="D581" t="n">
-        <v>610</v>
+        <v>660</v>
       </c>
       <c r="E581" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F581" t="n">
-        <v>618</v>
+        <v>660</v>
       </c>
       <c r="G581" s="2" t="n">
         <v>44141</v>
       </c>
       <c r="H581" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Ryzen-5800x-Closed-Box-Brand-New-from-Microcenter/193740010291?hash=item2d1bcdf333:g:g4oAAOSwn9JfpbXr</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800x-3-8GHz-8-Core-AM4-Ships-Wednesday-Preorder-Sealed-Never-Opened/184523041982?hash=item2af66e2cbe:g:rSoAAOSw2sRfpJzE</t>
         </is>
       </c>
     </row>
@@ -19041,7 +19041,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X Processor (4.7GHz max, 8 Cores, AM4) (IN-HAND)</t>
+          <t>AMD Ryzen 7 5800X 8-Core 3.8 GHz Socket AM4 105W CONFIRMED ORDER</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
@@ -19050,20 +19050,20 @@
         </is>
       </c>
       <c r="D582" t="n">
-        <v>685</v>
+        <v>649.99</v>
       </c>
       <c r="E582" t="n">
         <v>0</v>
       </c>
       <c r="F582" t="n">
-        <v>685</v>
+        <v>649.99</v>
       </c>
       <c r="G582" s="2" t="n">
         <v>44141</v>
       </c>
       <c r="H582" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Processor-4-7GHz-max-8-Cores-AM4-IN-HAND/353266277476?epid=12041984358&amp;hash=item52404f9c64:g:udQAAOSwQOdfpYZj</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-8-Core-3-8-GHz-Socket-AM4-105W-CONFIRMED-ORDER/264928077157?epid=12041984358&amp;hash=item3daef1a565:g:zk4AAOSwiA5fpeet</t>
         </is>
       </c>
     </row>
@@ -19073,7 +19073,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X Desktop Processor (4.7GHz, 8 Cores, AM4) **IN HAND FAST SHIP**</t>
+          <t>Ryzen 7 5800x IN HAND READY TO SHIP</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
@@ -19082,20 +19082,20 @@
         </is>
       </c>
       <c r="D583" t="n">
-        <v>689.99</v>
+        <v>679</v>
       </c>
       <c r="E583" t="n">
-        <v>9.99</v>
+        <v>0</v>
       </c>
       <c r="F583" t="n">
-        <v>699.98</v>
+        <v>679</v>
       </c>
       <c r="G583" s="2" t="n">
         <v>44141</v>
       </c>
       <c r="H583" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-Processor-4-7GHz-8-Cores-AM4-IN-HAND-FAST-SHIP/264927876896?epid=25041983953&amp;hash=item3daeee9720:g:HJsAAOSwiuRfpbN2</t>
+          <t>https://www.ebay.com/itm/Ryzen-7-5800x-IN-HAND-READY-TO-SHIP/224224565323?hash=item3434d3584b:g:wM4AAOSw4gRfpbi0</t>
         </is>
       </c>
     </row>
@@ -19105,7 +19105,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>Ryzen 7 5800x! Shipping out 11/6/2020</t>
+          <t>Ryzen 5800x Closed Box Brand New from Microcenter.</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
@@ -19114,20 +19114,20 @@
         </is>
       </c>
       <c r="D584" t="n">
-        <v>650</v>
+        <v>610</v>
       </c>
       <c r="E584" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F584" t="n">
-        <v>662</v>
+        <v>618</v>
       </c>
       <c r="G584" s="2" t="n">
         <v>44141</v>
       </c>
       <c r="H584" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Ryzen-7-5800x-Shipping-out-11-6-2020/264926468118?hash=item3daed91816:g:QSsAAOSwnF1fpFf3</t>
+          <t>https://www.ebay.com/itm/Ryzen-5800x-Closed-Box-Brand-New-from-Microcenter/193740010291?hash=item2d1bcdf333:g:g4oAAOSwn9JfpbXr</t>
         </is>
       </c>
     </row>
@@ -19137,7 +19137,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X 3.8GHz AM4 CPU CONFIRMED PRE-SALE - FREE/FAST SHIPPING!!</t>
+          <t>AMD Ryzen 7 5800X Processor (4.7GHz max, 8 Cores, AM4) (IN-HAND)</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
@@ -19146,20 +19146,20 @@
         </is>
       </c>
       <c r="D585" t="n">
-        <v>641</v>
+        <v>685</v>
       </c>
       <c r="E585" t="n">
-        <v>19.99</v>
+        <v>0</v>
       </c>
       <c r="F585" t="n">
-        <v>660.99</v>
+        <v>685</v>
       </c>
       <c r="G585" s="2" t="n">
         <v>44141</v>
       </c>
       <c r="H585" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-3-8GHz-AM4-CPU-CONFIRMED-PRE-SALE-FREE-FAST-SHIPPING/164493005741?hash=item264c8c13ad:g:WKcAAOSwEV5fpBll</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Processor-4-7GHz-max-8-Cores-AM4-IN-HAND/353266277476?epid=12041984358&amp;hash=item52404f9c64:g:udQAAOSwQOdfpYZj</t>
         </is>
       </c>
     </row>
@@ -19169,7 +19169,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X 8 Core 16 Thread CPU</t>
+          <t>AMD Ryzen 7 5800X Desktop Processor (4.7GHz, 8 Cores, AM4) **IN HAND FAST SHIP**</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -19178,20 +19178,20 @@
         </is>
       </c>
       <c r="D586" t="n">
-        <v>650</v>
+        <v>689.99</v>
       </c>
       <c r="E586" t="n">
-        <v>10</v>
+        <v>9.99</v>
       </c>
       <c r="F586" t="n">
-        <v>660</v>
+        <v>699.98</v>
       </c>
       <c r="G586" s="2" t="n">
         <v>44141</v>
       </c>
       <c r="H586" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-8-Core-16-Thread-CPU/333778896076?hash=item4db6c5c4cc:g:TWUAAOSwxsNfpDKj</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-Processor-4-7GHz-8-Cores-AM4-IN-HAND-FAST-SHIP/264927876896?epid=25041983953&amp;hash=item3daeee9720:g:HJsAAOSwiuRfpbN2</t>
         </is>
       </c>
     </row>
@@ -19201,7 +19201,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>Sealed AMD Ryzen 5800x IN HAND Ships Today</t>
+          <t>Ryzen 7 5800x! Shipping out 11/6/2020</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
@@ -19210,20 +19210,20 @@
         </is>
       </c>
       <c r="D587" t="n">
-        <v>690</v>
+        <v>650</v>
       </c>
       <c r="E587" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F587" t="n">
-        <v>690</v>
+        <v>662</v>
       </c>
       <c r="G587" s="2" t="n">
         <v>44141</v>
       </c>
       <c r="H587" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sealed-AMD-Ryzen-5800x-IN-HAND-Ships-Today/284069546025?hash=item4223dd4829:g:JO0AAOSwVhFfpC4a</t>
+          <t>https://www.ebay.com/itm/Ryzen-7-5800x-Shipping-out-11-6-2020/264926468118?hash=item3daed91816:g:QSsAAOSwnF1fpFf3</t>
         </is>
       </c>
     </row>
@@ -19233,7 +19233,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Ryzen 7 5800X 8 Core,16 Thread.4.7 GHz max FREE FarCry 6 In Hand 2Day UPS </t>
+          <t>AMD Ryzen 7 5800X 3.8GHz AM4 CPU CONFIRMED PRE-SALE - FREE/FAST SHIPPING!!</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
@@ -19242,20 +19242,20 @@
         </is>
       </c>
       <c r="D588" t="n">
-        <v>691</v>
+        <v>641</v>
       </c>
       <c r="E588" t="n">
-        <v>9.99</v>
+        <v>19.99</v>
       </c>
       <c r="F588" t="n">
-        <v>700.99</v>
+        <v>660.99</v>
       </c>
       <c r="G588" s="2" t="n">
         <v>44141</v>
       </c>
       <c r="H588" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-8-Core-16-Thread-4-7-GHz-max-FREE-FarCry-6-In-Hand-2Day-UPS/174506792481?hash=item28a16a5621:g:QNEAAOSwT7JfpFC0</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-3-8GHz-AM4-CPU-CONFIRMED-PRE-SALE-FREE-FAST-SHIPPING/164493005741?hash=item264c8c13ad:g:WKcAAOSwEV5fpBll</t>
         </is>
       </c>
     </row>
@@ -19265,7 +19265,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X 3.8 GHz Base,4.7 GHz max. In Hand！</t>
+          <t>AMD Ryzen 7 5800X 8 Core 16 Thread CPU</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
@@ -19274,20 +19274,20 @@
         </is>
       </c>
       <c r="D589" t="n">
-        <v>705</v>
+        <v>650</v>
       </c>
       <c r="E589" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F589" t="n">
-        <v>705</v>
+        <v>660</v>
       </c>
       <c r="G589" s="2" t="n">
         <v>44141</v>
       </c>
       <c r="H589" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-3-8-GHz-Base-4-7-GHz-max-In-Hand/224222962624?hash=item3434bae3c0:g:A2IAAOSw4-RfpCoW</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-8-Core-16-Thread-CPU/333778896076?hash=item4db6c5c4cc:g:TWUAAOSwxsNfpDKj</t>
         </is>
       </c>
     </row>
@@ -19297,7 +19297,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X 8 Core,16 Thread.3.8 GHz Base,4.7 GHz max. In Hand, SHIP TODAY</t>
+          <t>Sealed AMD Ryzen 5800x IN HAND Ships Today</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
@@ -19306,20 +19306,20 @@
         </is>
       </c>
       <c r="D590" t="n">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="E590" t="n">
         <v>0</v>
       </c>
       <c r="F590" t="n">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="G590" s="2" t="n">
         <v>44141</v>
       </c>
       <c r="H590" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-8-Core-16-Thread-3-8-GHz-Base-4-7-GHz-max-In-Hand-SHIP-TODAY/224222900568?hash=item3434b9f158:g:uIYAAOSwdstfpBeF</t>
+          <t>https://www.ebay.com/itm/Sealed-AMD-Ryzen-5800x-IN-HAND-Ships-Today/284069546025?hash=item4223dd4829:g:JO0AAOSwVhFfpC4a</t>
         </is>
       </c>
     </row>
@@ -19329,7 +19329,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X AM4 Boxed CPU New Sealed 5000 Series</t>
+          <t xml:space="preserve">AMD Ryzen 7 5800X 8 Core,16 Thread.4.7 GHz max FREE FarCry 6 In Hand 2Day UPS </t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
@@ -19338,20 +19338,20 @@
         </is>
       </c>
       <c r="D591" t="n">
-        <v>694.99</v>
+        <v>691</v>
       </c>
       <c r="E591" t="n">
-        <v>5</v>
+        <v>9.99</v>
       </c>
       <c r="F591" t="n">
-        <v>699.99</v>
+        <v>700.99</v>
       </c>
       <c r="G591" s="2" t="n">
         <v>44141</v>
       </c>
       <c r="H591" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-AM4-Boxed-CPU-New-Sealed-5000-Series/274563953269?hash=item3fed497275:g:dtUAAOSwlHdfpVnT</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-8-Core-16-Thread-4-7-GHz-max-FREE-FarCry-6-In-Hand-2Day-UPS/174506792481?hash=item28a16a5621:g:QNEAAOSwT7JfpFC0</t>
         </is>
       </c>
     </row>
@@ -19361,7 +19361,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X 3.8GHz AM4 CPU CONFIRMED ORDER</t>
+          <t>AMD Ryzen 7 5800X 3.8 GHz Base,4.7 GHz max. In Hand！</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
@@ -19370,20 +19370,20 @@
         </is>
       </c>
       <c r="D592" t="n">
-        <v>699.99</v>
+        <v>705</v>
       </c>
       <c r="E592" t="n">
         <v>0</v>
       </c>
       <c r="F592" t="n">
-        <v>699.99</v>
+        <v>705</v>
       </c>
       <c r="G592" s="2" t="n">
         <v>44141</v>
       </c>
       <c r="H592" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-3-8GHz-AM4-CPU-CONFIRMED-ORDER/303755392525?epid=12041984358&amp;hash=item46b93b760d:g:MkEAAOSw6bVfpDzt</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-3-8-GHz-Base-4-7-GHz-max-In-Hand/224222962624?hash=item3434bae3c0:g:A2IAAOSw4-RfpCoW</t>
         </is>
       </c>
     </row>
@@ -19393,7 +19393,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X Confirmed Pre-Order ETA: 11/06/20</t>
+          <t>AMD Ryzen 7 5800X 8 Core,16 Thread.3.8 GHz Base,4.7 GHz max. In Hand, SHIP TODAY</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
@@ -19402,20 +19402,20 @@
         </is>
       </c>
       <c r="D593" t="n">
-        <v>694.99</v>
+        <v>700</v>
       </c>
       <c r="E593" t="n">
-        <v>17.06</v>
+        <v>0</v>
       </c>
       <c r="F593" t="n">
-        <v>712.05</v>
+        <v>700</v>
       </c>
       <c r="G593" s="2" t="n">
         <v>44141</v>
       </c>
       <c r="H593" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Confirmed-Pre-Order-ETA-11-06-20/133567163661?epid=12041984358&amp;hash=item1f19392d0d:g:jMgAAOSwW8VfpBeE</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-8-Core-16-Thread-3-8-GHz-Base-4-7-GHz-max-In-Hand-SHIP-TODAY/224222900568?hash=item3434b9f158:g:uIYAAOSwdstfpBeF</t>
         </is>
       </c>
     </row>
@@ -19425,7 +19425,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800x 3.8GHz AM4 [Ready To Ship]</t>
+          <t>AMD Ryzen 7 5800X AM4 Boxed CPU New Sealed 5000 Series</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
@@ -19434,20 +19434,20 @@
         </is>
       </c>
       <c r="D594" t="n">
-        <v>700</v>
+        <v>694.99</v>
       </c>
       <c r="E594" t="n">
-        <v>8.25</v>
+        <v>5</v>
       </c>
       <c r="F594" t="n">
-        <v>708.25</v>
+        <v>699.99</v>
       </c>
       <c r="G594" s="2" t="n">
-        <v>44140</v>
+        <v>44141</v>
       </c>
       <c r="H594" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800x-3-8GHz-AM4-Ready-To-Ship/284070210919?hash=item4223e76d67:g:Vw4AAOSw8vJfpCSD</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-AM4-Boxed-CPU-New-Sealed-5000-Series/274563953269?hash=item3fed497275:g:dtUAAOSwlHdfpVnT</t>
         </is>
       </c>
     </row>
@@ -19457,7 +19457,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X Desktop Processor - CONFIRMED ORDER - FAST SHIPPING</t>
+          <t>AMD Ryzen 7 5800X 3.8GHz AM4 CPU CONFIRMED ORDER</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
@@ -19466,20 +19466,20 @@
         </is>
       </c>
       <c r="D595" t="n">
-        <v>698</v>
+        <v>699.99</v>
       </c>
       <c r="E595" t="n">
         <v>0</v>
       </c>
       <c r="F595" t="n">
-        <v>698</v>
+        <v>699.99</v>
       </c>
       <c r="G595" s="2" t="n">
-        <v>44140</v>
+        <v>44141</v>
       </c>
       <c r="H595" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-Processor-CONFIRMED-ORDER-FAST-SHIPPING/184522980365?hash=item2af66d3c0d:g:oJsAAOSwlOJfpJB9</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-3-8GHz-AM4-CPU-CONFIRMED-ORDER/303755392525?epid=12041984358&amp;hash=item46b93b760d:g:MkEAAOSw6bVfpDzt</t>
         </is>
       </c>
     </row>
@@ -19489,7 +19489,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800x 3.8GHz AM4 [Sealed Ready To Ship]</t>
+          <t>AMD Ryzen 7 5800X Confirmed Pre-Order ETA: 11/06/20</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
@@ -19498,20 +19498,20 @@
         </is>
       </c>
       <c r="D596" t="n">
-        <v>700</v>
+        <v>694.99</v>
       </c>
       <c r="E596" t="n">
-        <v>0</v>
+        <v>17.06</v>
       </c>
       <c r="F596" t="n">
-        <v>700</v>
+        <v>712.05</v>
       </c>
       <c r="G596" s="2" t="n">
-        <v>44140</v>
+        <v>44141</v>
       </c>
       <c r="H596" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800x-3-8GHz-AM4-Sealed-Ready-To-Ship/254770136029?hash=item3b517bc3dd:g:o7wAAOSwPitfpM51</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Confirmed-Pre-Order-ETA-11-06-20/133567163661?epid=12041984358&amp;hash=item1f19392d0d:g:jMgAAOSwW8VfpBeE</t>
         </is>
       </c>
     </row>
@@ -19521,29 +19521,29 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X Desktop Processor (4.7GHz, 8 Cores, Socket AM4) Box -...</t>
+          <t>AMD Ryzen 7 5800x 3.8GHz AM4 [Ready To Ship]</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>Box in-hand. Fast Shipping.</t>
+          <t>Brand New</t>
         </is>
       </c>
       <c r="D597" t="n">
-        <v>685</v>
+        <v>700</v>
       </c>
       <c r="E597" t="n">
-        <v>0</v>
+        <v>8.25</v>
       </c>
       <c r="F597" t="n">
-        <v>685</v>
+        <v>708.25</v>
       </c>
       <c r="G597" s="2" t="n">
         <v>44140</v>
       </c>
       <c r="H597" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-Processor-4-7GHz-8-Cores-Socket-AM4-Box/324363061671?epid=12041984358&amp;hash=item4b858b89a7:g:~ZQAAOSwfmFfpLT6</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800x-3-8GHz-AM4-Ready-To-Ship/284070210919?hash=item4223e76d67:g:Vw4AAOSw8vJfpCSD</t>
         </is>
       </c>
     </row>
@@ -19553,7 +19553,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X AM4 Boxed CPU New Sealed 5000 Series</t>
+          <t>AMD Ryzen 7 5800X Desktop Processor - CONFIRMED ORDER - FAST SHIPPING</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
@@ -19562,20 +19562,20 @@
         </is>
       </c>
       <c r="D598" t="n">
-        <v>750</v>
+        <v>698</v>
       </c>
       <c r="E598" t="n">
-        <v>9.9</v>
+        <v>0</v>
       </c>
       <c r="F598" t="n">
-        <v>759.9</v>
+        <v>698</v>
       </c>
       <c r="G598" s="2" t="n">
         <v>44140</v>
       </c>
       <c r="H598" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-AM4-Boxed-CPU-New-Sealed-5000-Series/164493704265?hash=item264c96bc49:g:68IAAOSweNBfpJ5l</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-Processor-CONFIRMED-ORDER-FAST-SHIPPING/184522980365?hash=item2af66d3c0d:g:oJsAAOSwlOJfpJB9</t>
         </is>
       </c>
     </row>
@@ -19585,7 +19585,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>New in Box AMD Ryzen 7 5800x "In Hand" Ships ASAP</t>
+          <t>AMD Ryzen 7 5800x 3.8GHz AM4 [Sealed Ready To Ship]</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
@@ -19607,7 +19607,7 @@
       </c>
       <c r="H599" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/New-in-Box-AMD-Ryzen-7-5800x-In-Hand-Ships-ASAP/133567329479?hash=item1f193bb4c7:g:DEcAAOSw3iBfpD09</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800x-3-8GHz-AM4-Sealed-Ready-To-Ship/254770136029?hash=item3b517bc3dd:g:o7wAAOSwPitfpM51</t>
         </is>
       </c>
     </row>
@@ -19617,35 +19617,35 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>AMD Ryzen 7 5800X AM4 Boxed CPU New Sealed 5000 Series</t>
+          <t>AMD Ryzen 7 5800X Desktop Processor (4.7GHz, 8 Cores, Socket AM4) Box -...</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>Brand New</t>
+          <t>Box in-hand. Fast Shipping.</t>
         </is>
       </c>
       <c r="D600" t="n">
-        <v>725</v>
+        <v>685</v>
       </c>
       <c r="E600" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F600" t="n">
-        <v>737</v>
+        <v>685</v>
       </c>
       <c r="G600" s="2" t="n">
         <v>44140</v>
       </c>
       <c r="H600" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-AM4-Boxed-CPU-New-Sealed-5000-Series/333779170594?hash=item4db6c9f522:g:KekAAOSwZq9fpG1k</t>
+          <t>https://www.ebay.com/itm/AMD-Ryzen-7-5800X-Desktop-Processor-4-7GHz-8-Cores-Socket-AM4-Box/324363061671?epid=12041984358&amp;hash=item4b858b89a7:g:~ZQAAOSwfmFfpLT6</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B601" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B602" t="inlineStr">
         <is>
@@ -19709,7 +19709,7 @@
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B603" t="inlineStr">
         <is>
@@ -19741,7 +19741,7 @@
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B604" t="inlineStr">
         <is>
@@ -19773,7 +19773,7 @@
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B605" t="inlineStr">
         <is>
@@ -19805,7 +19805,7 @@
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B606" t="inlineStr">
         <is>
@@ -19837,7 +19837,7 @@
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B607" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B608" t="inlineStr">
         <is>
@@ -19901,7 +19901,7 @@
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B609" t="inlineStr">
         <is>
@@ -19933,7 +19933,7 @@
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B610" t="inlineStr">
         <is>
@@ -19965,7 +19965,7 @@
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B611" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B612" t="inlineStr">
         <is>
@@ -20029,7 +20029,7 @@
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B613" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B614" t="inlineStr">
         <is>
@@ -20093,7 +20093,7 @@
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B615" t="inlineStr">
         <is>
@@ -20125,7 +20125,7 @@
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B616" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B617" t="inlineStr">
         <is>
@@ -20189,7 +20189,7 @@
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B618" t="inlineStr">
         <is>
@@ -20221,7 +20221,7 @@
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B619" t="inlineStr">
         <is>
@@ -20253,7 +20253,7 @@
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B620" t="inlineStr">
         <is>
@@ -20285,7 +20285,7 @@
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B621" t="inlineStr">
         <is>
@@ -20317,7 +20317,7 @@
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B622" t="inlineStr">
         <is>
@@ -20349,7 +20349,7 @@
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B623" t="inlineStr">
         <is>
@@ -20381,7 +20381,7 @@
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B624" t="inlineStr">
         <is>
@@ -20413,7 +20413,7 @@
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B625" t="inlineStr">
         <is>
@@ -20445,7 +20445,7 @@
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B626" t="inlineStr">
         <is>
@@ -20477,7 +20477,7 @@
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B627" t="inlineStr">
         <is>
@@ -20509,7 +20509,7 @@
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B628" t="inlineStr">
         <is>
@@ -20541,7 +20541,7 @@
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B629" t="inlineStr">
         <is>
@@ -20573,7 +20573,7 @@
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B630" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B631" t="inlineStr">
         <is>
@@ -20637,7 +20637,7 @@
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B632" t="inlineStr">
         <is>
@@ -20669,7 +20669,7 @@
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B633" t="inlineStr">
         <is>
@@ -20701,7 +20701,7 @@
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B634" t="inlineStr">
         <is>
@@ -20733,7 +20733,7 @@
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B635" t="inlineStr">
         <is>
